--- a/Documentacion/Tests/Dynamic Test Processes Documentation/Test Case Specification.xlsx
+++ b/Documentacion/Tests/Dynamic Test Processes Documentation/Test Case Specification.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\qa-grupo-3-aux\Documentacion\Tests\Dynamic Test Processes Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis Pablo Monge\Cursos\2018\II semestre\aseguramiento\Grupo7-Proyecto-4\Documentacion\Tests\Dynamic Test Processes Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A3FB9E-7630-4FE6-8118-99BE0E4CD2BB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3023B2E-2A9C-415A-8EB3-0D148D7DCA54}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="366">
   <si>
     <t>P-01: Plan de Pruebas para Tienda Virtual</t>
   </si>
@@ -1295,9 +1295,6 @@
     <t>TC-071</t>
   </si>
   <si>
-    <t>Debe estar en la vista de compras</t>
-  </si>
-  <si>
     <t>id = 1</t>
   </si>
   <si>
@@ -1317,6 +1314,33 @@
   </si>
   <si>
     <t>No despliega nada.</t>
+  </si>
+  <si>
+    <t>Hacer una búsqueda sin entrada de datos</t>
+  </si>
+  <si>
+    <t>Despliegue una orden específica</t>
+  </si>
+  <si>
+    <t>Debe tener una orden registrada, debe estar en la vista de órdenes</t>
+  </si>
+  <si>
+    <t>Debe estar en la vista de órdenes</t>
+  </si>
+  <si>
+    <t>Debe tener varias órdenes registradas, estar en la vista de órdenes</t>
+  </si>
+  <si>
+    <t>Precionar buscar</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Despliega mensaje de error</t>
+  </si>
+  <si>
+    <t>No despliega órdenes adicionales</t>
   </si>
 </sst>
 </file>
@@ -1388,7 +1412,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -1734,11 +1758,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1787,6 +1833,157 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1832,9 +2029,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1850,158 +2044,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2321,10 +2382,10 @@
     <tabColor rgb="FFF6B26B"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:R78"/>
+  <dimension ref="A1:R80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G66" workbookViewId="0">
-      <selection activeCell="Q73" sqref="Q73:R76"/>
+    <sheetView tabSelected="1" topLeftCell="H71" workbookViewId="0">
+      <selection activeCell="Q80" sqref="Q80:R80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2333,2631 +2394,3053 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
     </row>
     <row r="2" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
     </row>
     <row r="4" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="81" t="s">
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="81" t="s">
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="82"/>
-      <c r="N4" s="82"/>
-      <c r="O4" s="82"/>
-      <c r="P4" s="82"/>
-      <c r="Q4" s="82"/>
-      <c r="R4" s="83"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="22"/>
     </row>
     <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="82"/>
-      <c r="D5" s="83"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="22"/>
       <c r="E5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="81" t="s">
+      <c r="F5" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="82"/>
-      <c r="H5" s="83"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="22"/>
       <c r="I5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="81" t="s">
+      <c r="J5" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="83"/>
-      <c r="L5" s="81" t="s">
+      <c r="K5" s="22"/>
+      <c r="L5" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="81" t="s">
+      <c r="M5" s="22"/>
+      <c r="N5" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="83"/>
+      <c r="O5" s="22"/>
       <c r="P5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="Q5" s="81" t="s">
+      <c r="Q5" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="R5" s="83"/>
+      <c r="R5" s="22"/>
     </row>
     <row r="6" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="85"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="24"/>
       <c r="E6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="84" t="s">
+      <c r="F6" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="82"/>
-      <c r="H6" s="83"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="22"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="84" t="s">
+      <c r="J6" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="97"/>
-      <c r="L6" s="84" t="s">
+      <c r="K6" s="28"/>
+      <c r="L6" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="M6" s="83"/>
-      <c r="N6" s="84" t="s">
+      <c r="M6" s="22"/>
+      <c r="N6" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="O6" s="83"/>
+      <c r="O6" s="22"/>
       <c r="P6" s="7">
         <v>43360</v>
       </c>
-      <c r="Q6" s="84" t="s">
+      <c r="Q6" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="R6" s="83"/>
+      <c r="R6" s="22"/>
     </row>
     <row r="7" spans="1:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="42"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="86"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="36"/>
       <c r="E7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="84" t="s">
+      <c r="F7" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="82"/>
-      <c r="H7" s="83"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="22"/>
       <c r="I7" s="6"/>
-      <c r="J7" s="84" t="s">
+      <c r="J7" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="83"/>
-      <c r="L7" s="84" t="s">
+      <c r="K7" s="22"/>
+      <c r="L7" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="M7" s="83"/>
-      <c r="N7" s="84" t="s">
+      <c r="M7" s="22"/>
+      <c r="N7" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="O7" s="83"/>
+      <c r="O7" s="22"/>
       <c r="P7" s="7">
         <v>43360</v>
       </c>
-      <c r="Q7" s="84" t="s">
+      <c r="Q7" s="21" t="s">
         <v>334</v>
       </c>
-      <c r="R7" s="83"/>
+      <c r="R7" s="22"/>
     </row>
     <row r="8" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="42"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="86"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="36"/>
       <c r="E8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="84" t="s">
+      <c r="F8" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="82"/>
-      <c r="H8" s="83"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="22"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="84" t="s">
+      <c r="J8" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="K8" s="83"/>
-      <c r="L8" s="84" t="s">
+      <c r="K8" s="22"/>
+      <c r="L8" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="M8" s="83"/>
-      <c r="N8" s="84" t="s">
+      <c r="M8" s="22"/>
+      <c r="N8" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="O8" s="83"/>
+      <c r="O8" s="22"/>
       <c r="P8" s="7">
         <v>43360</v>
       </c>
-      <c r="Q8" s="84" t="s">
+      <c r="Q8" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="R8" s="83"/>
+      <c r="R8" s="22"/>
     </row>
     <row r="9" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="42"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="86"/>
+      <c r="A9" s="41"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="36"/>
       <c r="E9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="84" t="s">
+      <c r="F9" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="82"/>
-      <c r="H9" s="83"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="22"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="84" t="s">
+      <c r="J9" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="K9" s="83"/>
-      <c r="L9" s="84" t="s">
+      <c r="K9" s="22"/>
+      <c r="L9" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="M9" s="83"/>
-      <c r="N9" s="84" t="s">
+      <c r="M9" s="22"/>
+      <c r="N9" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="O9" s="83"/>
+      <c r="O9" s="22"/>
       <c r="P9" s="7">
         <v>43360</v>
       </c>
-      <c r="Q9" s="84" t="s">
+      <c r="Q9" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="R9" s="83"/>
+      <c r="R9" s="22"/>
     </row>
     <row r="10" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="42"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="86"/>
+      <c r="A10" s="41"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="36"/>
       <c r="E10" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="84" t="s">
+      <c r="F10" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="82"/>
-      <c r="H10" s="83"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="22"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="84" t="s">
+      <c r="J10" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="K10" s="83"/>
-      <c r="L10" s="84" t="s">
+      <c r="K10" s="22"/>
+      <c r="L10" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="M10" s="83"/>
-      <c r="N10" s="84" t="s">
+      <c r="M10" s="22"/>
+      <c r="N10" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="O10" s="83"/>
+      <c r="O10" s="22"/>
       <c r="P10" s="7">
         <v>43360</v>
       </c>
-      <c r="Q10" s="84" t="s">
+      <c r="Q10" s="21" t="s">
         <v>335</v>
       </c>
-      <c r="R10" s="83"/>
+      <c r="R10" s="22"/>
     </row>
     <row r="11" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="42"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="86"/>
+      <c r="A11" s="41"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="36"/>
       <c r="E11" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="84" t="s">
+      <c r="F11" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="82"/>
-      <c r="H11" s="83"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="22"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="84" t="s">
+      <c r="J11" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="K11" s="83"/>
-      <c r="L11" s="84" t="s">
+      <c r="K11" s="22"/>
+      <c r="L11" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="M11" s="83"/>
-      <c r="N11" s="84" t="s">
+      <c r="M11" s="22"/>
+      <c r="N11" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="O11" s="83"/>
+      <c r="O11" s="22"/>
       <c r="P11" s="7">
         <v>43360</v>
       </c>
-      <c r="Q11" s="84" t="s">
+      <c r="Q11" s="21" t="s">
         <v>336</v>
       </c>
-      <c r="R11" s="83"/>
+      <c r="R11" s="22"/>
     </row>
     <row r="12" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="42"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="86"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="36"/>
       <c r="E12" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F12" s="84" t="s">
+      <c r="F12" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="G12" s="82"/>
-      <c r="H12" s="83"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="22"/>
       <c r="I12" s="8"/>
-      <c r="J12" s="84" t="s">
+      <c r="J12" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="K12" s="83"/>
-      <c r="L12" s="84" t="s">
+      <c r="K12" s="22"/>
+      <c r="L12" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="M12" s="83"/>
-      <c r="N12" s="84" t="s">
+      <c r="M12" s="22"/>
+      <c r="N12" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="O12" s="83"/>
+      <c r="O12" s="22"/>
       <c r="P12" s="7">
         <v>43360</v>
       </c>
-      <c r="Q12" s="84" t="s">
+      <c r="Q12" s="21" t="s">
         <v>337</v>
       </c>
-      <c r="R12" s="83"/>
+      <c r="R12" s="22"/>
     </row>
     <row r="13" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="43"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="87"/>
+      <c r="A13" s="42"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="39"/>
       <c r="E13" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F13" s="84" t="s">
+      <c r="F13" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="G13" s="82"/>
-      <c r="H13" s="83"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="22"/>
       <c r="I13" s="8"/>
-      <c r="J13" s="84" t="s">
+      <c r="J13" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="K13" s="83"/>
-      <c r="L13" s="84" t="s">
+      <c r="K13" s="22"/>
+      <c r="L13" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="M13" s="83"/>
-      <c r="N13" s="84" t="s">
+      <c r="M13" s="22"/>
+      <c r="N13" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="O13" s="83"/>
+      <c r="O13" s="22"/>
       <c r="P13" s="7">
         <v>43360</v>
       </c>
-      <c r="Q13" s="84" t="s">
+      <c r="Q13" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="R13" s="83"/>
+      <c r="R13" s="22"/>
     </row>
     <row r="14" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="45"/>
-      <c r="D14" s="85"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="24"/>
       <c r="E14" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="84" t="s">
+      <c r="F14" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="G14" s="82"/>
-      <c r="H14" s="83"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="22"/>
       <c r="I14" s="8"/>
-      <c r="J14" s="84" t="s">
+      <c r="J14" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="K14" s="83"/>
-      <c r="L14" s="84" t="s">
+      <c r="K14" s="22"/>
+      <c r="L14" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="M14" s="83"/>
-      <c r="N14" s="84" t="s">
+      <c r="M14" s="22"/>
+      <c r="N14" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="O14" s="83"/>
+      <c r="O14" s="22"/>
       <c r="P14" s="7">
         <v>43360</v>
       </c>
-      <c r="Q14" s="84" t="s">
+      <c r="Q14" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="R14" s="83"/>
+      <c r="R14" s="22"/>
     </row>
     <row r="15" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="43"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="87"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="39"/>
       <c r="E15" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F15" s="84" t="s">
+      <c r="F15" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="G15" s="82"/>
-      <c r="H15" s="83"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="22"/>
       <c r="I15" s="8"/>
-      <c r="J15" s="84"/>
-      <c r="K15" s="83"/>
-      <c r="L15" s="84" t="s">
+      <c r="J15" s="21"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="M15" s="83"/>
-      <c r="N15" s="84" t="s">
+      <c r="M15" s="22"/>
+      <c r="N15" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="O15" s="83"/>
+      <c r="O15" s="22"/>
       <c r="P15" s="7">
         <v>43360</v>
       </c>
-      <c r="Q15" s="84" t="s">
+      <c r="Q15" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="R15" s="83"/>
+      <c r="R15" s="22"/>
     </row>
     <row r="16" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="45"/>
-      <c r="D16" s="85"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="24"/>
       <c r="E16" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F16" s="84" t="s">
+      <c r="F16" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="G16" s="82"/>
-      <c r="H16" s="83"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="22"/>
       <c r="I16" s="8"/>
-      <c r="J16" s="84" t="s">
+      <c r="J16" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="K16" s="83"/>
-      <c r="L16" s="84" t="s">
+      <c r="K16" s="22"/>
+      <c r="L16" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="M16" s="83"/>
-      <c r="N16" s="84" t="s">
+      <c r="M16" s="22"/>
+      <c r="N16" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="O16" s="83"/>
+      <c r="O16" s="22"/>
       <c r="P16" s="7">
         <v>43360</v>
       </c>
-      <c r="Q16" s="84" t="s">
+      <c r="Q16" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="R16" s="83"/>
+      <c r="R16" s="22"/>
     </row>
     <row r="17" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="42"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="86"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="36"/>
       <c r="E17" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F17" s="84" t="s">
+      <c r="F17" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="82"/>
-      <c r="H17" s="83"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="22"/>
       <c r="I17" s="8"/>
-      <c r="J17" s="84" t="s">
+      <c r="J17" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="K17" s="83"/>
-      <c r="L17" s="84" t="s">
+      <c r="K17" s="22"/>
+      <c r="L17" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="M17" s="83"/>
-      <c r="N17" s="84" t="s">
+      <c r="M17" s="22"/>
+      <c r="N17" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="O17" s="83"/>
+      <c r="O17" s="22"/>
       <c r="P17" s="7">
         <v>43360</v>
       </c>
-      <c r="Q17" s="84" t="s">
+      <c r="Q17" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="R17" s="83"/>
+      <c r="R17" s="22"/>
     </row>
     <row r="18" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="42"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="86"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="36"/>
       <c r="E18" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="F18" s="84" t="s">
+      <c r="F18" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="G18" s="82"/>
-      <c r="H18" s="83"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="22"/>
       <c r="I18" s="8"/>
-      <c r="J18" s="84" t="s">
+      <c r="J18" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="K18" s="83"/>
-      <c r="L18" s="84" t="s">
+      <c r="K18" s="22"/>
+      <c r="L18" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="M18" s="83"/>
-      <c r="N18" s="84" t="s">
+      <c r="M18" s="22"/>
+      <c r="N18" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="O18" s="83"/>
+      <c r="O18" s="22"/>
       <c r="P18" s="7">
         <v>43360</v>
       </c>
-      <c r="Q18" s="84" t="s">
+      <c r="Q18" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="R18" s="83"/>
+      <c r="R18" s="22"/>
     </row>
     <row r="19" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="42"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="86"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="36"/>
       <c r="E19" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="F19" s="84" t="s">
+      <c r="F19" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="G19" s="82"/>
-      <c r="H19" s="83"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="22"/>
       <c r="I19" s="8"/>
-      <c r="J19" s="84" t="s">
+      <c r="J19" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="K19" s="83"/>
-      <c r="L19" s="84" t="s">
+      <c r="K19" s="22"/>
+      <c r="L19" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="M19" s="83"/>
-      <c r="N19" s="84" t="s">
+      <c r="M19" s="22"/>
+      <c r="N19" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="O19" s="83"/>
+      <c r="O19" s="22"/>
       <c r="P19" s="7">
         <v>43360</v>
       </c>
-      <c r="Q19" s="84" t="s">
+      <c r="Q19" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="R19" s="83"/>
+      <c r="R19" s="22"/>
     </row>
     <row r="20" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="43"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="87"/>
+      <c r="A20" s="42"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="39"/>
       <c r="E20" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="F20" s="84" t="s">
+      <c r="F20" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="G20" s="82"/>
-      <c r="H20" s="83"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="22"/>
       <c r="I20" s="8"/>
-      <c r="J20" s="84" t="s">
+      <c r="J20" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="K20" s="83"/>
-      <c r="L20" s="84" t="s">
+      <c r="K20" s="22"/>
+      <c r="L20" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="M20" s="83"/>
-      <c r="N20" s="84" t="s">
+      <c r="M20" s="22"/>
+      <c r="N20" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="O20" s="83"/>
+      <c r="O20" s="22"/>
       <c r="P20" s="7">
         <v>43360</v>
       </c>
-      <c r="Q20" s="84" t="s">
+      <c r="Q20" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="R20" s="83"/>
+      <c r="R20" s="22"/>
     </row>
     <row r="21" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="C21" s="45"/>
-      <c r="D21" s="85"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="24"/>
       <c r="E21" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="F21" s="84" t="s">
+      <c r="F21" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="G21" s="82"/>
-      <c r="H21" s="83"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="22"/>
       <c r="I21" s="9"/>
-      <c r="J21" s="84" t="s">
+      <c r="J21" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="K21" s="83"/>
-      <c r="L21" s="84" t="s">
+      <c r="K21" s="22"/>
+      <c r="L21" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="M21" s="83"/>
-      <c r="N21" s="84" t="s">
+      <c r="M21" s="22"/>
+      <c r="N21" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="O21" s="83"/>
+      <c r="O21" s="22"/>
       <c r="P21" s="7">
         <v>43360</v>
       </c>
-      <c r="Q21" s="84" t="s">
+      <c r="Q21" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="R21" s="83"/>
+      <c r="R21" s="22"/>
     </row>
     <row r="22" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="42"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="86"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="36"/>
       <c r="E22" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="F22" s="84" t="s">
+      <c r="F22" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="82"/>
-      <c r="H22" s="83"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="22"/>
       <c r="I22" s="9"/>
-      <c r="J22" s="84" t="s">
+      <c r="J22" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="K22" s="83"/>
-      <c r="L22" s="84" t="s">
+      <c r="K22" s="22"/>
+      <c r="L22" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="M22" s="83"/>
-      <c r="N22" s="84" t="s">
+      <c r="M22" s="22"/>
+      <c r="N22" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="O22" s="83"/>
+      <c r="O22" s="22"/>
       <c r="P22" s="7">
         <v>43360</v>
       </c>
-      <c r="Q22" s="84" t="s">
+      <c r="Q22" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="R22" s="83"/>
+      <c r="R22" s="22"/>
     </row>
     <row r="23" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="42"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="86"/>
+      <c r="A23" s="41"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="36"/>
       <c r="E23" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="F23" s="84" t="s">
+      <c r="F23" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="G23" s="82"/>
-      <c r="H23" s="83"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="22"/>
       <c r="I23" s="9"/>
-      <c r="J23" s="84" t="s">
+      <c r="J23" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="K23" s="83"/>
-      <c r="L23" s="84" t="s">
+      <c r="K23" s="22"/>
+      <c r="L23" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="M23" s="83"/>
-      <c r="N23" s="84" t="s">
+      <c r="M23" s="22"/>
+      <c r="N23" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="O23" s="83"/>
+      <c r="O23" s="22"/>
       <c r="P23" s="7">
         <v>43360</v>
       </c>
-      <c r="Q23" s="84" t="s">
+      <c r="Q23" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="R23" s="83"/>
+      <c r="R23" s="22"/>
     </row>
     <row r="24" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="42"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="86"/>
+      <c r="A24" s="41"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="36"/>
       <c r="E24" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="F24" s="84" t="s">
+      <c r="F24" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="G24" s="82"/>
-      <c r="H24" s="83"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="22"/>
       <c r="I24" s="9"/>
-      <c r="J24" s="84" t="s">
+      <c r="J24" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="K24" s="83"/>
-      <c r="L24" s="84" t="s">
+      <c r="K24" s="22"/>
+      <c r="L24" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="M24" s="83"/>
-      <c r="N24" s="84" t="s">
+      <c r="M24" s="22"/>
+      <c r="N24" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="O24" s="83"/>
+      <c r="O24" s="22"/>
       <c r="P24" s="7">
         <v>43360</v>
       </c>
-      <c r="Q24" s="84" t="s">
+      <c r="Q24" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="R24" s="83"/>
+      <c r="R24" s="22"/>
     </row>
     <row r="25" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="42"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="86"/>
+      <c r="A25" s="41"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="36"/>
       <c r="E25" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F25" s="84" t="s">
+      <c r="F25" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="G25" s="82"/>
-      <c r="H25" s="83"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="22"/>
       <c r="I25" s="9"/>
-      <c r="J25" s="84" t="s">
+      <c r="J25" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="K25" s="83"/>
-      <c r="L25" s="84" t="s">
+      <c r="K25" s="22"/>
+      <c r="L25" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="M25" s="83"/>
-      <c r="N25" s="84" t="s">
+      <c r="M25" s="22"/>
+      <c r="N25" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="O25" s="83"/>
+      <c r="O25" s="22"/>
       <c r="P25" s="7">
         <v>43360</v>
       </c>
-      <c r="Q25" s="84" t="s">
+      <c r="Q25" s="21" t="s">
         <v>338</v>
       </c>
-      <c r="R25" s="83"/>
+      <c r="R25" s="22"/>
     </row>
     <row r="26" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="42"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="86"/>
+      <c r="A26" s="41"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="36"/>
       <c r="E26" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="F26" s="84" t="s">
+      <c r="F26" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="G26" s="82"/>
-      <c r="H26" s="83"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="22"/>
       <c r="I26" s="9"/>
-      <c r="J26" s="84" t="s">
+      <c r="J26" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="K26" s="83"/>
-      <c r="L26" s="84" t="s">
+      <c r="K26" s="22"/>
+      <c r="L26" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="M26" s="83"/>
-      <c r="N26" s="84" t="s">
+      <c r="M26" s="22"/>
+      <c r="N26" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="O26" s="83"/>
+      <c r="O26" s="22"/>
       <c r="P26" s="7">
         <v>43360</v>
       </c>
-      <c r="Q26" s="84" t="s">
+      <c r="Q26" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="R26" s="83"/>
+      <c r="R26" s="22"/>
     </row>
     <row r="27" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="43"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="87"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="39"/>
       <c r="E27" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="F27" s="84" t="s">
+      <c r="F27" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="G27" s="82"/>
-      <c r="H27" s="83"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="22"/>
       <c r="I27" s="8"/>
-      <c r="J27" s="84" t="s">
+      <c r="J27" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="K27" s="83"/>
-      <c r="L27" s="84" t="s">
+      <c r="K27" s="22"/>
+      <c r="L27" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="M27" s="83"/>
-      <c r="N27" s="84" t="s">
+      <c r="M27" s="22"/>
+      <c r="N27" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="O27" s="83"/>
+      <c r="O27" s="22"/>
       <c r="P27" s="7">
         <v>43360</v>
       </c>
-      <c r="Q27" s="84" t="s">
+      <c r="Q27" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="R27" s="83"/>
+      <c r="R27" s="22"/>
     </row>
     <row r="28" spans="1:18" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="41" t="s">
+      <c r="A28" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="B28" s="44" t="s">
+      <c r="B28" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="C28" s="45"/>
-      <c r="D28" s="85"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="24"/>
       <c r="E28" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="F28" s="84" t="s">
+      <c r="F28" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="G28" s="82"/>
-      <c r="H28" s="83"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="22"/>
       <c r="I28" s="8"/>
-      <c r="J28" s="68" t="s">
+      <c r="J28" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="K28" s="83"/>
-      <c r="L28" s="84" t="s">
+      <c r="K28" s="22"/>
+      <c r="L28" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="M28" s="83"/>
-      <c r="N28" s="84" t="s">
+      <c r="M28" s="22"/>
+      <c r="N28" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="O28" s="83"/>
+      <c r="O28" s="22"/>
       <c r="P28" s="7">
         <v>43360</v>
       </c>
-      <c r="Q28" s="84" t="s">
+      <c r="Q28" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="R28" s="83"/>
+      <c r="R28" s="22"/>
     </row>
     <row r="29" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="42"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="86"/>
+      <c r="A29" s="41"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="36"/>
       <c r="E29" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="F29" s="84" t="s">
+      <c r="F29" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="G29" s="82"/>
-      <c r="H29" s="83"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="22"/>
       <c r="I29" s="8"/>
-      <c r="J29" s="84" t="s">
+      <c r="J29" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="K29" s="83"/>
-      <c r="L29" s="84" t="s">
+      <c r="K29" s="22"/>
+      <c r="L29" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="M29" s="83"/>
-      <c r="N29" s="84" t="s">
+      <c r="M29" s="22"/>
+      <c r="N29" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="O29" s="83"/>
+      <c r="O29" s="22"/>
       <c r="P29" s="7">
         <v>43360</v>
       </c>
-      <c r="Q29" s="84" t="s">
+      <c r="Q29" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="R29" s="83"/>
+      <c r="R29" s="22"/>
     </row>
     <row r="30" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="43"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="87"/>
+      <c r="A30" s="42"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="39"/>
       <c r="E30" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="F30" s="84" t="s">
+      <c r="F30" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="G30" s="82"/>
-      <c r="H30" s="83"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="22"/>
       <c r="I30" s="8"/>
-      <c r="J30" s="84" t="s">
+      <c r="J30" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="K30" s="83"/>
-      <c r="L30" s="84" t="s">
+      <c r="K30" s="22"/>
+      <c r="L30" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="M30" s="83"/>
-      <c r="N30" s="84" t="s">
+      <c r="M30" s="22"/>
+      <c r="N30" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="O30" s="83"/>
+      <c r="O30" s="22"/>
       <c r="P30" s="7">
         <v>43360</v>
       </c>
-      <c r="Q30" s="84" t="s">
+      <c r="Q30" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="R30" s="83"/>
+      <c r="R30" s="22"/>
     </row>
     <row r="31" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="41" t="s">
+      <c r="A31" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="B31" s="44" t="s">
+      <c r="B31" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="C31" s="45"/>
-      <c r="D31" s="85"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="24"/>
       <c r="E31" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="F31" s="84" t="s">
+      <c r="F31" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="G31" s="82"/>
-      <c r="H31" s="83"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="22"/>
       <c r="I31" s="8"/>
-      <c r="J31" s="84" t="s">
+      <c r="J31" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="K31" s="83"/>
-      <c r="L31" s="84" t="s">
+      <c r="K31" s="22"/>
+      <c r="L31" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="M31" s="83"/>
-      <c r="N31" s="84" t="s">
+      <c r="M31" s="22"/>
+      <c r="N31" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="O31" s="83"/>
+      <c r="O31" s="22"/>
       <c r="P31" s="7">
         <v>43360</v>
       </c>
-      <c r="Q31" s="84" t="s">
+      <c r="Q31" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="R31" s="83"/>
+      <c r="R31" s="22"/>
     </row>
     <row r="32" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="43"/>
-      <c r="B32" s="49"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="87"/>
+      <c r="A32" s="42"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="39"/>
       <c r="E32" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="F32" s="84" t="s">
+      <c r="F32" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="G32" s="82"/>
-      <c r="H32" s="83"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="22"/>
       <c r="I32" s="8"/>
-      <c r="J32" s="84" t="s">
+      <c r="J32" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="K32" s="83"/>
-      <c r="L32" s="84" t="s">
+      <c r="K32" s="22"/>
+      <c r="L32" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="M32" s="83"/>
-      <c r="N32" s="84" t="s">
+      <c r="M32" s="22"/>
+      <c r="N32" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="O32" s="83"/>
+      <c r="O32" s="22"/>
       <c r="P32" s="7">
         <v>43360</v>
       </c>
-      <c r="Q32" s="84" t="s">
+      <c r="Q32" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="R32" s="83"/>
+      <c r="R32" s="22"/>
     </row>
     <row r="33" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="41" t="s">
+      <c r="A33" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="B33" s="90" t="s">
+      <c r="B33" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="C33" s="45"/>
-      <c r="D33" s="85"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="24"/>
       <c r="E33" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="F33" s="84" t="s">
+      <c r="F33" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="G33" s="82"/>
-      <c r="H33" s="83"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="22"/>
       <c r="I33" s="8"/>
-      <c r="J33" s="84" t="s">
+      <c r="J33" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="K33" s="83"/>
-      <c r="L33" s="84" t="s">
+      <c r="K33" s="22"/>
+      <c r="L33" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="M33" s="83"/>
-      <c r="N33" s="84" t="s">
+      <c r="M33" s="22"/>
+      <c r="N33" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="O33" s="83"/>
+      <c r="O33" s="22"/>
       <c r="P33" s="7">
         <v>43360</v>
       </c>
-      <c r="Q33" s="84" t="s">
+      <c r="Q33" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="R33" s="83"/>
+      <c r="R33" s="22"/>
     </row>
     <row r="34" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="42"/>
-      <c r="B34" s="46"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="86"/>
+      <c r="A34" s="41"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="36"/>
       <c r="E34" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="F34" s="84" t="s">
+      <c r="F34" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="G34" s="82"/>
-      <c r="H34" s="83"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="22"/>
       <c r="I34" s="8"/>
-      <c r="J34" s="84" t="s">
+      <c r="J34" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="K34" s="83"/>
-      <c r="L34" s="84" t="s">
+      <c r="K34" s="22"/>
+      <c r="L34" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="M34" s="83"/>
-      <c r="N34" s="84" t="s">
+      <c r="M34" s="22"/>
+      <c r="N34" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="O34" s="83"/>
+      <c r="O34" s="22"/>
       <c r="P34" s="7">
         <v>43360</v>
       </c>
-      <c r="Q34" s="84" t="s">
+      <c r="Q34" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="R34" s="83"/>
+      <c r="R34" s="22"/>
     </row>
     <row r="35" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="42"/>
-      <c r="B35" s="46"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="86"/>
+      <c r="A35" s="41"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="36"/>
       <c r="E35" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="F35" s="84" t="s">
+      <c r="F35" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="G35" s="82"/>
-      <c r="H35" s="83"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="22"/>
       <c r="I35" s="8"/>
-      <c r="J35" s="84" t="s">
+      <c r="J35" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="K35" s="83"/>
-      <c r="L35" s="84" t="s">
+      <c r="K35" s="22"/>
+      <c r="L35" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="M35" s="83"/>
-      <c r="N35" s="84" t="s">
+      <c r="M35" s="22"/>
+      <c r="N35" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="O35" s="83"/>
+      <c r="O35" s="22"/>
       <c r="P35" s="7">
         <v>43360</v>
       </c>
-      <c r="Q35" s="84" t="s">
+      <c r="Q35" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="R35" s="83"/>
+      <c r="R35" s="22"/>
     </row>
     <row r="36" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="42"/>
-      <c r="B36" s="46"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="86"/>
+      <c r="A36" s="41"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="36"/>
       <c r="E36" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="F36" s="84" t="s">
+      <c r="F36" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="G36" s="82"/>
-      <c r="H36" s="83"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="22"/>
       <c r="I36" s="8"/>
-      <c r="J36" s="84" t="s">
+      <c r="J36" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="K36" s="83"/>
-      <c r="L36" s="84" t="s">
+      <c r="K36" s="22"/>
+      <c r="L36" s="21" t="s">
         <v>339</v>
       </c>
-      <c r="M36" s="83"/>
-      <c r="N36" s="84" t="s">
+      <c r="M36" s="22"/>
+      <c r="N36" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="O36" s="83"/>
+      <c r="O36" s="22"/>
       <c r="P36" s="7">
         <v>43360</v>
       </c>
-      <c r="Q36" s="84" t="s">
+      <c r="Q36" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="R36" s="83"/>
+      <c r="R36" s="22"/>
     </row>
     <row r="37" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="43"/>
-      <c r="B37" s="49"/>
-      <c r="C37" s="50"/>
-      <c r="D37" s="87"/>
+      <c r="A37" s="42"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="39"/>
       <c r="E37" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="F37" s="84" t="s">
+      <c r="F37" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="G37" s="82"/>
-      <c r="H37" s="83"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="22"/>
       <c r="I37" s="8"/>
-      <c r="J37" s="84" t="s">
+      <c r="J37" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="K37" s="83"/>
-      <c r="L37" s="84" t="s">
+      <c r="K37" s="22"/>
+      <c r="L37" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="M37" s="83"/>
-      <c r="N37" s="84" t="s">
+      <c r="M37" s="22"/>
+      <c r="N37" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="O37" s="83"/>
+      <c r="O37" s="22"/>
       <c r="P37" s="7">
         <v>43360</v>
       </c>
-      <c r="Q37" s="84" t="s">
+      <c r="Q37" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="R37" s="83"/>
+      <c r="R37" s="22"/>
     </row>
     <row r="38" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="B38" s="84" t="s">
+      <c r="B38" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="C38" s="82"/>
-      <c r="D38" s="83"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="22"/>
       <c r="E38" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="F38" s="84" t="s">
+      <c r="F38" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="G38" s="82"/>
-      <c r="H38" s="83"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="22"/>
       <c r="I38" s="8"/>
-      <c r="J38" s="84" t="s">
+      <c r="J38" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="K38" s="83"/>
-      <c r="L38" s="84" t="s">
+      <c r="K38" s="22"/>
+      <c r="L38" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="M38" s="83"/>
-      <c r="N38" s="84" t="s">
+      <c r="M38" s="22"/>
+      <c r="N38" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="O38" s="83"/>
+      <c r="O38" s="22"/>
       <c r="P38" s="7">
         <v>43360</v>
       </c>
-      <c r="Q38" s="84" t="s">
+      <c r="Q38" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="R38" s="83"/>
+      <c r="R38" s="22"/>
     </row>
     <row r="39" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="41" t="s">
+      <c r="A39" s="40" t="s">
         <v>170</v>
       </c>
-      <c r="B39" s="44" t="s">
+      <c r="B39" s="34" t="s">
         <v>171</v>
       </c>
-      <c r="C39" s="45"/>
-      <c r="D39" s="85"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="24"/>
       <c r="E39" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="F39" s="84" t="s">
+      <c r="F39" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="G39" s="82"/>
-      <c r="H39" s="83"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="22"/>
       <c r="I39" s="8"/>
-      <c r="J39" s="84" t="s">
+      <c r="J39" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="K39" s="83"/>
-      <c r="L39" s="84" t="s">
+      <c r="K39" s="22"/>
+      <c r="L39" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="M39" s="83"/>
-      <c r="N39" s="84" t="s">
+      <c r="M39" s="22"/>
+      <c r="N39" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="O39" s="83"/>
+      <c r="O39" s="22"/>
       <c r="P39" s="7">
         <v>43360</v>
       </c>
-      <c r="Q39" s="84" t="s">
+      <c r="Q39" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="R39" s="83"/>
+      <c r="R39" s="22"/>
     </row>
     <row r="40" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="42"/>
-      <c r="B40" s="46"/>
-      <c r="C40" s="47"/>
-      <c r="D40" s="86"/>
+      <c r="A40" s="41"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="36"/>
       <c r="E40" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="F40" s="84" t="s">
+      <c r="F40" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="G40" s="82"/>
-      <c r="H40" s="83"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="22"/>
       <c r="I40" s="8"/>
-      <c r="J40" s="84" t="s">
+      <c r="J40" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="K40" s="83"/>
-      <c r="L40" s="84" t="s">
+      <c r="K40" s="22"/>
+      <c r="L40" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="M40" s="83"/>
-      <c r="N40" s="84" t="s">
+      <c r="M40" s="22"/>
+      <c r="N40" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="O40" s="83"/>
+      <c r="O40" s="22"/>
       <c r="P40" s="7">
         <v>43360</v>
       </c>
-      <c r="Q40" s="84" t="s">
+      <c r="Q40" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="R40" s="83"/>
+      <c r="R40" s="22"/>
     </row>
     <row r="41" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="42"/>
-      <c r="B41" s="46"/>
-      <c r="C41" s="47"/>
-      <c r="D41" s="86"/>
+      <c r="A41" s="41"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="36"/>
       <c r="E41" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="F41" s="84" t="s">
+      <c r="F41" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="G41" s="82"/>
-      <c r="H41" s="83"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="22"/>
       <c r="I41" s="8"/>
-      <c r="J41" s="84" t="s">
+      <c r="J41" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="K41" s="83"/>
-      <c r="L41" s="84" t="s">
+      <c r="K41" s="22"/>
+      <c r="L41" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="M41" s="83"/>
-      <c r="N41" s="84" t="s">
+      <c r="M41" s="22"/>
+      <c r="N41" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="O41" s="83"/>
+      <c r="O41" s="22"/>
       <c r="P41" s="7">
         <v>43360</v>
       </c>
-      <c r="Q41" s="84" t="s">
+      <c r="Q41" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="R41" s="83"/>
+      <c r="R41" s="22"/>
     </row>
     <row r="42" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="43"/>
-      <c r="B42" s="49"/>
-      <c r="C42" s="50"/>
-      <c r="D42" s="87"/>
+      <c r="A42" s="42"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="39"/>
       <c r="E42" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="F42" s="84" t="s">
+      <c r="F42" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="G42" s="82"/>
-      <c r="H42" s="83"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="22"/>
       <c r="I42" s="8"/>
-      <c r="J42" s="84" t="s">
+      <c r="J42" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="K42" s="83"/>
-      <c r="L42" s="84" t="s">
+      <c r="K42" s="22"/>
+      <c r="L42" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="M42" s="83"/>
-      <c r="N42" s="84" t="s">
+      <c r="M42" s="22"/>
+      <c r="N42" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="O42" s="83"/>
+      <c r="O42" s="22"/>
       <c r="P42" s="7">
         <v>43360</v>
       </c>
-      <c r="Q42" s="84" t="s">
+      <c r="Q42" s="21" t="s">
         <v>343</v>
       </c>
-      <c r="R42" s="83"/>
+      <c r="R42" s="22"/>
     </row>
     <row r="43" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="41" t="s">
+      <c r="A43" s="40" t="s">
         <v>193</v>
       </c>
-      <c r="B43" s="44" t="s">
+      <c r="B43" s="34" t="s">
         <v>194</v>
       </c>
-      <c r="C43" s="45"/>
-      <c r="D43" s="85"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="24"/>
       <c r="E43" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="F43" s="84" t="s">
+      <c r="F43" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="G43" s="82"/>
-      <c r="H43" s="83"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="22"/>
       <c r="I43" s="8"/>
-      <c r="J43" s="84" t="s">
+      <c r="J43" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="K43" s="83"/>
-      <c r="L43" s="84" t="s">
+      <c r="K43" s="22"/>
+      <c r="L43" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="M43" s="83"/>
-      <c r="N43" s="84" t="s">
+      <c r="M43" s="22"/>
+      <c r="N43" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="O43" s="83"/>
+      <c r="O43" s="22"/>
       <c r="P43" s="7">
         <v>43360</v>
       </c>
-      <c r="Q43" s="84" t="s">
+      <c r="Q43" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="R43" s="83"/>
+      <c r="R43" s="22"/>
     </row>
     <row r="44" spans="1:18" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="42"/>
-      <c r="B44" s="46"/>
-      <c r="C44" s="47"/>
-      <c r="D44" s="86"/>
+      <c r="A44" s="41"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="36"/>
       <c r="E44" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="F44" s="84" t="s">
+      <c r="F44" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="G44" s="82"/>
-      <c r="H44" s="83"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="22"/>
       <c r="I44" s="8"/>
-      <c r="J44" s="84" t="s">
+      <c r="J44" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="K44" s="83"/>
-      <c r="L44" s="84" t="s">
+      <c r="K44" s="22"/>
+      <c r="L44" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="M44" s="83"/>
-      <c r="N44" s="84" t="s">
+      <c r="M44" s="22"/>
+      <c r="N44" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="O44" s="83"/>
+      <c r="O44" s="22"/>
       <c r="P44" s="7">
         <v>43360</v>
       </c>
-      <c r="Q44" s="84" t="s">
+      <c r="Q44" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="R44" s="83"/>
+      <c r="R44" s="22"/>
     </row>
     <row r="45" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="43"/>
-      <c r="B45" s="49"/>
-      <c r="C45" s="50"/>
-      <c r="D45" s="87"/>
+      <c r="A45" s="42"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="39"/>
       <c r="E45" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="F45" s="84" t="s">
+      <c r="F45" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="G45" s="82"/>
-      <c r="H45" s="83"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="22"/>
       <c r="I45" s="8"/>
-      <c r="J45" s="84" t="s">
+      <c r="J45" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="K45" s="83"/>
-      <c r="L45" s="84" t="s">
+      <c r="K45" s="22"/>
+      <c r="L45" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="M45" s="83"/>
-      <c r="N45" s="84" t="s">
+      <c r="M45" s="22"/>
+      <c r="N45" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="O45" s="83"/>
+      <c r="O45" s="22"/>
       <c r="P45" s="7">
         <v>43360</v>
       </c>
-      <c r="Q45" s="84" t="s">
+      <c r="Q45" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="R45" s="83"/>
+      <c r="R45" s="22"/>
     </row>
     <row r="46" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="41" t="s">
+      <c r="A46" s="40" t="s">
         <v>208</v>
       </c>
-      <c r="B46" s="44" t="s">
+      <c r="B46" s="34" t="s">
         <v>209</v>
       </c>
-      <c r="C46" s="45"/>
-      <c r="D46" s="85"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="24"/>
       <c r="E46" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="F46" s="84" t="s">
+      <c r="F46" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="G46" s="82"/>
-      <c r="H46" s="83"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="22"/>
       <c r="I46" s="8"/>
-      <c r="J46" s="84" t="s">
+      <c r="J46" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="K46" s="83"/>
-      <c r="L46" s="84" t="s">
+      <c r="K46" s="22"/>
+      <c r="L46" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="M46" s="83"/>
-      <c r="N46" s="84" t="s">
+      <c r="M46" s="22"/>
+      <c r="N46" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="O46" s="83"/>
+      <c r="O46" s="22"/>
       <c r="P46" s="7">
         <v>43360</v>
       </c>
-      <c r="Q46" s="84" t="s">
+      <c r="Q46" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="R46" s="83"/>
+      <c r="R46" s="22"/>
     </row>
     <row r="47" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="43"/>
-      <c r="B47" s="49"/>
-      <c r="C47" s="50"/>
-      <c r="D47" s="87"/>
+      <c r="A47" s="42"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="39"/>
       <c r="E47" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="F47" s="84" t="s">
+      <c r="F47" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="G47" s="82"/>
-      <c r="H47" s="83"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="22"/>
       <c r="I47" s="8"/>
-      <c r="J47" s="84" t="s">
+      <c r="J47" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="K47" s="83"/>
-      <c r="L47" s="84" t="s">
+      <c r="K47" s="22"/>
+      <c r="L47" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="M47" s="83"/>
-      <c r="N47" s="84" t="s">
+      <c r="M47" s="22"/>
+      <c r="N47" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="O47" s="83"/>
+      <c r="O47" s="22"/>
       <c r="P47" s="7">
         <v>43360</v>
       </c>
-      <c r="Q47" s="84" t="s">
+      <c r="Q47" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="R47" s="83"/>
+      <c r="R47" s="22"/>
     </row>
     <row r="48" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="41" t="s">
+      <c r="A48" s="40" t="s">
         <v>219</v>
       </c>
-      <c r="B48" s="44" t="s">
+      <c r="B48" s="34" t="s">
         <v>220</v>
       </c>
-      <c r="C48" s="45"/>
-      <c r="D48" s="85"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="24"/>
       <c r="E48" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="F48" s="84" t="s">
+      <c r="F48" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="G48" s="82"/>
-      <c r="H48" s="83"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="22"/>
       <c r="I48" s="8"/>
-      <c r="J48" s="84" t="s">
+      <c r="J48" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="K48" s="83"/>
-      <c r="L48" s="84" t="s">
+      <c r="K48" s="22"/>
+      <c r="L48" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="M48" s="83"/>
-      <c r="N48" s="84" t="s">
+      <c r="M48" s="22"/>
+      <c r="N48" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="O48" s="83"/>
+      <c r="O48" s="22"/>
       <c r="P48" s="7">
         <v>43360</v>
       </c>
-      <c r="Q48" s="84" t="s">
+      <c r="Q48" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="R48" s="83"/>
+      <c r="R48" s="22"/>
     </row>
     <row r="49" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="42"/>
-      <c r="B49" s="46"/>
-      <c r="C49" s="47"/>
-      <c r="D49" s="86"/>
+      <c r="A49" s="41"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="36"/>
       <c r="E49" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="F49" s="84" t="s">
+      <c r="F49" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="G49" s="82"/>
-      <c r="H49" s="83"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="22"/>
       <c r="I49" s="8"/>
-      <c r="J49" s="84" t="s">
+      <c r="J49" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="K49" s="83"/>
-      <c r="L49" s="84" t="s">
+      <c r="K49" s="22"/>
+      <c r="L49" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="M49" s="83"/>
-      <c r="N49" s="84" t="s">
+      <c r="M49" s="22"/>
+      <c r="N49" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="O49" s="83"/>
+      <c r="O49" s="22"/>
       <c r="P49" s="7">
         <v>43360</v>
       </c>
-      <c r="Q49" s="84" t="s">
+      <c r="Q49" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="R49" s="83"/>
+      <c r="R49" s="22"/>
     </row>
     <row r="50" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="42"/>
-      <c r="B50" s="46"/>
-      <c r="C50" s="47"/>
-      <c r="D50" s="86"/>
+      <c r="A50" s="41"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="36"/>
       <c r="E50" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="F50" s="84" t="s">
+      <c r="F50" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="G50" s="82"/>
-      <c r="H50" s="83"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="22"/>
       <c r="I50" s="8"/>
-      <c r="J50" s="84" t="s">
+      <c r="J50" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="K50" s="83"/>
-      <c r="L50" s="84" t="s">
+      <c r="K50" s="22"/>
+      <c r="L50" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="M50" s="83"/>
-      <c r="N50" s="84" t="s">
+      <c r="M50" s="22"/>
+      <c r="N50" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="O50" s="83"/>
+      <c r="O50" s="22"/>
       <c r="P50" s="7">
         <v>43360</v>
       </c>
-      <c r="Q50" s="84" t="s">
+      <c r="Q50" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="R50" s="83"/>
+      <c r="R50" s="22"/>
     </row>
     <row r="51" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="42"/>
-      <c r="B51" s="46"/>
-      <c r="C51" s="47"/>
-      <c r="D51" s="86"/>
+      <c r="A51" s="41"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="36"/>
       <c r="E51" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="F51" s="84" t="s">
+      <c r="F51" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="G51" s="82"/>
-      <c r="H51" s="83"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="22"/>
       <c r="I51" s="8"/>
-      <c r="J51" s="84" t="s">
+      <c r="J51" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="K51" s="83"/>
-      <c r="L51" s="84" t="s">
+      <c r="K51" s="22"/>
+      <c r="L51" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="M51" s="83"/>
-      <c r="N51" s="84" t="s">
+      <c r="M51" s="22"/>
+      <c r="N51" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="O51" s="83"/>
+      <c r="O51" s="22"/>
       <c r="P51" s="7">
         <v>43360</v>
       </c>
-      <c r="Q51" s="84" t="s">
+      <c r="Q51" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="R51" s="83"/>
+      <c r="R51" s="22"/>
     </row>
     <row r="52" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="42"/>
-      <c r="B52" s="46"/>
-      <c r="C52" s="47"/>
-      <c r="D52" s="86"/>
+      <c r="A52" s="41"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="36"/>
       <c r="E52" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="F52" s="84" t="s">
+      <c r="F52" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="G52" s="82"/>
-      <c r="H52" s="83"/>
+      <c r="G52" s="29"/>
+      <c r="H52" s="22"/>
       <c r="I52" s="8"/>
-      <c r="J52" s="84" t="s">
+      <c r="J52" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="K52" s="83"/>
-      <c r="L52" s="84" t="s">
+      <c r="K52" s="22"/>
+      <c r="L52" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="M52" s="83"/>
-      <c r="N52" s="84" t="s">
+      <c r="M52" s="22"/>
+      <c r="N52" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="O52" s="83"/>
+      <c r="O52" s="22"/>
       <c r="P52" s="7">
         <v>43360</v>
       </c>
-      <c r="Q52" s="84" t="s">
+      <c r="Q52" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="R52" s="83"/>
+      <c r="R52" s="22"/>
     </row>
     <row r="53" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="43"/>
-      <c r="B53" s="49"/>
-      <c r="C53" s="50"/>
-      <c r="D53" s="87"/>
+      <c r="A53" s="42"/>
+      <c r="B53" s="37"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="39"/>
       <c r="E53" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="F53" s="84" t="s">
+      <c r="F53" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="G53" s="82"/>
-      <c r="H53" s="83"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="22"/>
       <c r="I53" s="8"/>
-      <c r="J53" s="84" t="s">
+      <c r="J53" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="K53" s="83"/>
-      <c r="L53" s="84" t="s">
+      <c r="K53" s="22"/>
+      <c r="L53" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="M53" s="83"/>
-      <c r="N53" s="84" t="s">
+      <c r="M53" s="22"/>
+      <c r="N53" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="O53" s="83"/>
+      <c r="O53" s="22"/>
       <c r="P53" s="7">
         <v>43360</v>
       </c>
-      <c r="Q53" s="84" t="s">
+      <c r="Q53" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="R53" s="83"/>
+      <c r="R53" s="22"/>
     </row>
     <row r="54" spans="1:18" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="41" t="s">
+      <c r="A54" s="40" t="s">
         <v>251</v>
       </c>
-      <c r="B54" s="44" t="s">
+      <c r="B54" s="34" t="s">
         <v>252</v>
       </c>
-      <c r="C54" s="45"/>
-      <c r="D54" s="85"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="24"/>
       <c r="E54" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="F54" s="84" t="s">
+      <c r="F54" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="G54" s="82"/>
-      <c r="H54" s="83"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="22"/>
       <c r="I54" s="8"/>
-      <c r="J54" s="84" t="s">
+      <c r="J54" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="K54" s="83"/>
-      <c r="L54" s="84" t="s">
+      <c r="K54" s="22"/>
+      <c r="L54" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="M54" s="83"/>
-      <c r="N54" s="84" t="s">
+      <c r="M54" s="22"/>
+      <c r="N54" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="O54" s="83"/>
+      <c r="O54" s="22"/>
       <c r="P54" s="7">
         <v>43360</v>
       </c>
-      <c r="Q54" s="84" t="s">
+      <c r="Q54" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="R54" s="83"/>
+      <c r="R54" s="22"/>
     </row>
     <row r="55" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="42"/>
-      <c r="B55" s="46"/>
-      <c r="C55" s="47"/>
-      <c r="D55" s="86"/>
+      <c r="A55" s="41"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="36"/>
       <c r="E55" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="F55" s="84" t="s">
+      <c r="F55" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="G55" s="82"/>
-      <c r="H55" s="83"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="22"/>
       <c r="I55" s="8"/>
-      <c r="J55" s="84" t="s">
+      <c r="J55" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="K55" s="83"/>
-      <c r="L55" s="84" t="s">
+      <c r="K55" s="22"/>
+      <c r="L55" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="M55" s="83"/>
-      <c r="N55" s="84" t="s">
+      <c r="M55" s="22"/>
+      <c r="N55" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="O55" s="83"/>
+      <c r="O55" s="22"/>
       <c r="P55" s="7">
         <v>43360</v>
       </c>
-      <c r="Q55" s="84" t="s">
+      <c r="Q55" s="21" t="s">
         <v>340</v>
       </c>
-      <c r="R55" s="83"/>
+      <c r="R55" s="22"/>
     </row>
     <row r="56" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="42"/>
-      <c r="B56" s="46"/>
-      <c r="C56" s="47"/>
-      <c r="D56" s="86"/>
+      <c r="A56" s="41"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="36"/>
       <c r="E56" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="F56" s="84" t="s">
+      <c r="F56" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="G56" s="82"/>
-      <c r="H56" s="83"/>
+      <c r="G56" s="29"/>
+      <c r="H56" s="22"/>
       <c r="I56" s="8"/>
-      <c r="J56" s="84" t="s">
+      <c r="J56" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="K56" s="83"/>
-      <c r="L56" s="84" t="s">
+      <c r="K56" s="22"/>
+      <c r="L56" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="M56" s="83"/>
-      <c r="N56" s="84" t="s">
+      <c r="M56" s="22"/>
+      <c r="N56" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="O56" s="83"/>
+      <c r="O56" s="22"/>
       <c r="P56" s="7">
         <v>43360</v>
       </c>
-      <c r="Q56" s="84" t="s">
+      <c r="Q56" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="R56" s="83"/>
+      <c r="R56" s="22"/>
     </row>
     <row r="57" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="42"/>
-      <c r="B57" s="46"/>
-      <c r="C57" s="47"/>
-      <c r="D57" s="86"/>
+      <c r="A57" s="41"/>
+      <c r="B57" s="35"/>
+      <c r="C57" s="32"/>
+      <c r="D57" s="36"/>
       <c r="E57" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="F57" s="84" t="s">
+      <c r="F57" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="G57" s="82"/>
-      <c r="H57" s="83"/>
+      <c r="G57" s="29"/>
+      <c r="H57" s="22"/>
       <c r="I57" s="8"/>
-      <c r="J57" s="84" t="s">
+      <c r="J57" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="K57" s="83"/>
-      <c r="L57" s="84" t="s">
+      <c r="K57" s="22"/>
+      <c r="L57" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="M57" s="83"/>
-      <c r="N57" s="84" t="s">
+      <c r="M57" s="22"/>
+      <c r="N57" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="O57" s="83"/>
+      <c r="O57" s="22"/>
       <c r="P57" s="7">
         <v>43360</v>
       </c>
-      <c r="Q57" s="84" t="s">
+      <c r="Q57" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="R57" s="83"/>
+      <c r="R57" s="22"/>
     </row>
     <row r="58" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="42"/>
-      <c r="B58" s="46"/>
-      <c r="C58" s="47"/>
-      <c r="D58" s="86"/>
+      <c r="A58" s="41"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="36"/>
       <c r="E58" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="F58" s="84" t="s">
+      <c r="F58" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="G58" s="82"/>
-      <c r="H58" s="83"/>
+      <c r="G58" s="29"/>
+      <c r="H58" s="22"/>
       <c r="I58" s="8"/>
-      <c r="J58" s="84" t="s">
+      <c r="J58" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="K58" s="83"/>
-      <c r="L58" s="84" t="s">
+      <c r="K58" s="22"/>
+      <c r="L58" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="M58" s="83"/>
-      <c r="N58" s="84" t="s">
+      <c r="M58" s="22"/>
+      <c r="N58" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="O58" s="83"/>
+      <c r="O58" s="22"/>
       <c r="P58" s="7">
         <v>43360</v>
       </c>
-      <c r="Q58" s="84" t="s">
+      <c r="Q58" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="R58" s="83"/>
+      <c r="R58" s="22"/>
     </row>
     <row r="59" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A59" s="43"/>
-      <c r="B59" s="49"/>
-      <c r="C59" s="50"/>
-      <c r="D59" s="87"/>
+      <c r="A59" s="42"/>
+      <c r="B59" s="37"/>
+      <c r="C59" s="38"/>
+      <c r="D59" s="39"/>
       <c r="E59" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="F59" s="84" t="s">
+      <c r="F59" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="G59" s="82"/>
-      <c r="H59" s="83"/>
+      <c r="G59" s="29"/>
+      <c r="H59" s="22"/>
       <c r="I59" s="8"/>
-      <c r="J59" s="84" t="s">
+      <c r="J59" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="K59" s="83"/>
-      <c r="L59" s="84" t="s">
+      <c r="K59" s="22"/>
+      <c r="L59" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="M59" s="83"/>
-      <c r="N59" s="84" t="s">
+      <c r="M59" s="22"/>
+      <c r="N59" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="O59" s="83"/>
+      <c r="O59" s="22"/>
       <c r="P59" s="7">
         <v>43360</v>
       </c>
-      <c r="Q59" s="84" t="s">
+      <c r="Q59" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="R59" s="83"/>
+      <c r="R59" s="22"/>
     </row>
     <row r="60" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="B60" s="95" t="s">
+      <c r="B60" s="33" t="s">
         <v>274</v>
       </c>
-      <c r="C60" s="82"/>
-      <c r="D60" s="83"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="22"/>
       <c r="E60" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="F60" s="96" t="s">
+      <c r="F60" s="31" t="s">
         <v>276</v>
       </c>
-      <c r="G60" s="47"/>
-      <c r="H60" s="47"/>
+      <c r="G60" s="32"/>
+      <c r="H60" s="32"/>
       <c r="I60" s="8"/>
-      <c r="J60" s="84" t="s">
+      <c r="J60" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="K60" s="83"/>
-      <c r="L60" s="84" t="s">
+      <c r="K60" s="22"/>
+      <c r="L60" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="M60" s="83"/>
-      <c r="N60" s="84" t="s">
+      <c r="M60" s="22"/>
+      <c r="N60" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="O60" s="83"/>
+      <c r="O60" s="22"/>
       <c r="P60" s="7">
         <v>43360</v>
       </c>
-      <c r="Q60" s="84" t="s">
+      <c r="Q60" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="R60" s="83"/>
+      <c r="R60" s="22"/>
     </row>
     <row r="61" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A61" s="41" t="s">
+      <c r="A61" s="40" t="s">
         <v>278</v>
       </c>
-      <c r="B61" s="44" t="s">
+      <c r="B61" s="34" t="s">
         <v>279</v>
       </c>
-      <c r="C61" s="45"/>
-      <c r="D61" s="85"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="24"/>
       <c r="E61" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="F61" s="84" t="s">
+      <c r="F61" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="G61" s="82"/>
-      <c r="H61" s="83"/>
+      <c r="G61" s="29"/>
+      <c r="H61" s="22"/>
       <c r="I61" s="8"/>
-      <c r="J61" s="84" t="s">
+      <c r="J61" s="21" t="s">
         <v>282</v>
       </c>
-      <c r="K61" s="83"/>
-      <c r="L61" s="84" t="s">
+      <c r="K61" s="22"/>
+      <c r="L61" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="M61" s="83"/>
-      <c r="N61" s="84" t="s">
+      <c r="M61" s="22"/>
+      <c r="N61" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="O61" s="83"/>
+      <c r="O61" s="22"/>
       <c r="P61" s="7">
         <v>43360</v>
       </c>
-      <c r="Q61" s="84" t="s">
+      <c r="Q61" s="21" t="s">
         <v>285</v>
       </c>
-      <c r="R61" s="83"/>
+      <c r="R61" s="22"/>
     </row>
     <row r="62" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A62" s="42"/>
-      <c r="B62" s="46"/>
-      <c r="C62" s="47"/>
-      <c r="D62" s="86"/>
+      <c r="A62" s="41"/>
+      <c r="B62" s="35"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="36"/>
       <c r="E62" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="F62" s="84" t="s">
+      <c r="F62" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="G62" s="82"/>
-      <c r="H62" s="83"/>
+      <c r="G62" s="29"/>
+      <c r="H62" s="22"/>
       <c r="I62" s="8"/>
-      <c r="J62" s="84" t="s">
+      <c r="J62" s="21" t="s">
         <v>282</v>
       </c>
-      <c r="K62" s="83"/>
-      <c r="L62" s="84" t="s">
+      <c r="K62" s="22"/>
+      <c r="L62" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="M62" s="83"/>
-      <c r="N62" s="84" t="s">
+      <c r="M62" s="22"/>
+      <c r="N62" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="O62" s="83"/>
+      <c r="O62" s="22"/>
       <c r="P62" s="7">
         <v>43360</v>
       </c>
-      <c r="Q62" s="84" t="s">
+      <c r="Q62" s="21" t="s">
         <v>289</v>
       </c>
-      <c r="R62" s="83"/>
+      <c r="R62" s="22"/>
     </row>
     <row r="63" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A63" s="43"/>
-      <c r="B63" s="49"/>
-      <c r="C63" s="50"/>
-      <c r="D63" s="87"/>
+      <c r="A63" s="42"/>
+      <c r="B63" s="37"/>
+      <c r="C63" s="38"/>
+      <c r="D63" s="39"/>
       <c r="E63" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="F63" s="84" t="s">
+      <c r="F63" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="G63" s="82"/>
-      <c r="H63" s="83"/>
+      <c r="G63" s="29"/>
+      <c r="H63" s="22"/>
       <c r="I63" s="8"/>
-      <c r="J63" s="84" t="s">
+      <c r="J63" s="21" t="s">
         <v>282</v>
       </c>
-      <c r="K63" s="83"/>
-      <c r="L63" s="84" t="s">
+      <c r="K63" s="22"/>
+      <c r="L63" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="M63" s="83"/>
-      <c r="N63" s="84" t="s">
+      <c r="M63" s="22"/>
+      <c r="N63" s="21" t="s">
         <v>292</v>
       </c>
-      <c r="O63" s="83"/>
+      <c r="O63" s="22"/>
       <c r="P63" s="7">
         <v>43360</v>
       </c>
-      <c r="Q63" s="84" t="s">
+      <c r="Q63" s="21" t="s">
         <v>285</v>
       </c>
-      <c r="R63" s="83"/>
+      <c r="R63" s="22"/>
     </row>
     <row r="64" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="41" t="s">
+      <c r="A64" s="40" t="s">
         <v>293</v>
       </c>
-      <c r="B64" s="44" t="s">
+      <c r="B64" s="34" t="s">
         <v>294</v>
       </c>
-      <c r="C64" s="45"/>
-      <c r="D64" s="85"/>
+      <c r="C64" s="30"/>
+      <c r="D64" s="24"/>
       <c r="E64" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="F64" s="84" t="s">
+      <c r="F64" s="21" t="s">
         <v>296</v>
       </c>
-      <c r="G64" s="82"/>
-      <c r="H64" s="83"/>
+      <c r="G64" s="29"/>
+      <c r="H64" s="22"/>
       <c r="I64" s="8"/>
-      <c r="J64" s="84" t="s">
+      <c r="J64" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="K64" s="83"/>
-      <c r="L64" s="84" t="s">
+      <c r="K64" s="22"/>
+      <c r="L64" s="21" t="s">
         <v>298</v>
       </c>
-      <c r="M64" s="83"/>
-      <c r="N64" s="84" t="s">
+      <c r="M64" s="22"/>
+      <c r="N64" s="21" t="s">
         <v>299</v>
       </c>
-      <c r="O64" s="83"/>
+      <c r="O64" s="22"/>
       <c r="P64" s="7">
         <v>43360</v>
       </c>
-      <c r="Q64" s="84" t="s">
+      <c r="Q64" s="21" t="s">
         <v>285</v>
       </c>
-      <c r="R64" s="83"/>
+      <c r="R64" s="22"/>
     </row>
     <row r="65" spans="1:18" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="43"/>
-      <c r="B65" s="49"/>
-      <c r="C65" s="50"/>
-      <c r="D65" s="87"/>
+      <c r="A65" s="42"/>
+      <c r="B65" s="37"/>
+      <c r="C65" s="38"/>
+      <c r="D65" s="39"/>
       <c r="E65" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="F65" s="84" t="s">
+      <c r="F65" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="G65" s="82"/>
-      <c r="H65" s="83"/>
+      <c r="G65" s="29"/>
+      <c r="H65" s="22"/>
       <c r="I65" s="8"/>
-      <c r="J65" s="84" t="s">
+      <c r="J65" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="K65" s="83"/>
-      <c r="L65" s="84" t="s">
+      <c r="K65" s="22"/>
+      <c r="L65" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="M65" s="83"/>
-      <c r="N65" s="84" t="s">
+      <c r="M65" s="22"/>
+      <c r="N65" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="O65" s="83"/>
+      <c r="O65" s="22"/>
       <c r="P65" s="7">
         <v>43360</v>
       </c>
-      <c r="Q65" s="84" t="s">
+      <c r="Q65" s="21" t="s">
         <v>289</v>
       </c>
-      <c r="R65" s="83"/>
+      <c r="R65" s="22"/>
     </row>
     <row r="66" spans="1:18" s="11" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="41" t="s">
+      <c r="A66" s="40" t="s">
         <v>302</v>
       </c>
-      <c r="B66" s="44" t="s">
+      <c r="B66" s="34" t="s">
         <v>315</v>
       </c>
-      <c r="C66" s="73"/>
-      <c r="D66" s="74"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="44"/>
       <c r="E66" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="F66" s="68" t="s">
+      <c r="F66" s="26" t="s">
         <v>320</v>
       </c>
-      <c r="G66" s="78"/>
-      <c r="H66" s="79"/>
+      <c r="G66" s="57"/>
+      <c r="H66" s="58"/>
       <c r="I66" s="8"/>
-      <c r="J66" s="68" t="s">
+      <c r="J66" s="26" t="s">
         <v>324</v>
       </c>
-      <c r="K66" s="69"/>
-      <c r="L66" s="68" t="s">
+      <c r="K66" s="25"/>
+      <c r="L66" s="26" t="s">
         <v>325</v>
       </c>
-      <c r="M66" s="69"/>
-      <c r="N66" s="68" t="s">
+      <c r="M66" s="25"/>
+      <c r="N66" s="26" t="s">
         <v>329</v>
       </c>
-      <c r="O66" s="69"/>
+      <c r="O66" s="25"/>
       <c r="P66" s="7">
         <v>43393</v>
       </c>
-      <c r="Q66" s="84" t="s">
+      <c r="Q66" s="21" t="s">
         <v>330</v>
       </c>
-      <c r="R66" s="69"/>
+      <c r="R66" s="25"/>
     </row>
     <row r="67" spans="1:18" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A67" s="94"/>
-      <c r="B67" s="91"/>
-      <c r="C67" s="92"/>
-      <c r="D67" s="93"/>
+      <c r="A67" s="48"/>
+      <c r="B67" s="45"/>
+      <c r="C67" s="46"/>
+      <c r="D67" s="47"/>
       <c r="E67" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="F67" s="68" t="s">
+      <c r="F67" s="26" t="s">
         <v>321</v>
       </c>
-      <c r="G67" s="80"/>
-      <c r="H67" s="69"/>
+      <c r="G67" s="59"/>
+      <c r="H67" s="25"/>
       <c r="I67" s="8"/>
-      <c r="J67" s="68" t="s">
+      <c r="J67" s="26" t="s">
         <v>324</v>
       </c>
-      <c r="K67" s="69"/>
-      <c r="L67" s="68" t="s">
+      <c r="K67" s="25"/>
+      <c r="L67" s="26" t="s">
         <v>326</v>
       </c>
-      <c r="M67" s="69"/>
-      <c r="N67" s="68" t="s">
+      <c r="M67" s="25"/>
+      <c r="N67" s="26" t="s">
         <v>328</v>
       </c>
-      <c r="O67" s="69"/>
+      <c r="O67" s="25"/>
       <c r="P67" s="7">
         <v>43394</v>
       </c>
-      <c r="Q67" s="68" t="s">
+      <c r="Q67" s="26" t="s">
         <v>331</v>
       </c>
-      <c r="R67" s="69"/>
+      <c r="R67" s="25"/>
     </row>
     <row r="68" spans="1:18" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="94"/>
-      <c r="B68" s="91"/>
-      <c r="C68" s="92"/>
-      <c r="D68" s="93"/>
+      <c r="A68" s="48"/>
+      <c r="B68" s="45"/>
+      <c r="C68" s="46"/>
+      <c r="D68" s="47"/>
       <c r="E68" s="12" t="s">
         <v>316</v>
       </c>
-      <c r="F68" s="68" t="s">
+      <c r="F68" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="G68" s="80"/>
-      <c r="H68" s="69"/>
+      <c r="G68" s="59"/>
+      <c r="H68" s="25"/>
       <c r="I68" s="8"/>
-      <c r="J68" s="68" t="s">
+      <c r="J68" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="K68" s="69"/>
-      <c r="L68" s="68"/>
-      <c r="M68" s="69"/>
-      <c r="N68" s="68"/>
-      <c r="O68" s="69"/>
+      <c r="K68" s="25"/>
+      <c r="L68" s="26"/>
+      <c r="M68" s="25"/>
+      <c r="N68" s="26"/>
+      <c r="O68" s="25"/>
       <c r="P68" s="7">
         <v>43395</v>
       </c>
-      <c r="Q68" s="84" t="s">
+      <c r="Q68" s="21" t="s">
         <v>341</v>
       </c>
-      <c r="R68" s="69"/>
+      <c r="R68" s="25"/>
     </row>
     <row r="69" spans="1:18" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="70" t="s">
+      <c r="A69" s="51" t="s">
         <v>314</v>
       </c>
-      <c r="B69" s="72" t="s">
+      <c r="B69" s="53" t="s">
         <v>319</v>
       </c>
-      <c r="C69" s="73"/>
-      <c r="D69" s="74"/>
+      <c r="C69" s="43"/>
+      <c r="D69" s="44"/>
       <c r="E69" s="12" t="s">
         <v>312</v>
       </c>
-      <c r="F69" s="68" t="s">
+      <c r="F69" s="26" t="s">
         <v>319</v>
       </c>
-      <c r="G69" s="80"/>
-      <c r="H69" s="69"/>
+      <c r="G69" s="59"/>
+      <c r="H69" s="25"/>
       <c r="I69" s="8"/>
-      <c r="J69" s="68" t="s">
+      <c r="J69" s="26" t="s">
         <v>324</v>
       </c>
-      <c r="K69" s="69"/>
-      <c r="L69" s="68" t="s">
+      <c r="K69" s="25"/>
+      <c r="L69" s="26" t="s">
         <v>327</v>
       </c>
-      <c r="M69" s="69"/>
-      <c r="N69" s="68" t="s">
+      <c r="M69" s="25"/>
+      <c r="N69" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="O69" s="69"/>
+      <c r="O69" s="25"/>
       <c r="P69" s="7">
         <v>43395</v>
       </c>
-      <c r="Q69" s="84" t="s">
+      <c r="Q69" s="21" t="s">
         <v>332</v>
       </c>
-      <c r="R69" s="69"/>
+      <c r="R69" s="25"/>
     </row>
     <row r="70" spans="1:18" s="11" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="71"/>
-      <c r="B70" s="75"/>
-      <c r="C70" s="76"/>
-      <c r="D70" s="77"/>
+      <c r="A70" s="52"/>
+      <c r="B70" s="54"/>
+      <c r="C70" s="55"/>
+      <c r="D70" s="56"/>
       <c r="E70" s="12" t="s">
         <v>313</v>
       </c>
-      <c r="F70" s="68" t="s">
+      <c r="F70" s="26" t="s">
         <v>323</v>
       </c>
-      <c r="G70" s="80"/>
-      <c r="H70" s="69"/>
+      <c r="G70" s="59"/>
+      <c r="H70" s="25"/>
       <c r="I70" s="8"/>
-      <c r="J70" s="68" t="s">
+      <c r="J70" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="K70" s="69"/>
-      <c r="L70" s="68"/>
-      <c r="M70" s="69"/>
-      <c r="N70" s="68" t="s">
+      <c r="K70" s="25"/>
+      <c r="L70" s="26"/>
+      <c r="M70" s="25"/>
+      <c r="N70" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="O70" s="69"/>
+      <c r="O70" s="25"/>
       <c r="P70" s="7">
         <v>43395</v>
       </c>
-      <c r="Q70" s="84" t="s">
+      <c r="Q70" s="21" t="s">
         <v>342</v>
       </c>
-      <c r="R70" s="69"/>
+      <c r="R70" s="25"/>
     </row>
     <row r="71" spans="1:18" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="41" t="s">
+      <c r="A71" s="40" t="s">
         <v>333</v>
       </c>
-      <c r="B71" s="44" t="s">
+      <c r="B71" s="34" t="s">
         <v>303</v>
       </c>
-      <c r="C71" s="45"/>
-      <c r="D71" s="85"/>
+      <c r="C71" s="30"/>
+      <c r="D71" s="24"/>
       <c r="E71" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="F71" s="84" t="s">
+      <c r="F71" s="21" t="s">
         <v>305</v>
       </c>
-      <c r="G71" s="82"/>
-      <c r="H71" s="83"/>
+      <c r="G71" s="29"/>
+      <c r="H71" s="22"/>
       <c r="I71" s="8"/>
-      <c r="J71" s="68" t="s">
+      <c r="J71" s="26" t="s">
         <v>306</v>
       </c>
-      <c r="K71" s="83"/>
-      <c r="L71" s="84"/>
-      <c r="M71" s="83"/>
-      <c r="N71" s="68" t="s">
+      <c r="K71" s="22"/>
+      <c r="L71" s="21"/>
+      <c r="M71" s="22"/>
+      <c r="N71" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="O71" s="83"/>
+      <c r="O71" s="22"/>
       <c r="P71" s="7">
         <v>43360</v>
       </c>
-      <c r="Q71" s="84" t="s">
+      <c r="Q71" s="21" t="s">
         <v>307</v>
       </c>
-      <c r="R71" s="83"/>
+      <c r="R71" s="22"/>
     </row>
     <row r="72" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="43"/>
-      <c r="B72" s="49"/>
-      <c r="C72" s="50"/>
-      <c r="D72" s="87"/>
+      <c r="A72" s="42"/>
+      <c r="B72" s="37"/>
+      <c r="C72" s="38"/>
+      <c r="D72" s="39"/>
       <c r="E72" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="F72" s="90" t="s">
+      <c r="F72" s="23" t="s">
         <v>309</v>
       </c>
-      <c r="G72" s="45"/>
-      <c r="H72" s="85"/>
-      <c r="J72" s="90" t="s">
+      <c r="G72" s="30"/>
+      <c r="H72" s="24"/>
+      <c r="J72" s="23" t="s">
         <v>310</v>
       </c>
-      <c r="K72" s="85"/>
-      <c r="L72" s="90"/>
-      <c r="M72" s="85"/>
-      <c r="N72" s="90" t="s">
+      <c r="K72" s="24"/>
+      <c r="L72" s="23"/>
+      <c r="M72" s="24"/>
+      <c r="N72" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="O72" s="85"/>
+      <c r="O72" s="24"/>
       <c r="P72" s="18">
         <v>43360</v>
       </c>
-      <c r="Q72" s="90" t="s">
+      <c r="Q72" s="23" t="s">
         <v>311</v>
       </c>
-      <c r="R72" s="85"/>
+      <c r="R72" s="24"/>
     </row>
     <row r="73" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="41" t="s">
+      <c r="A73" s="40" t="s">
         <v>170</v>
       </c>
-      <c r="B73" s="44" t="s">
+      <c r="B73" s="34" t="s">
         <v>171</v>
       </c>
-      <c r="C73" s="45"/>
-      <c r="D73" s="45"/>
-      <c r="E73" s="51" t="s">
+      <c r="C73" s="30"/>
+      <c r="D73" s="30"/>
+      <c r="E73" s="61" t="s">
         <v>318</v>
       </c>
-      <c r="F73" s="54" t="s">
+      <c r="F73" s="64" t="s">
         <v>345</v>
       </c>
-      <c r="G73" s="55"/>
-      <c r="H73" s="56"/>
-      <c r="I73" s="63"/>
-      <c r="J73" s="20" t="s">
+      <c r="G73" s="65"/>
+      <c r="H73" s="66"/>
+      <c r="I73" s="73"/>
+      <c r="J73" s="79" t="s">
         <v>180</v>
       </c>
-      <c r="K73" s="21"/>
-      <c r="L73" s="20" t="s">
-        <v>353</v>
-      </c>
-      <c r="M73" s="21"/>
-      <c r="N73" s="26"/>
-      <c r="O73" s="27"/>
-      <c r="P73" s="32">
+      <c r="K73" s="80"/>
+      <c r="L73" s="79" t="s">
+        <v>352</v>
+      </c>
+      <c r="M73" s="80"/>
+      <c r="N73" s="85"/>
+      <c r="O73" s="86"/>
+      <c r="P73" s="91">
         <v>43427</v>
       </c>
-      <c r="Q73" s="20" t="s">
-        <v>355</v>
-      </c>
-      <c r="R73" s="21"/>
+      <c r="Q73" s="79" t="s">
+        <v>354</v>
+      </c>
+      <c r="R73" s="80"/>
     </row>
     <row r="74" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="42"/>
-      <c r="B74" s="46"/>
-      <c r="C74" s="47"/>
-      <c r="D74" s="48"/>
-      <c r="E74" s="52"/>
-      <c r="F74" s="57"/>
-      <c r="G74" s="58"/>
-      <c r="H74" s="59"/>
-      <c r="I74" s="64"/>
-      <c r="J74" s="22"/>
-      <c r="K74" s="23"/>
-      <c r="L74" s="22"/>
-      <c r="M74" s="23"/>
-      <c r="N74" s="28"/>
-      <c r="O74" s="29"/>
-      <c r="P74" s="33"/>
-      <c r="Q74" s="22"/>
-      <c r="R74" s="23"/>
+      <c r="A74" s="41"/>
+      <c r="B74" s="35"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="60"/>
+      <c r="E74" s="62"/>
+      <c r="F74" s="67"/>
+      <c r="G74" s="68"/>
+      <c r="H74" s="69"/>
+      <c r="I74" s="74"/>
+      <c r="J74" s="81"/>
+      <c r="K74" s="82"/>
+      <c r="L74" s="81"/>
+      <c r="M74" s="82"/>
+      <c r="N74" s="87"/>
+      <c r="O74" s="88"/>
+      <c r="P74" s="92"/>
+      <c r="Q74" s="81"/>
+      <c r="R74" s="82"/>
     </row>
     <row r="75" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="42"/>
-      <c r="B75" s="46"/>
-      <c r="C75" s="47"/>
-      <c r="D75" s="48"/>
-      <c r="E75" s="52"/>
-      <c r="F75" s="57"/>
-      <c r="G75" s="58"/>
-      <c r="H75" s="59"/>
-      <c r="I75" s="64"/>
-      <c r="J75" s="22"/>
-      <c r="K75" s="23"/>
-      <c r="L75" s="22"/>
-      <c r="M75" s="23"/>
-      <c r="N75" s="28"/>
-      <c r="O75" s="29"/>
-      <c r="P75" s="33"/>
-      <c r="Q75" s="22"/>
-      <c r="R75" s="23"/>
+      <c r="A75" s="41"/>
+      <c r="B75" s="35"/>
+      <c r="C75" s="32"/>
+      <c r="D75" s="60"/>
+      <c r="E75" s="62"/>
+      <c r="F75" s="67"/>
+      <c r="G75" s="68"/>
+      <c r="H75" s="69"/>
+      <c r="I75" s="74"/>
+      <c r="J75" s="81"/>
+      <c r="K75" s="82"/>
+      <c r="L75" s="81"/>
+      <c r="M75" s="82"/>
+      <c r="N75" s="87"/>
+      <c r="O75" s="88"/>
+      <c r="P75" s="92"/>
+      <c r="Q75" s="81"/>
+      <c r="R75" s="82"/>
     </row>
     <row r="76" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="43"/>
-      <c r="B76" s="49"/>
-      <c r="C76" s="50"/>
-      <c r="D76" s="50"/>
-      <c r="E76" s="53"/>
-      <c r="F76" s="60"/>
-      <c r="G76" s="61"/>
-      <c r="H76" s="62"/>
-      <c r="I76" s="65"/>
-      <c r="J76" s="24"/>
-      <c r="K76" s="25"/>
-      <c r="L76" s="24"/>
-      <c r="M76" s="25"/>
-      <c r="N76" s="30"/>
-      <c r="O76" s="31"/>
-      <c r="P76" s="34"/>
-      <c r="Q76" s="24"/>
-      <c r="R76" s="25"/>
+      <c r="A76" s="42"/>
+      <c r="B76" s="37"/>
+      <c r="C76" s="38"/>
+      <c r="D76" s="38"/>
+      <c r="E76" s="63"/>
+      <c r="F76" s="70"/>
+      <c r="G76" s="71"/>
+      <c r="H76" s="72"/>
+      <c r="I76" s="75"/>
+      <c r="J76" s="83"/>
+      <c r="K76" s="84"/>
+      <c r="L76" s="83"/>
+      <c r="M76" s="84"/>
+      <c r="N76" s="89"/>
+      <c r="O76" s="90"/>
+      <c r="P76" s="93"/>
+      <c r="Q76" s="83"/>
+      <c r="R76" s="84"/>
     </row>
     <row r="77" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="41" t="s">
+      <c r="A77" s="40" t="s">
         <v>333</v>
       </c>
-      <c r="B77" s="44" t="s">
+      <c r="B77" s="34" t="s">
         <v>303</v>
       </c>
-      <c r="C77" s="45"/>
-      <c r="D77" s="45"/>
+      <c r="C77" s="30"/>
+      <c r="D77" s="30"/>
       <c r="E77" s="15" t="s">
         <v>348</v>
       </c>
-      <c r="F77" s="35" t="s">
+      <c r="F77" s="76" t="s">
         <v>346</v>
       </c>
-      <c r="G77" s="66"/>
-      <c r="H77" s="67"/>
+      <c r="G77" s="77"/>
+      <c r="H77" s="78"/>
       <c r="I77" s="16"/>
-      <c r="J77" s="35" t="s">
+      <c r="J77" s="76" t="s">
+        <v>359</v>
+      </c>
+      <c r="K77" s="94"/>
+      <c r="L77" s="95" t="s">
+        <v>353</v>
+      </c>
+      <c r="M77" s="96"/>
+      <c r="N77" s="76" t="s">
         <v>350</v>
       </c>
-      <c r="K77" s="36"/>
-      <c r="L77" s="37" t="s">
-        <v>354</v>
-      </c>
-      <c r="M77" s="38"/>
-      <c r="N77" s="35" t="s">
-        <v>351</v>
-      </c>
-      <c r="O77" s="36"/>
+      <c r="O77" s="94"/>
       <c r="P77" s="19">
-        <v>43427</v>
-      </c>
-      <c r="Q77" s="39" t="s">
-        <v>356</v>
-      </c>
-      <c r="R77" s="40"/>
+        <v>43429</v>
+      </c>
+      <c r="Q77" s="97" t="s">
+        <v>355</v>
+      </c>
+      <c r="R77" s="98"/>
     </row>
     <row r="78" spans="1:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="43"/>
-      <c r="B78" s="49"/>
-      <c r="C78" s="50"/>
-      <c r="D78" s="50"/>
+      <c r="A78" s="42"/>
+      <c r="B78" s="37"/>
+      <c r="C78" s="38"/>
+      <c r="D78" s="38"/>
       <c r="E78" s="17" t="s">
         <v>349</v>
       </c>
-      <c r="F78" s="35" t="s">
+      <c r="F78" s="76" t="s">
         <v>347</v>
       </c>
-      <c r="G78" s="66"/>
-      <c r="H78" s="67"/>
+      <c r="G78" s="77"/>
+      <c r="H78" s="78"/>
       <c r="I78" s="16"/>
-      <c r="J78" s="35" t="s">
-        <v>350</v>
-      </c>
-      <c r="K78" s="36"/>
-      <c r="L78" s="37" t="s">
-        <v>354</v>
-      </c>
-      <c r="M78" s="38"/>
-      <c r="N78" s="35" t="s">
-        <v>352</v>
-      </c>
-      <c r="O78" s="36"/>
+      <c r="J78" s="76" t="s">
+        <v>360</v>
+      </c>
+      <c r="K78" s="94"/>
+      <c r="L78" s="95" t="s">
+        <v>353</v>
+      </c>
+      <c r="M78" s="96"/>
+      <c r="N78" s="76" t="s">
+        <v>351</v>
+      </c>
+      <c r="O78" s="94"/>
       <c r="P78" s="19">
-        <v>43427</v>
-      </c>
-      <c r="Q78" s="39" t="s">
+        <v>43429</v>
+      </c>
+      <c r="Q78" s="97" t="s">
+        <v>356</v>
+      </c>
+      <c r="R78" s="98"/>
+    </row>
+    <row r="79" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="40" t="s">
+        <v>333</v>
+      </c>
+      <c r="B79" s="34" t="s">
+        <v>303</v>
+      </c>
+      <c r="C79" s="43"/>
+      <c r="D79" s="105"/>
+      <c r="E79" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="F79" s="76" t="s">
         <v>357</v>
       </c>
-      <c r="R78" s="40"/>
+      <c r="G79" s="77"/>
+      <c r="H79" s="78"/>
+      <c r="I79" s="16"/>
+      <c r="J79" s="76" t="s">
+        <v>360</v>
+      </c>
+      <c r="K79" s="94"/>
+      <c r="L79" s="95" t="s">
+        <v>362</v>
+      </c>
+      <c r="M79" s="104"/>
+      <c r="N79" s="76" t="s">
+        <v>363</v>
+      </c>
+      <c r="O79" s="78"/>
+      <c r="P79" s="19">
+        <v>43429</v>
+      </c>
+      <c r="Q79" s="97" t="s">
+        <v>364</v>
+      </c>
+      <c r="R79" s="103"/>
+    </row>
+    <row r="80" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="52"/>
+      <c r="B80" s="54"/>
+      <c r="C80" s="55"/>
+      <c r="D80" s="106"/>
+      <c r="E80" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="F80" s="76" t="s">
+        <v>358</v>
+      </c>
+      <c r="G80" s="77"/>
+      <c r="H80" s="78"/>
+      <c r="I80" s="16"/>
+      <c r="J80" s="76" t="s">
+        <v>361</v>
+      </c>
+      <c r="K80" s="78"/>
+      <c r="L80" s="95" t="s">
+        <v>353</v>
+      </c>
+      <c r="M80" s="104"/>
+      <c r="N80" s="76" t="s">
+        <v>351</v>
+      </c>
+      <c r="O80" s="78"/>
+      <c r="P80" s="19">
+        <v>43429</v>
+      </c>
+      <c r="Q80" s="97" t="s">
+        <v>365</v>
+      </c>
+      <c r="R80" s="103"/>
     </row>
   </sheetData>
-  <mergeCells count="404">
-    <mergeCell ref="Q50:R50"/>
-    <mergeCell ref="Q51:R51"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="Q56:R56"/>
-    <mergeCell ref="Q57:R57"/>
-    <mergeCell ref="Q72:R72"/>
-    <mergeCell ref="Q71:R71"/>
-    <mergeCell ref="Q53:R53"/>
-    <mergeCell ref="Q61:R61"/>
-    <mergeCell ref="Q60:R60"/>
-    <mergeCell ref="Q62:R62"/>
-    <mergeCell ref="Q63:R63"/>
-    <mergeCell ref="Q52:R52"/>
-    <mergeCell ref="Q58:R58"/>
-    <mergeCell ref="Q59:R59"/>
-    <mergeCell ref="Q66:R66"/>
-    <mergeCell ref="Q67:R67"/>
-    <mergeCell ref="Q68:R68"/>
-    <mergeCell ref="Q69:R69"/>
-    <mergeCell ref="Q70:R70"/>
+  <mergeCells count="416">
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:D80"/>
+    <mergeCell ref="F79:H79"/>
+    <mergeCell ref="J79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="Q79:R79"/>
+    <mergeCell ref="F80:H80"/>
+    <mergeCell ref="J80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="Q80:R80"/>
+    <mergeCell ref="J73:K76"/>
+    <mergeCell ref="L73:M76"/>
+    <mergeCell ref="N73:O76"/>
+    <mergeCell ref="P73:P76"/>
+    <mergeCell ref="Q73:R76"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="J78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="Q77:R77"/>
+    <mergeCell ref="Q78:R78"/>
+    <mergeCell ref="A73:A76"/>
+    <mergeCell ref="B73:D76"/>
+    <mergeCell ref="E73:E76"/>
+    <mergeCell ref="F73:H76"/>
+    <mergeCell ref="I73:I76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:D78"/>
+    <mergeCell ref="F78:H78"/>
+    <mergeCell ref="F77:H77"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:D70"/>
+    <mergeCell ref="F66:H66"/>
+    <mergeCell ref="F67:H67"/>
+    <mergeCell ref="F68:H68"/>
+    <mergeCell ref="F69:H69"/>
+    <mergeCell ref="F70:H70"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="J70:K70"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="A21:A27"/>
+    <mergeCell ref="A6:A13"/>
+    <mergeCell ref="B16:D20"/>
+    <mergeCell ref="B21:D27"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L4:R4"/>
+    <mergeCell ref="E4:K4"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="J71:K71"/>
+    <mergeCell ref="J72:K72"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="A54:A59"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B14:D15"/>
+    <mergeCell ref="B6:D13"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:D32"/>
+    <mergeCell ref="B33:D37"/>
+    <mergeCell ref="B28:D30"/>
+    <mergeCell ref="B61:D63"/>
+    <mergeCell ref="B64:D65"/>
+    <mergeCell ref="B71:D72"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A48:A53"/>
+    <mergeCell ref="B66:D68"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B43:D45"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D42"/>
+    <mergeCell ref="B54:D59"/>
+    <mergeCell ref="B48:D53"/>
+    <mergeCell ref="B46:D47"/>
+    <mergeCell ref="F71:H71"/>
+    <mergeCell ref="F72:H72"/>
+    <mergeCell ref="F65:H65"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="F61:H61"/>
+    <mergeCell ref="F57:H57"/>
+    <mergeCell ref="F58:H58"/>
+    <mergeCell ref="F62:H62"/>
+    <mergeCell ref="F55:H55"/>
+    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="F60:H60"/>
+    <mergeCell ref="F59:H59"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="F63:H63"/>
+    <mergeCell ref="F64:H64"/>
+    <mergeCell ref="F53:H53"/>
+    <mergeCell ref="F54:H54"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N13:O13"/>
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="N24:O24"/>
     <mergeCell ref="N25:O25"/>
@@ -4982,365 +5465,27 @@
     <mergeCell ref="Q45:R45"/>
     <mergeCell ref="Q47:R47"/>
     <mergeCell ref="Q49:R49"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="F63:H63"/>
-    <mergeCell ref="F64:H64"/>
-    <mergeCell ref="F53:H53"/>
-    <mergeCell ref="F54:H54"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="F71:H71"/>
-    <mergeCell ref="F72:H72"/>
-    <mergeCell ref="F65:H65"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="F61:H61"/>
-    <mergeCell ref="F57:H57"/>
-    <mergeCell ref="F58:H58"/>
-    <mergeCell ref="F62:H62"/>
-    <mergeCell ref="F55:H55"/>
-    <mergeCell ref="F56:H56"/>
-    <mergeCell ref="F60:H60"/>
-    <mergeCell ref="F59:H59"/>
-    <mergeCell ref="F51:H51"/>
-    <mergeCell ref="F52:H52"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="F48:H48"/>
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="F49:H49"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B43:D45"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D42"/>
-    <mergeCell ref="B54:D59"/>
-    <mergeCell ref="B48:D53"/>
-    <mergeCell ref="B46:D47"/>
-    <mergeCell ref="A54:A59"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B14:D15"/>
-    <mergeCell ref="B6:D13"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:D32"/>
-    <mergeCell ref="B33:D37"/>
-    <mergeCell ref="B28:D30"/>
-    <mergeCell ref="B61:D63"/>
-    <mergeCell ref="B64:D65"/>
-    <mergeCell ref="B71:D72"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="A48:A53"/>
-    <mergeCell ref="B66:D68"/>
-    <mergeCell ref="A66:A68"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="J71:K71"/>
-    <mergeCell ref="J72:K72"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="L72:M72"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="L67:M67"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="N72:O72"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="L58:M58"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="L63:M63"/>
-    <mergeCell ref="L62:M62"/>
-    <mergeCell ref="N56:O56"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="N55:O55"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="N58:O58"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="N64:O64"/>
-    <mergeCell ref="L71:M71"/>
-    <mergeCell ref="N63:O63"/>
-    <mergeCell ref="N62:O62"/>
-    <mergeCell ref="N65:O65"/>
-    <mergeCell ref="N71:O71"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="N61:O61"/>
-    <mergeCell ref="N60:O60"/>
-    <mergeCell ref="N59:O59"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L4:R4"/>
-    <mergeCell ref="E4:K4"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="A21:A27"/>
-    <mergeCell ref="A6:A13"/>
-    <mergeCell ref="B16:D20"/>
-    <mergeCell ref="B21:D27"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="L70:M70"/>
-    <mergeCell ref="N66:O66"/>
-    <mergeCell ref="N67:O67"/>
-    <mergeCell ref="N68:O68"/>
-    <mergeCell ref="N69:O69"/>
-    <mergeCell ref="N70:O70"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:D70"/>
-    <mergeCell ref="F66:H66"/>
-    <mergeCell ref="F67:H67"/>
-    <mergeCell ref="F68:H68"/>
-    <mergeCell ref="F69:H69"/>
-    <mergeCell ref="F70:H70"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="J70:K70"/>
-    <mergeCell ref="A73:A76"/>
-    <mergeCell ref="B73:D76"/>
-    <mergeCell ref="E73:E76"/>
-    <mergeCell ref="F73:H76"/>
-    <mergeCell ref="I73:I76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:D78"/>
-    <mergeCell ref="F78:H78"/>
-    <mergeCell ref="F77:H77"/>
-    <mergeCell ref="J73:K76"/>
-    <mergeCell ref="L73:M76"/>
-    <mergeCell ref="N73:O76"/>
-    <mergeCell ref="P73:P76"/>
-    <mergeCell ref="Q73:R76"/>
-    <mergeCell ref="J77:K77"/>
-    <mergeCell ref="J78:K78"/>
-    <mergeCell ref="L78:M78"/>
-    <mergeCell ref="L77:M77"/>
-    <mergeCell ref="N77:O77"/>
-    <mergeCell ref="N78:O78"/>
-    <mergeCell ref="Q77:R77"/>
-    <mergeCell ref="Q78:R78"/>
+    <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="Q51:R51"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="Q56:R56"/>
+    <mergeCell ref="Q57:R57"/>
+    <mergeCell ref="Q72:R72"/>
+    <mergeCell ref="Q71:R71"/>
+    <mergeCell ref="Q53:R53"/>
+    <mergeCell ref="Q61:R61"/>
+    <mergeCell ref="Q60:R60"/>
+    <mergeCell ref="Q62:R62"/>
+    <mergeCell ref="Q63:R63"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="Q58:R58"/>
+    <mergeCell ref="Q59:R59"/>
+    <mergeCell ref="Q66:R66"/>
+    <mergeCell ref="Q67:R67"/>
+    <mergeCell ref="Q68:R68"/>
+    <mergeCell ref="Q69:R69"/>
+    <mergeCell ref="Q70:R70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5355,7 +5500,7 @@
   </sheetPr>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
@@ -5365,27 +5510,27 @@
       <c r="A1" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
@@ -5399,261 +5544,271 @@
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="99" t="s">
+      <c r="B4" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="83"/>
+      <c r="C4" s="22"/>
       <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="99" t="s">
+      <c r="E4" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="83"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
-      <c r="B5" s="98"/>
-      <c r="C5" s="83"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="22"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="83"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="22"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
-      <c r="B6" s="98"/>
-      <c r="C6" s="83"/>
+      <c r="B6" s="99"/>
+      <c r="C6" s="22"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="83"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="22"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
-      <c r="B7" s="98"/>
-      <c r="C7" s="83"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="22"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="83"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="22"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
-      <c r="B8" s="98"/>
-      <c r="C8" s="83"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="22"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="83"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="22"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
-      <c r="B9" s="98"/>
-      <c r="C9" s="83"/>
+      <c r="B9" s="99"/>
+      <c r="C9" s="22"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="98"/>
-      <c r="F9" s="83"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="22"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
-      <c r="B10" s="98"/>
-      <c r="C10" s="83"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="22"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="98"/>
-      <c r="F10" s="83"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="22"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
-      <c r="B11" s="98"/>
-      <c r="C11" s="83"/>
+      <c r="B11" s="99"/>
+      <c r="C11" s="22"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="98"/>
-      <c r="F11" s="83"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="22"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
-      <c r="B12" s="98"/>
-      <c r="C12" s="83"/>
+      <c r="B12" s="99"/>
+      <c r="C12" s="22"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="98"/>
-      <c r="F12" s="83"/>
+      <c r="E12" s="99"/>
+      <c r="F12" s="22"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
-      <c r="B13" s="98"/>
-      <c r="C13" s="83"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="22"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="83"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="22"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
-      <c r="B14" s="98"/>
-      <c r="C14" s="83"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="22"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="98"/>
-      <c r="F14" s="83"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="22"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
-      <c r="B15" s="98"/>
-      <c r="C15" s="83"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="22"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="83"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="22"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
-      <c r="B16" s="98"/>
-      <c r="C16" s="83"/>
+      <c r="B16" s="99"/>
+      <c r="C16" s="22"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="98"/>
-      <c r="F16" s="83"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="22"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
-      <c r="B17" s="98"/>
-      <c r="C17" s="83"/>
+      <c r="B17" s="99"/>
+      <c r="C17" s="22"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="98"/>
-      <c r="F17" s="83"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="22"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
-      <c r="B18" s="98"/>
-      <c r="C18" s="83"/>
+      <c r="B18" s="99"/>
+      <c r="C18" s="22"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="98"/>
-      <c r="F18" s="83"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="22"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
-      <c r="B19" s="98"/>
-      <c r="C19" s="83"/>
+      <c r="B19" s="99"/>
+      <c r="C19" s="22"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="98"/>
-      <c r="F19" s="83"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="22"/>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
-      <c r="B20" s="98"/>
-      <c r="C20" s="83"/>
+      <c r="B20" s="99"/>
+      <c r="C20" s="22"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="98"/>
-      <c r="F20" s="83"/>
+      <c r="E20" s="99"/>
+      <c r="F20" s="22"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
-      <c r="B21" s="98"/>
-      <c r="C21" s="83"/>
+      <c r="B21" s="99"/>
+      <c r="C21" s="22"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="98"/>
-      <c r="F21" s="83"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="22"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
-      <c r="B22" s="98"/>
-      <c r="C22" s="83"/>
+      <c r="B22" s="99"/>
+      <c r="C22" s="22"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="98"/>
-      <c r="F22" s="83"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="22"/>
     </row>
     <row r="23" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
-      <c r="B23" s="98"/>
-      <c r="C23" s="83"/>
+      <c r="B23" s="99"/>
+      <c r="C23" s="22"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="98"/>
-      <c r="F23" s="83"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="22"/>
     </row>
     <row r="24" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
-      <c r="B24" s="98"/>
-      <c r="C24" s="83"/>
+      <c r="B24" s="99"/>
+      <c r="C24" s="22"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="98"/>
-      <c r="F24" s="83"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="22"/>
     </row>
     <row r="25" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
-      <c r="B25" s="98"/>
-      <c r="C25" s="83"/>
+      <c r="B25" s="99"/>
+      <c r="C25" s="22"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="98"/>
-      <c r="F25" s="83"/>
+      <c r="E25" s="99"/>
+      <c r="F25" s="22"/>
     </row>
     <row r="26" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
-      <c r="B26" s="98"/>
-      <c r="C26" s="83"/>
+      <c r="B26" s="99"/>
+      <c r="C26" s="22"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="98"/>
-      <c r="F26" s="83"/>
+      <c r="E26" s="99"/>
+      <c r="F26" s="22"/>
     </row>
     <row r="27" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
-      <c r="B27" s="98"/>
-      <c r="C27" s="83"/>
+      <c r="B27" s="99"/>
+      <c r="C27" s="22"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="98"/>
-      <c r="F27" s="83"/>
+      <c r="E27" s="99"/>
+      <c r="F27" s="22"/>
     </row>
     <row r="28" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
-      <c r="B28" s="98"/>
-      <c r="C28" s="83"/>
+      <c r="B28" s="99"/>
+      <c r="C28" s="22"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="98"/>
-      <c r="F28" s="83"/>
+      <c r="E28" s="99"/>
+      <c r="F28" s="22"/>
     </row>
     <row r="29" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
-      <c r="B29" s="98"/>
-      <c r="C29" s="83"/>
+      <c r="B29" s="99"/>
+      <c r="C29" s="22"/>
       <c r="D29" s="3"/>
-      <c r="E29" s="98"/>
-      <c r="F29" s="83"/>
+      <c r="E29" s="99"/>
+      <c r="F29" s="22"/>
     </row>
     <row r="30" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
-      <c r="B30" s="98"/>
-      <c r="C30" s="83"/>
+      <c r="B30" s="99"/>
+      <c r="C30" s="22"/>
       <c r="D30" s="3"/>
-      <c r="E30" s="98"/>
-      <c r="F30" s="83"/>
+      <c r="E30" s="99"/>
+      <c r="F30" s="22"/>
     </row>
     <row r="31" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
-      <c r="B31" s="98"/>
-      <c r="C31" s="83"/>
+      <c r="B31" s="99"/>
+      <c r="C31" s="22"/>
       <c r="D31" s="3"/>
-      <c r="E31" s="98"/>
-      <c r="F31" s="83"/>
+      <c r="E31" s="99"/>
+      <c r="F31" s="22"/>
     </row>
     <row r="32" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
-      <c r="B32" s="98"/>
-      <c r="C32" s="83"/>
+      <c r="B32" s="99"/>
+      <c r="C32" s="22"/>
       <c r="D32" s="3"/>
-      <c r="E32" s="98"/>
-      <c r="F32" s="83"/>
+      <c r="E32" s="99"/>
+      <c r="F32" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B10:C10"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="B25:C25"/>
@@ -5670,33 +5825,23 @@
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="E29:F29"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E22:F22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentacion/Tests/Dynamic Test Processes Documentation/Test Case Specification.xlsx
+++ b/Documentacion/Tests/Dynamic Test Processes Documentation/Test Case Specification.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis Pablo Monge\Cursos\2018\II semestre\aseguramiento\Grupo7-Proyecto-4\Documentacion\Tests\Dynamic Test Processes Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3023B2E-2A9C-415A-8EB3-0D148D7DCA54}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F780FC-6966-42C8-9AB8-503D6D00C028}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="368">
   <si>
     <t>P-01: Plan de Pruebas para Tienda Virtual</t>
   </si>
@@ -1341,6 +1341,12 @@
   </si>
   <si>
     <t>No despliega órdenes adicionales</t>
+  </si>
+  <si>
+    <t>TC-072</t>
+  </si>
+  <si>
+    <t>TC-073</t>
   </si>
 </sst>
 </file>
@@ -1784,7 +1790,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1836,232 +1842,235 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2384,8 +2393,8 @@
   </sheetPr>
   <dimension ref="A1:R80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H71" workbookViewId="0">
-      <selection activeCell="Q80" sqref="Q80:R80"/>
+    <sheetView tabSelected="1" topLeftCell="B69" workbookViewId="0">
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2394,2746 +2403,3006 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
     </row>
     <row r="2" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
     </row>
     <row r="4" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="27" t="s">
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="27" t="s">
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="22"/>
+      <c r="M4" s="87"/>
+      <c r="N4" s="87"/>
+      <c r="O4" s="87"/>
+      <c r="P4" s="87"/>
+      <c r="Q4" s="87"/>
+      <c r="R4" s="88"/>
     </row>
     <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="22"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="88"/>
       <c r="E5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="29"/>
-      <c r="H5" s="22"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="88"/>
       <c r="I5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="27" t="s">
+      <c r="J5" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="22"/>
-      <c r="L5" s="27" t="s">
+      <c r="K5" s="88"/>
+      <c r="L5" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="22"/>
-      <c r="N5" s="27" t="s">
+      <c r="M5" s="88"/>
+      <c r="N5" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="22"/>
+      <c r="O5" s="88"/>
       <c r="P5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="Q5" s="27" t="s">
+      <c r="Q5" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="R5" s="22"/>
+      <c r="R5" s="88"/>
     </row>
     <row r="6" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="24"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="90"/>
       <c r="E6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="29"/>
-      <c r="H6" s="22"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="88"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="21" t="s">
+      <c r="J6" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="28"/>
-      <c r="L6" s="21" t="s">
+      <c r="K6" s="102"/>
+      <c r="L6" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="M6" s="22"/>
-      <c r="N6" s="21" t="s">
+      <c r="M6" s="88"/>
+      <c r="N6" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="O6" s="22"/>
+      <c r="O6" s="88"/>
       <c r="P6" s="7">
         <v>43360</v>
       </c>
-      <c r="Q6" s="21" t="s">
+      <c r="Q6" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="R6" s="22"/>
+      <c r="R6" s="88"/>
     </row>
     <row r="7" spans="1:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="41"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="36"/>
+      <c r="A7" s="54"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="91"/>
       <c r="E7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="29"/>
-      <c r="H7" s="22"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="88"/>
       <c r="I7" s="6"/>
-      <c r="J7" s="21" t="s">
+      <c r="J7" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="22"/>
-      <c r="L7" s="21" t="s">
+      <c r="K7" s="88"/>
+      <c r="L7" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="M7" s="22"/>
-      <c r="N7" s="21" t="s">
+      <c r="M7" s="88"/>
+      <c r="N7" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="O7" s="22"/>
+      <c r="O7" s="88"/>
       <c r="P7" s="7">
         <v>43360</v>
       </c>
-      <c r="Q7" s="21" t="s">
+      <c r="Q7" s="89" t="s">
         <v>334</v>
       </c>
-      <c r="R7" s="22"/>
+      <c r="R7" s="88"/>
     </row>
     <row r="8" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="41"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="36"/>
+      <c r="A8" s="54"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="91"/>
       <c r="E8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="29"/>
-      <c r="H8" s="22"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="88"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="21" t="s">
+      <c r="J8" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="K8" s="22"/>
-      <c r="L8" s="21" t="s">
+      <c r="K8" s="88"/>
+      <c r="L8" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="M8" s="22"/>
-      <c r="N8" s="21" t="s">
+      <c r="M8" s="88"/>
+      <c r="N8" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="O8" s="22"/>
+      <c r="O8" s="88"/>
       <c r="P8" s="7">
         <v>43360</v>
       </c>
-      <c r="Q8" s="21" t="s">
+      <c r="Q8" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="R8" s="22"/>
+      <c r="R8" s="88"/>
     </row>
     <row r="9" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="41"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="36"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="91"/>
       <c r="E9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="29"/>
-      <c r="H9" s="22"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="88"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="21" t="s">
+      <c r="J9" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="K9" s="22"/>
-      <c r="L9" s="21" t="s">
+      <c r="K9" s="88"/>
+      <c r="L9" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="M9" s="22"/>
-      <c r="N9" s="21" t="s">
+      <c r="M9" s="88"/>
+      <c r="N9" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="O9" s="22"/>
+      <c r="O9" s="88"/>
       <c r="P9" s="7">
         <v>43360</v>
       </c>
-      <c r="Q9" s="21" t="s">
+      <c r="Q9" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="R9" s="22"/>
+      <c r="R9" s="88"/>
     </row>
     <row r="10" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="41"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="36"/>
+      <c r="A10" s="54"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="91"/>
       <c r="E10" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="89" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="29"/>
-      <c r="H10" s="22"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="88"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="21" t="s">
+      <c r="J10" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="K10" s="22"/>
-      <c r="L10" s="21" t="s">
+      <c r="K10" s="88"/>
+      <c r="L10" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="M10" s="22"/>
-      <c r="N10" s="21" t="s">
+      <c r="M10" s="88"/>
+      <c r="N10" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="O10" s="22"/>
+      <c r="O10" s="88"/>
       <c r="P10" s="7">
         <v>43360</v>
       </c>
-      <c r="Q10" s="21" t="s">
+      <c r="Q10" s="89" t="s">
         <v>335</v>
       </c>
-      <c r="R10" s="22"/>
+      <c r="R10" s="88"/>
     </row>
     <row r="11" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="41"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="36"/>
+      <c r="A11" s="54"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="91"/>
       <c r="E11" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="29"/>
-      <c r="H11" s="22"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="88"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="21" t="s">
+      <c r="J11" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="K11" s="22"/>
-      <c r="L11" s="21" t="s">
+      <c r="K11" s="88"/>
+      <c r="L11" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="M11" s="22"/>
-      <c r="N11" s="21" t="s">
+      <c r="M11" s="88"/>
+      <c r="N11" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="O11" s="22"/>
+      <c r="O11" s="88"/>
       <c r="P11" s="7">
         <v>43360</v>
       </c>
-      <c r="Q11" s="21" t="s">
+      <c r="Q11" s="89" t="s">
         <v>336</v>
       </c>
-      <c r="R11" s="22"/>
+      <c r="R11" s="88"/>
     </row>
     <row r="12" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="41"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="36"/>
+      <c r="A12" s="54"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="91"/>
       <c r="E12" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="G12" s="29"/>
-      <c r="H12" s="22"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="88"/>
       <c r="I12" s="8"/>
-      <c r="J12" s="21" t="s">
+      <c r="J12" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="K12" s="22"/>
-      <c r="L12" s="21" t="s">
+      <c r="K12" s="88"/>
+      <c r="L12" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="M12" s="22"/>
-      <c r="N12" s="21" t="s">
+      <c r="M12" s="88"/>
+      <c r="N12" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="O12" s="22"/>
+      <c r="O12" s="88"/>
       <c r="P12" s="7">
         <v>43360</v>
       </c>
-      <c r="Q12" s="21" t="s">
+      <c r="Q12" s="89" t="s">
         <v>337</v>
       </c>
-      <c r="R12" s="22"/>
+      <c r="R12" s="88"/>
     </row>
     <row r="13" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="42"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="39"/>
+      <c r="A13" s="55"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="92"/>
       <c r="E13" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="F13" s="89" t="s">
         <v>54</v>
       </c>
-      <c r="G13" s="29"/>
-      <c r="H13" s="22"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="88"/>
       <c r="I13" s="8"/>
-      <c r="J13" s="21" t="s">
+      <c r="J13" s="89" t="s">
         <v>55</v>
       </c>
-      <c r="K13" s="22"/>
-      <c r="L13" s="21" t="s">
+      <c r="K13" s="88"/>
+      <c r="L13" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="M13" s="22"/>
-      <c r="N13" s="21" t="s">
+      <c r="M13" s="88"/>
+      <c r="N13" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="O13" s="22"/>
+      <c r="O13" s="88"/>
       <c r="P13" s="7">
         <v>43360</v>
       </c>
-      <c r="Q13" s="21" t="s">
+      <c r="Q13" s="89" t="s">
         <v>56</v>
       </c>
-      <c r="R13" s="22"/>
+      <c r="R13" s="88"/>
     </row>
     <row r="14" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="24"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="90"/>
       <c r="E14" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="F14" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="G14" s="29"/>
-      <c r="H14" s="22"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="88"/>
       <c r="I14" s="8"/>
-      <c r="J14" s="21" t="s">
+      <c r="J14" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="K14" s="22"/>
-      <c r="L14" s="21" t="s">
+      <c r="K14" s="88"/>
+      <c r="L14" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="M14" s="22"/>
-      <c r="N14" s="21" t="s">
+      <c r="M14" s="88"/>
+      <c r="N14" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="O14" s="22"/>
+      <c r="O14" s="88"/>
       <c r="P14" s="7">
         <v>43360</v>
       </c>
-      <c r="Q14" s="21" t="s">
+      <c r="Q14" s="89" t="s">
         <v>62</v>
       </c>
-      <c r="R14" s="22"/>
+      <c r="R14" s="88"/>
     </row>
     <row r="15" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="42"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="39"/>
+      <c r="A15" s="55"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="92"/>
       <c r="E15" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="F15" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="G15" s="29"/>
-      <c r="H15" s="22"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="88"/>
       <c r="I15" s="8"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="21" t="s">
+      <c r="J15" s="89"/>
+      <c r="K15" s="88"/>
+      <c r="L15" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="M15" s="22"/>
-      <c r="N15" s="21" t="s">
+      <c r="M15" s="88"/>
+      <c r="N15" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="O15" s="22"/>
+      <c r="O15" s="88"/>
       <c r="P15" s="7">
         <v>43360</v>
       </c>
-      <c r="Q15" s="21" t="s">
+      <c r="Q15" s="89" t="s">
         <v>48</v>
       </c>
-      <c r="R15" s="22"/>
+      <c r="R15" s="88"/>
     </row>
     <row r="16" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="24"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="90"/>
       <c r="E16" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="F16" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="G16" s="29"/>
-      <c r="H16" s="22"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="88"/>
       <c r="I16" s="8"/>
-      <c r="J16" s="21" t="s">
+      <c r="J16" s="89" t="s">
         <v>70</v>
       </c>
-      <c r="K16" s="22"/>
-      <c r="L16" s="21" t="s">
+      <c r="K16" s="88"/>
+      <c r="L16" s="89" t="s">
         <v>71</v>
       </c>
-      <c r="M16" s="22"/>
-      <c r="N16" s="21" t="s">
+      <c r="M16" s="88"/>
+      <c r="N16" s="89" t="s">
         <v>72</v>
       </c>
-      <c r="O16" s="22"/>
+      <c r="O16" s="88"/>
       <c r="P16" s="7">
         <v>43360</v>
       </c>
-      <c r="Q16" s="21" t="s">
+      <c r="Q16" s="89" t="s">
         <v>73</v>
       </c>
-      <c r="R16" s="22"/>
+      <c r="R16" s="88"/>
     </row>
     <row r="17" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="41"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="36"/>
+      <c r="A17" s="54"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="91"/>
       <c r="E17" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F17" s="21" t="s">
+      <c r="F17" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="29"/>
-      <c r="H17" s="22"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="88"/>
       <c r="I17" s="8"/>
-      <c r="J17" s="21" t="s">
+      <c r="J17" s="89" t="s">
         <v>75</v>
       </c>
-      <c r="K17" s="22"/>
-      <c r="L17" s="21" t="s">
+      <c r="K17" s="88"/>
+      <c r="L17" s="89" t="s">
         <v>76</v>
       </c>
-      <c r="M17" s="22"/>
-      <c r="N17" s="21" t="s">
+      <c r="M17" s="88"/>
+      <c r="N17" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="O17" s="22"/>
+      <c r="O17" s="88"/>
       <c r="P17" s="7">
         <v>43360</v>
       </c>
-      <c r="Q17" s="21" t="s">
+      <c r="Q17" s="89" t="s">
         <v>77</v>
       </c>
-      <c r="R17" s="22"/>
+      <c r="R17" s="88"/>
     </row>
     <row r="18" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="41"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="36"/>
+      <c r="A18" s="54"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="91"/>
       <c r="E18" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="F18" s="21" t="s">
+      <c r="F18" s="89" t="s">
         <v>79</v>
       </c>
-      <c r="G18" s="29"/>
-      <c r="H18" s="22"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="88"/>
       <c r="I18" s="8"/>
-      <c r="J18" s="21" t="s">
+      <c r="J18" s="89" t="s">
         <v>75</v>
       </c>
-      <c r="K18" s="22"/>
-      <c r="L18" s="21" t="s">
+      <c r="K18" s="88"/>
+      <c r="L18" s="89" t="s">
         <v>71</v>
       </c>
-      <c r="M18" s="22"/>
-      <c r="N18" s="21" t="s">
+      <c r="M18" s="88"/>
+      <c r="N18" s="89" t="s">
         <v>80</v>
       </c>
-      <c r="O18" s="22"/>
+      <c r="O18" s="88"/>
       <c r="P18" s="7">
         <v>43360</v>
       </c>
-      <c r="Q18" s="21" t="s">
+      <c r="Q18" s="89" t="s">
         <v>81</v>
       </c>
-      <c r="R18" s="22"/>
+      <c r="R18" s="88"/>
     </row>
     <row r="19" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="41"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="36"/>
+      <c r="A19" s="54"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="91"/>
       <c r="E19" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="F19" s="21" t="s">
+      <c r="F19" s="89" t="s">
         <v>83</v>
       </c>
-      <c r="G19" s="29"/>
-      <c r="H19" s="22"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="88"/>
       <c r="I19" s="8"/>
-      <c r="J19" s="21" t="s">
+      <c r="J19" s="89" t="s">
         <v>84</v>
       </c>
-      <c r="K19" s="22"/>
-      <c r="L19" s="21" t="s">
+      <c r="K19" s="88"/>
+      <c r="L19" s="89" t="s">
         <v>71</v>
       </c>
-      <c r="M19" s="22"/>
-      <c r="N19" s="21" t="s">
+      <c r="M19" s="88"/>
+      <c r="N19" s="89" t="s">
         <v>85</v>
       </c>
-      <c r="O19" s="22"/>
+      <c r="O19" s="88"/>
       <c r="P19" s="7">
         <v>43360</v>
       </c>
-      <c r="Q19" s="21" t="s">
+      <c r="Q19" s="89" t="s">
         <v>86</v>
       </c>
-      <c r="R19" s="22"/>
+      <c r="R19" s="88"/>
     </row>
     <row r="20" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="42"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="39"/>
+      <c r="A20" s="55"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="92"/>
       <c r="E20" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="F20" s="21" t="s">
+      <c r="F20" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="G20" s="29"/>
-      <c r="H20" s="22"/>
+      <c r="G20" s="87"/>
+      <c r="H20" s="88"/>
       <c r="I20" s="8"/>
-      <c r="J20" s="21" t="s">
+      <c r="J20" s="89" t="s">
         <v>75</v>
       </c>
-      <c r="K20" s="22"/>
-      <c r="L20" s="21" t="s">
+      <c r="K20" s="88"/>
+      <c r="L20" s="89" t="s">
         <v>89</v>
       </c>
-      <c r="M20" s="22"/>
-      <c r="N20" s="21" t="s">
+      <c r="M20" s="88"/>
+      <c r="N20" s="89" t="s">
         <v>90</v>
       </c>
-      <c r="O20" s="22"/>
+      <c r="O20" s="88"/>
       <c r="P20" s="7">
         <v>43360</v>
       </c>
-      <c r="Q20" s="21" t="s">
+      <c r="Q20" s="89" t="s">
         <v>91</v>
       </c>
-      <c r="R20" s="22"/>
+      <c r="R20" s="88"/>
     </row>
     <row r="21" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="C21" s="30"/>
-      <c r="D21" s="24"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="90"/>
       <c r="E21" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="F21" s="21" t="s">
+      <c r="F21" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="G21" s="29"/>
-      <c r="H21" s="22"/>
+      <c r="G21" s="87"/>
+      <c r="H21" s="88"/>
       <c r="I21" s="9"/>
-      <c r="J21" s="21" t="s">
+      <c r="J21" s="89" t="s">
         <v>95</v>
       </c>
-      <c r="K21" s="22"/>
-      <c r="L21" s="21" t="s">
+      <c r="K21" s="88"/>
+      <c r="L21" s="89" t="s">
         <v>96</v>
       </c>
-      <c r="M21" s="22"/>
-      <c r="N21" s="21" t="s">
+      <c r="M21" s="88"/>
+      <c r="N21" s="89" t="s">
         <v>97</v>
       </c>
-      <c r="O21" s="22"/>
+      <c r="O21" s="88"/>
       <c r="P21" s="7">
         <v>43360</v>
       </c>
-      <c r="Q21" s="21" t="s">
+      <c r="Q21" s="89" t="s">
         <v>98</v>
       </c>
-      <c r="R21" s="22"/>
+      <c r="R21" s="88"/>
     </row>
     <row r="22" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="41"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="36"/>
+      <c r="A22" s="54"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="91"/>
       <c r="E22" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="F22" s="21" t="s">
+      <c r="F22" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="29"/>
-      <c r="H22" s="22"/>
+      <c r="G22" s="87"/>
+      <c r="H22" s="88"/>
       <c r="I22" s="9"/>
-      <c r="J22" s="21" t="s">
+      <c r="J22" s="89" t="s">
         <v>100</v>
       </c>
-      <c r="K22" s="22"/>
-      <c r="L22" s="21" t="s">
+      <c r="K22" s="88"/>
+      <c r="L22" s="89" t="s">
         <v>101</v>
       </c>
-      <c r="M22" s="22"/>
-      <c r="N22" s="21" t="s">
+      <c r="M22" s="88"/>
+      <c r="N22" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="O22" s="22"/>
+      <c r="O22" s="88"/>
       <c r="P22" s="7">
         <v>43360</v>
       </c>
-      <c r="Q22" s="21" t="s">
+      <c r="Q22" s="89" t="s">
         <v>77</v>
       </c>
-      <c r="R22" s="22"/>
+      <c r="R22" s="88"/>
     </row>
     <row r="23" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="41"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="36"/>
+      <c r="A23" s="54"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="91"/>
       <c r="E23" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="F23" s="21" t="s">
+      <c r="F23" s="89" t="s">
         <v>79</v>
       </c>
-      <c r="G23" s="29"/>
-      <c r="H23" s="22"/>
+      <c r="G23" s="87"/>
+      <c r="H23" s="88"/>
       <c r="I23" s="9"/>
-      <c r="J23" s="21" t="s">
+      <c r="J23" s="89" t="s">
         <v>100</v>
       </c>
-      <c r="K23" s="22"/>
-      <c r="L23" s="21" t="s">
+      <c r="K23" s="88"/>
+      <c r="L23" s="89" t="s">
         <v>103</v>
       </c>
-      <c r="M23" s="22"/>
-      <c r="N23" s="21" t="s">
+      <c r="M23" s="88"/>
+      <c r="N23" s="89" t="s">
         <v>104</v>
       </c>
-      <c r="O23" s="22"/>
+      <c r="O23" s="88"/>
       <c r="P23" s="7">
         <v>43360</v>
       </c>
-      <c r="Q23" s="21" t="s">
+      <c r="Q23" s="89" t="s">
         <v>81</v>
       </c>
-      <c r="R23" s="22"/>
+      <c r="R23" s="88"/>
     </row>
     <row r="24" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="41"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="36"/>
+      <c r="A24" s="54"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="91"/>
       <c r="E24" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="F24" s="21" t="s">
+      <c r="F24" s="89" t="s">
         <v>83</v>
       </c>
-      <c r="G24" s="29"/>
-      <c r="H24" s="22"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="88"/>
       <c r="I24" s="9"/>
-      <c r="J24" s="21" t="s">
+      <c r="J24" s="89" t="s">
         <v>106</v>
       </c>
-      <c r="K24" s="22"/>
-      <c r="L24" s="21" t="s">
+      <c r="K24" s="88"/>
+      <c r="L24" s="89" t="s">
         <v>107</v>
       </c>
-      <c r="M24" s="22"/>
-      <c r="N24" s="21" t="s">
+      <c r="M24" s="88"/>
+      <c r="N24" s="89" t="s">
         <v>108</v>
       </c>
-      <c r="O24" s="22"/>
+      <c r="O24" s="88"/>
       <c r="P24" s="7">
         <v>43360</v>
       </c>
-      <c r="Q24" s="21" t="s">
+      <c r="Q24" s="89" t="s">
         <v>86</v>
       </c>
-      <c r="R24" s="22"/>
+      <c r="R24" s="88"/>
     </row>
     <row r="25" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="41"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="36"/>
+      <c r="A25" s="54"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="91"/>
       <c r="E25" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F25" s="21" t="s">
+      <c r="F25" s="89" t="s">
         <v>110</v>
       </c>
-      <c r="G25" s="29"/>
-      <c r="H25" s="22"/>
+      <c r="G25" s="87"/>
+      <c r="H25" s="88"/>
       <c r="I25" s="9"/>
-      <c r="J25" s="21" t="s">
+      <c r="J25" s="89" t="s">
         <v>100</v>
       </c>
-      <c r="K25" s="22"/>
-      <c r="L25" s="21" t="s">
+      <c r="K25" s="88"/>
+      <c r="L25" s="89" t="s">
         <v>71</v>
       </c>
-      <c r="M25" s="22"/>
-      <c r="N25" s="21" t="s">
+      <c r="M25" s="88"/>
+      <c r="N25" s="89" t="s">
         <v>97</v>
       </c>
-      <c r="O25" s="22"/>
+      <c r="O25" s="88"/>
       <c r="P25" s="7">
         <v>43360</v>
       </c>
-      <c r="Q25" s="21" t="s">
+      <c r="Q25" s="89" t="s">
         <v>338</v>
       </c>
-      <c r="R25" s="22"/>
+      <c r="R25" s="88"/>
     </row>
     <row r="26" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="41"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="36"/>
+      <c r="A26" s="54"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="91"/>
       <c r="E26" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="F26" s="21" t="s">
+      <c r="F26" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="G26" s="29"/>
-      <c r="H26" s="22"/>
+      <c r="G26" s="87"/>
+      <c r="H26" s="88"/>
       <c r="I26" s="9"/>
-      <c r="J26" s="21" t="s">
+      <c r="J26" s="89" t="s">
         <v>100</v>
       </c>
-      <c r="K26" s="22"/>
-      <c r="L26" s="21" t="s">
+      <c r="K26" s="88"/>
+      <c r="L26" s="89" t="s">
         <v>107</v>
       </c>
-      <c r="M26" s="22"/>
-      <c r="N26" s="21" t="s">
+      <c r="M26" s="88"/>
+      <c r="N26" s="89" t="s">
         <v>112</v>
       </c>
-      <c r="O26" s="22"/>
+      <c r="O26" s="88"/>
       <c r="P26" s="7">
         <v>43360</v>
       </c>
-      <c r="Q26" s="21" t="s">
+      <c r="Q26" s="89" t="s">
         <v>91</v>
       </c>
-      <c r="R26" s="22"/>
+      <c r="R26" s="88"/>
     </row>
     <row r="27" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="42"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="39"/>
+      <c r="A27" s="55"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="92"/>
       <c r="E27" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="F27" s="21" t="s">
+      <c r="F27" s="89" t="s">
         <v>114</v>
       </c>
-      <c r="G27" s="29"/>
-      <c r="H27" s="22"/>
+      <c r="G27" s="87"/>
+      <c r="H27" s="88"/>
       <c r="I27" s="8"/>
-      <c r="J27" s="21" t="s">
+      <c r="J27" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="K27" s="22"/>
-      <c r="L27" s="21" t="s">
+      <c r="K27" s="88"/>
+      <c r="L27" s="89" t="s">
         <v>115</v>
       </c>
-      <c r="M27" s="22"/>
-      <c r="N27" s="21" t="s">
+      <c r="M27" s="88"/>
+      <c r="N27" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="O27" s="22"/>
+      <c r="O27" s="88"/>
       <c r="P27" s="7">
         <v>43360</v>
       </c>
-      <c r="Q27" s="21" t="s">
+      <c r="Q27" s="89" t="s">
         <v>48</v>
       </c>
-      <c r="R27" s="22"/>
+      <c r="R27" s="88"/>
     </row>
     <row r="28" spans="1:18" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="40" t="s">
+      <c r="A28" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="C28" s="30"/>
-      <c r="D28" s="24"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="90"/>
       <c r="E28" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="F28" s="21" t="s">
+      <c r="F28" s="89" t="s">
         <v>119</v>
       </c>
-      <c r="G28" s="29"/>
-      <c r="H28" s="22"/>
+      <c r="G28" s="87"/>
+      <c r="H28" s="88"/>
       <c r="I28" s="8"/>
-      <c r="J28" s="26" t="s">
+      <c r="J28" s="77" t="s">
         <v>120</v>
       </c>
-      <c r="K28" s="22"/>
-      <c r="L28" s="21" t="s">
+      <c r="K28" s="88"/>
+      <c r="L28" s="89" t="s">
         <v>121</v>
       </c>
-      <c r="M28" s="22"/>
-      <c r="N28" s="21" t="s">
+      <c r="M28" s="88"/>
+      <c r="N28" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="O28" s="22"/>
+      <c r="O28" s="88"/>
       <c r="P28" s="7">
         <v>43360</v>
       </c>
-      <c r="Q28" s="21" t="s">
+      <c r="Q28" s="89" t="s">
         <v>122</v>
       </c>
-      <c r="R28" s="22"/>
+      <c r="R28" s="88"/>
     </row>
     <row r="29" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="41"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="36"/>
+      <c r="A29" s="54"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="91"/>
       <c r="E29" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="F29" s="21" t="s">
+      <c r="F29" s="89" t="s">
         <v>124</v>
       </c>
-      <c r="G29" s="29"/>
-      <c r="H29" s="22"/>
+      <c r="G29" s="87"/>
+      <c r="H29" s="88"/>
       <c r="I29" s="8"/>
-      <c r="J29" s="21" t="s">
+      <c r="J29" s="89" t="s">
         <v>125</v>
       </c>
-      <c r="K29" s="22"/>
-      <c r="L29" s="21" t="s">
+      <c r="K29" s="88"/>
+      <c r="L29" s="89" t="s">
         <v>126</v>
       </c>
-      <c r="M29" s="22"/>
-      <c r="N29" s="21" t="s">
+      <c r="M29" s="88"/>
+      <c r="N29" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="O29" s="22"/>
+      <c r="O29" s="88"/>
       <c r="P29" s="7">
         <v>43360</v>
       </c>
-      <c r="Q29" s="21" t="s">
+      <c r="Q29" s="89" t="s">
         <v>127</v>
       </c>
-      <c r="R29" s="22"/>
+      <c r="R29" s="88"/>
     </row>
     <row r="30" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="42"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="39"/>
+      <c r="A30" s="55"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="92"/>
       <c r="E30" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="F30" s="21" t="s">
+      <c r="F30" s="89" t="s">
         <v>129</v>
       </c>
-      <c r="G30" s="29"/>
-      <c r="H30" s="22"/>
+      <c r="G30" s="87"/>
+      <c r="H30" s="88"/>
       <c r="I30" s="8"/>
-      <c r="J30" s="21" t="s">
+      <c r="J30" s="89" t="s">
         <v>130</v>
       </c>
-      <c r="K30" s="22"/>
-      <c r="L30" s="21" t="s">
+      <c r="K30" s="88"/>
+      <c r="L30" s="89" t="s">
         <v>121</v>
       </c>
-      <c r="M30" s="22"/>
-      <c r="N30" s="21" t="s">
+      <c r="M30" s="88"/>
+      <c r="N30" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="O30" s="22"/>
+      <c r="O30" s="88"/>
       <c r="P30" s="7">
         <v>43360</v>
       </c>
-      <c r="Q30" s="21" t="s">
+      <c r="Q30" s="89" t="s">
         <v>131</v>
       </c>
-      <c r="R30" s="22"/>
+      <c r="R30" s="88"/>
     </row>
     <row r="31" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="40" t="s">
+      <c r="A31" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="B31" s="34" t="s">
+      <c r="B31" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="C31" s="30"/>
-      <c r="D31" s="24"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="90"/>
       <c r="E31" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="F31" s="21" t="s">
+      <c r="F31" s="89" t="s">
         <v>135</v>
       </c>
-      <c r="G31" s="29"/>
-      <c r="H31" s="22"/>
+      <c r="G31" s="87"/>
+      <c r="H31" s="88"/>
       <c r="I31" s="8"/>
-      <c r="J31" s="21" t="s">
+      <c r="J31" s="89" t="s">
         <v>136</v>
       </c>
-      <c r="K31" s="22"/>
-      <c r="L31" s="21" t="s">
+      <c r="K31" s="88"/>
+      <c r="L31" s="89" t="s">
         <v>137</v>
       </c>
-      <c r="M31" s="22"/>
-      <c r="N31" s="21" t="s">
+      <c r="M31" s="88"/>
+      <c r="N31" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="O31" s="22"/>
+      <c r="O31" s="88"/>
       <c r="P31" s="7">
         <v>43360</v>
       </c>
-      <c r="Q31" s="21" t="s">
+      <c r="Q31" s="89" t="s">
         <v>138</v>
       </c>
-      <c r="R31" s="22"/>
+      <c r="R31" s="88"/>
     </row>
     <row r="32" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="42"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="39"/>
+      <c r="A32" s="55"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="92"/>
       <c r="E32" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="F32" s="21" t="s">
+      <c r="F32" s="89" t="s">
         <v>140</v>
       </c>
-      <c r="G32" s="29"/>
-      <c r="H32" s="22"/>
+      <c r="G32" s="87"/>
+      <c r="H32" s="88"/>
       <c r="I32" s="8"/>
-      <c r="J32" s="21" t="s">
+      <c r="J32" s="89" t="s">
         <v>141</v>
       </c>
-      <c r="K32" s="22"/>
-      <c r="L32" s="21" t="s">
+      <c r="K32" s="88"/>
+      <c r="L32" s="89" t="s">
         <v>137</v>
       </c>
-      <c r="M32" s="22"/>
-      <c r="N32" s="21" t="s">
+      <c r="M32" s="88"/>
+      <c r="N32" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="O32" s="22"/>
+      <c r="O32" s="88"/>
       <c r="P32" s="7">
         <v>43360</v>
       </c>
-      <c r="Q32" s="21" t="s">
+      <c r="Q32" s="89" t="s">
         <v>142</v>
       </c>
-      <c r="R32" s="22"/>
+      <c r="R32" s="88"/>
     </row>
     <row r="33" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="40" t="s">
+      <c r="A33" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="95" t="s">
         <v>144</v>
       </c>
-      <c r="C33" s="30"/>
-      <c r="D33" s="24"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="90"/>
       <c r="E33" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="F33" s="21" t="s">
+      <c r="F33" s="89" t="s">
         <v>146</v>
       </c>
-      <c r="G33" s="29"/>
-      <c r="H33" s="22"/>
+      <c r="G33" s="87"/>
+      <c r="H33" s="88"/>
       <c r="I33" s="8"/>
-      <c r="J33" s="21" t="s">
+      <c r="J33" s="89" t="s">
         <v>147</v>
       </c>
-      <c r="K33" s="22"/>
-      <c r="L33" s="21" t="s">
+      <c r="K33" s="88"/>
+      <c r="L33" s="89" t="s">
         <v>148</v>
       </c>
-      <c r="M33" s="22"/>
-      <c r="N33" s="21" t="s">
+      <c r="M33" s="88"/>
+      <c r="N33" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="O33" s="22"/>
+      <c r="O33" s="88"/>
       <c r="P33" s="7">
         <v>43360</v>
       </c>
-      <c r="Q33" s="21" t="s">
+      <c r="Q33" s="89" t="s">
         <v>149</v>
       </c>
-      <c r="R33" s="22"/>
+      <c r="R33" s="88"/>
     </row>
     <row r="34" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="41"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="36"/>
+      <c r="A34" s="54"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="91"/>
       <c r="E34" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="F34" s="21" t="s">
+      <c r="F34" s="89" t="s">
         <v>151</v>
       </c>
-      <c r="G34" s="29"/>
-      <c r="H34" s="22"/>
+      <c r="G34" s="87"/>
+      <c r="H34" s="88"/>
       <c r="I34" s="8"/>
-      <c r="J34" s="21" t="s">
+      <c r="J34" s="89" t="s">
         <v>152</v>
       </c>
-      <c r="K34" s="22"/>
-      <c r="L34" s="21" t="s">
+      <c r="K34" s="88"/>
+      <c r="L34" s="89" t="s">
         <v>148</v>
       </c>
-      <c r="M34" s="22"/>
-      <c r="N34" s="21" t="s">
+      <c r="M34" s="88"/>
+      <c r="N34" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="O34" s="22"/>
+      <c r="O34" s="88"/>
       <c r="P34" s="7">
         <v>43360</v>
       </c>
-      <c r="Q34" s="21" t="s">
+      <c r="Q34" s="89" t="s">
         <v>149</v>
       </c>
-      <c r="R34" s="22"/>
+      <c r="R34" s="88"/>
     </row>
     <row r="35" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="41"/>
-      <c r="B35" s="35"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="36"/>
+      <c r="A35" s="54"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="91"/>
       <c r="E35" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="F35" s="21" t="s">
+      <c r="F35" s="89" t="s">
         <v>154</v>
       </c>
-      <c r="G35" s="29"/>
-      <c r="H35" s="22"/>
+      <c r="G35" s="87"/>
+      <c r="H35" s="88"/>
       <c r="I35" s="8"/>
-      <c r="J35" s="21" t="s">
+      <c r="J35" s="89" t="s">
         <v>155</v>
       </c>
-      <c r="K35" s="22"/>
-      <c r="L35" s="21" t="s">
+      <c r="K35" s="88"/>
+      <c r="L35" s="89" t="s">
         <v>148</v>
       </c>
-      <c r="M35" s="22"/>
-      <c r="N35" s="21" t="s">
+      <c r="M35" s="88"/>
+      <c r="N35" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="O35" s="22"/>
+      <c r="O35" s="88"/>
       <c r="P35" s="7">
         <v>43360</v>
       </c>
-      <c r="Q35" s="21" t="s">
+      <c r="Q35" s="89" t="s">
         <v>156</v>
       </c>
-      <c r="R35" s="22"/>
+      <c r="R35" s="88"/>
     </row>
     <row r="36" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="41"/>
-      <c r="B36" s="35"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="36"/>
+      <c r="A36" s="54"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="91"/>
       <c r="E36" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="F36" s="21" t="s">
+      <c r="F36" s="89" t="s">
         <v>158</v>
       </c>
-      <c r="G36" s="29"/>
-      <c r="H36" s="22"/>
+      <c r="G36" s="87"/>
+      <c r="H36" s="88"/>
       <c r="I36" s="8"/>
-      <c r="J36" s="21" t="s">
+      <c r="J36" s="89" t="s">
         <v>155</v>
       </c>
-      <c r="K36" s="22"/>
-      <c r="L36" s="21" t="s">
+      <c r="K36" s="88"/>
+      <c r="L36" s="89" t="s">
         <v>339</v>
       </c>
-      <c r="M36" s="22"/>
-      <c r="N36" s="21" t="s">
+      <c r="M36" s="88"/>
+      <c r="N36" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="O36" s="22"/>
+      <c r="O36" s="88"/>
       <c r="P36" s="7">
         <v>43360</v>
       </c>
-      <c r="Q36" s="21" t="s">
+      <c r="Q36" s="89" t="s">
         <v>159</v>
       </c>
-      <c r="R36" s="22"/>
+      <c r="R36" s="88"/>
     </row>
     <row r="37" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="42"/>
-      <c r="B37" s="37"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="39"/>
+      <c r="A37" s="55"/>
+      <c r="B37" s="60"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="92"/>
       <c r="E37" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="F37" s="21" t="s">
+      <c r="F37" s="89" t="s">
         <v>161</v>
       </c>
-      <c r="G37" s="29"/>
-      <c r="H37" s="22"/>
+      <c r="G37" s="87"/>
+      <c r="H37" s="88"/>
       <c r="I37" s="8"/>
-      <c r="J37" s="21" t="s">
+      <c r="J37" s="89" t="s">
         <v>155</v>
       </c>
-      <c r="K37" s="22"/>
-      <c r="L37" s="21" t="s">
+      <c r="K37" s="88"/>
+      <c r="L37" s="89" t="s">
         <v>148</v>
       </c>
-      <c r="M37" s="22"/>
-      <c r="N37" s="21" t="s">
+      <c r="M37" s="88"/>
+      <c r="N37" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="O37" s="22"/>
+      <c r="O37" s="88"/>
       <c r="P37" s="7">
         <v>43360</v>
       </c>
-      <c r="Q37" s="21" t="s">
+      <c r="Q37" s="89" t="s">
         <v>162</v>
       </c>
-      <c r="R37" s="22"/>
+      <c r="R37" s="88"/>
     </row>
     <row r="38" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="B38" s="21" t="s">
+      <c r="B38" s="89" t="s">
         <v>164</v>
       </c>
-      <c r="C38" s="29"/>
-      <c r="D38" s="22"/>
+      <c r="C38" s="87"/>
+      <c r="D38" s="88"/>
       <c r="E38" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="F38" s="21" t="s">
+      <c r="F38" s="89" t="s">
         <v>166</v>
       </c>
-      <c r="G38" s="29"/>
-      <c r="H38" s="22"/>
+      <c r="G38" s="87"/>
+      <c r="H38" s="88"/>
       <c r="I38" s="8"/>
-      <c r="J38" s="21" t="s">
+      <c r="J38" s="89" t="s">
         <v>167</v>
       </c>
-      <c r="K38" s="22"/>
-      <c r="L38" s="21" t="s">
+      <c r="K38" s="88"/>
+      <c r="L38" s="89" t="s">
         <v>168</v>
       </c>
-      <c r="M38" s="22"/>
-      <c r="N38" s="21" t="s">
+      <c r="M38" s="88"/>
+      <c r="N38" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="O38" s="22"/>
+      <c r="O38" s="88"/>
       <c r="P38" s="7">
         <v>43360</v>
       </c>
-      <c r="Q38" s="21" t="s">
+      <c r="Q38" s="89" t="s">
         <v>169</v>
       </c>
-      <c r="R38" s="22"/>
+      <c r="R38" s="88"/>
     </row>
     <row r="39" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="40" t="s">
+      <c r="A39" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="B39" s="34" t="s">
+      <c r="B39" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="C39" s="30"/>
-      <c r="D39" s="24"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="90"/>
       <c r="E39" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="F39" s="21" t="s">
+      <c r="F39" s="89" t="s">
         <v>173</v>
       </c>
-      <c r="G39" s="29"/>
-      <c r="H39" s="22"/>
+      <c r="G39" s="87"/>
+      <c r="H39" s="88"/>
       <c r="I39" s="8"/>
-      <c r="J39" s="21" t="s">
+      <c r="J39" s="89" t="s">
         <v>174</v>
       </c>
-      <c r="K39" s="22"/>
-      <c r="L39" s="21" t="s">
+      <c r="K39" s="88"/>
+      <c r="L39" s="89" t="s">
         <v>175</v>
       </c>
-      <c r="M39" s="22"/>
-      <c r="N39" s="21" t="s">
+      <c r="M39" s="88"/>
+      <c r="N39" s="89" t="s">
         <v>176</v>
       </c>
-      <c r="O39" s="22"/>
+      <c r="O39" s="88"/>
       <c r="P39" s="7">
         <v>43360</v>
       </c>
-      <c r="Q39" s="21" t="s">
+      <c r="Q39" s="89" t="s">
         <v>177</v>
       </c>
-      <c r="R39" s="22"/>
+      <c r="R39" s="88"/>
     </row>
     <row r="40" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="41"/>
-      <c r="B40" s="35"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="36"/>
+      <c r="A40" s="54"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="91"/>
       <c r="E40" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="F40" s="21" t="s">
+      <c r="F40" s="89" t="s">
         <v>179</v>
       </c>
-      <c r="G40" s="29"/>
-      <c r="H40" s="22"/>
+      <c r="G40" s="87"/>
+      <c r="H40" s="88"/>
       <c r="I40" s="8"/>
-      <c r="J40" s="21" t="s">
+      <c r="J40" s="89" t="s">
         <v>180</v>
       </c>
-      <c r="K40" s="22"/>
-      <c r="L40" s="21" t="s">
+      <c r="K40" s="88"/>
+      <c r="L40" s="89" t="s">
         <v>181</v>
       </c>
-      <c r="M40" s="22"/>
-      <c r="N40" s="21" t="s">
+      <c r="M40" s="88"/>
+      <c r="N40" s="89" t="s">
         <v>182</v>
       </c>
-      <c r="O40" s="22"/>
+      <c r="O40" s="88"/>
       <c r="P40" s="7">
         <v>43360</v>
       </c>
-      <c r="Q40" s="21" t="s">
+      <c r="Q40" s="89" t="s">
         <v>183</v>
       </c>
-      <c r="R40" s="22"/>
+      <c r="R40" s="88"/>
     </row>
     <row r="41" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="41"/>
-      <c r="B41" s="35"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="36"/>
+      <c r="A41" s="54"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="58"/>
+      <c r="D41" s="91"/>
       <c r="E41" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="F41" s="21" t="s">
+      <c r="F41" s="89" t="s">
         <v>185</v>
       </c>
-      <c r="G41" s="29"/>
-      <c r="H41" s="22"/>
+      <c r="G41" s="87"/>
+      <c r="H41" s="88"/>
       <c r="I41" s="8"/>
-      <c r="J41" s="21" t="s">
+      <c r="J41" s="89" t="s">
         <v>174</v>
       </c>
-      <c r="K41" s="22"/>
-      <c r="L41" s="21" t="s">
+      <c r="K41" s="88"/>
+      <c r="L41" s="89" t="s">
         <v>186</v>
       </c>
-      <c r="M41" s="22"/>
-      <c r="N41" s="21" t="s">
+      <c r="M41" s="88"/>
+      <c r="N41" s="89" t="s">
         <v>187</v>
       </c>
-      <c r="O41" s="22"/>
+      <c r="O41" s="88"/>
       <c r="P41" s="7">
         <v>43360</v>
       </c>
-      <c r="Q41" s="21" t="s">
+      <c r="Q41" s="89" t="s">
         <v>188</v>
       </c>
-      <c r="R41" s="22"/>
+      <c r="R41" s="88"/>
     </row>
     <row r="42" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="42"/>
-      <c r="B42" s="37"/>
-      <c r="C42" s="38"/>
-      <c r="D42" s="39"/>
+      <c r="A42" s="55"/>
+      <c r="B42" s="60"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="92"/>
       <c r="E42" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="F42" s="21" t="s">
+      <c r="F42" s="89" t="s">
         <v>190</v>
       </c>
-      <c r="G42" s="29"/>
-      <c r="H42" s="22"/>
+      <c r="G42" s="87"/>
+      <c r="H42" s="88"/>
       <c r="I42" s="8"/>
-      <c r="J42" s="21" t="s">
+      <c r="J42" s="89" t="s">
         <v>180</v>
       </c>
-      <c r="K42" s="22"/>
-      <c r="L42" s="21" t="s">
+      <c r="K42" s="88"/>
+      <c r="L42" s="89" t="s">
         <v>191</v>
       </c>
-      <c r="M42" s="22"/>
-      <c r="N42" s="21" t="s">
+      <c r="M42" s="88"/>
+      <c r="N42" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="O42" s="22"/>
+      <c r="O42" s="88"/>
       <c r="P42" s="7">
         <v>43360</v>
       </c>
-      <c r="Q42" s="21" t="s">
+      <c r="Q42" s="89" t="s">
         <v>343</v>
       </c>
-      <c r="R42" s="22"/>
+      <c r="R42" s="88"/>
     </row>
     <row r="43" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="40" t="s">
+      <c r="A43" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="B43" s="34" t="s">
+      <c r="B43" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="C43" s="30"/>
-      <c r="D43" s="24"/>
+      <c r="C43" s="56"/>
+      <c r="D43" s="90"/>
       <c r="E43" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="F43" s="21" t="s">
+      <c r="F43" s="89" t="s">
         <v>196</v>
       </c>
-      <c r="G43" s="29"/>
-      <c r="H43" s="22"/>
+      <c r="G43" s="87"/>
+      <c r="H43" s="88"/>
       <c r="I43" s="8"/>
-      <c r="J43" s="21" t="s">
+      <c r="J43" s="89" t="s">
         <v>197</v>
       </c>
-      <c r="K43" s="22"/>
-      <c r="L43" s="21" t="s">
+      <c r="K43" s="88"/>
+      <c r="L43" s="89" t="s">
         <v>198</v>
       </c>
-      <c r="M43" s="22"/>
-      <c r="N43" s="21" t="s">
+      <c r="M43" s="88"/>
+      <c r="N43" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="O43" s="22"/>
+      <c r="O43" s="88"/>
       <c r="P43" s="7">
         <v>43360</v>
       </c>
-      <c r="Q43" s="21" t="s">
+      <c r="Q43" s="89" t="s">
         <v>199</v>
       </c>
-      <c r="R43" s="22"/>
+      <c r="R43" s="88"/>
     </row>
     <row r="44" spans="1:18" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="41"/>
-      <c r="B44" s="35"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="36"/>
+      <c r="A44" s="54"/>
+      <c r="B44" s="57"/>
+      <c r="C44" s="58"/>
+      <c r="D44" s="91"/>
       <c r="E44" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="F44" s="21" t="s">
+      <c r="F44" s="89" t="s">
         <v>201</v>
       </c>
-      <c r="G44" s="29"/>
-      <c r="H44" s="22"/>
+      <c r="G44" s="87"/>
+      <c r="H44" s="88"/>
       <c r="I44" s="8"/>
-      <c r="J44" s="21" t="s">
+      <c r="J44" s="89" t="s">
         <v>202</v>
       </c>
-      <c r="K44" s="22"/>
-      <c r="L44" s="21" t="s">
+      <c r="K44" s="88"/>
+      <c r="L44" s="89" t="s">
         <v>198</v>
       </c>
-      <c r="M44" s="22"/>
-      <c r="N44" s="21" t="s">
+      <c r="M44" s="88"/>
+      <c r="N44" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="O44" s="22"/>
+      <c r="O44" s="88"/>
       <c r="P44" s="7">
         <v>43360</v>
       </c>
-      <c r="Q44" s="21" t="s">
+      <c r="Q44" s="89" t="s">
         <v>203</v>
       </c>
-      <c r="R44" s="22"/>
+      <c r="R44" s="88"/>
     </row>
     <row r="45" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="42"/>
-      <c r="B45" s="37"/>
-      <c r="C45" s="38"/>
-      <c r="D45" s="39"/>
+      <c r="A45" s="55"/>
+      <c r="B45" s="60"/>
+      <c r="C45" s="61"/>
+      <c r="D45" s="92"/>
       <c r="E45" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="F45" s="21" t="s">
+      <c r="F45" s="89" t="s">
         <v>205</v>
       </c>
-      <c r="G45" s="29"/>
-      <c r="H45" s="22"/>
+      <c r="G45" s="87"/>
+      <c r="H45" s="88"/>
       <c r="I45" s="8"/>
-      <c r="J45" s="21" t="s">
+      <c r="J45" s="89" t="s">
         <v>206</v>
       </c>
-      <c r="K45" s="22"/>
-      <c r="L45" s="21" t="s">
+      <c r="K45" s="88"/>
+      <c r="L45" s="89" t="s">
         <v>198</v>
       </c>
-      <c r="M45" s="22"/>
-      <c r="N45" s="21" t="s">
+      <c r="M45" s="88"/>
+      <c r="N45" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="O45" s="22"/>
+      <c r="O45" s="88"/>
       <c r="P45" s="7">
         <v>43360</v>
       </c>
-      <c r="Q45" s="21" t="s">
+      <c r="Q45" s="89" t="s">
         <v>207</v>
       </c>
-      <c r="R45" s="22"/>
+      <c r="R45" s="88"/>
     </row>
     <row r="46" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="40" t="s">
+      <c r="A46" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="B46" s="34" t="s">
+      <c r="B46" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="C46" s="30"/>
-      <c r="D46" s="24"/>
+      <c r="C46" s="56"/>
+      <c r="D46" s="90"/>
       <c r="E46" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="F46" s="21" t="s">
+      <c r="F46" s="89" t="s">
         <v>211</v>
       </c>
-      <c r="G46" s="29"/>
-      <c r="H46" s="22"/>
+      <c r="G46" s="87"/>
+      <c r="H46" s="88"/>
       <c r="I46" s="8"/>
-      <c r="J46" s="21" t="s">
+      <c r="J46" s="89" t="s">
         <v>212</v>
       </c>
-      <c r="K46" s="22"/>
-      <c r="L46" s="21" t="s">
+      <c r="K46" s="88"/>
+      <c r="L46" s="89" t="s">
         <v>213</v>
       </c>
-      <c r="M46" s="22"/>
-      <c r="N46" s="21" t="s">
+      <c r="M46" s="88"/>
+      <c r="N46" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="O46" s="22"/>
+      <c r="O46" s="88"/>
       <c r="P46" s="7">
         <v>43360</v>
       </c>
-      <c r="Q46" s="21" t="s">
+      <c r="Q46" s="89" t="s">
         <v>214</v>
       </c>
-      <c r="R46" s="22"/>
+      <c r="R46" s="88"/>
     </row>
     <row r="47" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="42"/>
-      <c r="B47" s="37"/>
-      <c r="C47" s="38"/>
-      <c r="D47" s="39"/>
+      <c r="A47" s="55"/>
+      <c r="B47" s="60"/>
+      <c r="C47" s="61"/>
+      <c r="D47" s="92"/>
       <c r="E47" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="F47" s="21" t="s">
+      <c r="F47" s="89" t="s">
         <v>216</v>
       </c>
-      <c r="G47" s="29"/>
-      <c r="H47" s="22"/>
+      <c r="G47" s="87"/>
+      <c r="H47" s="88"/>
       <c r="I47" s="8"/>
-      <c r="J47" s="21" t="s">
+      <c r="J47" s="89" t="s">
         <v>217</v>
       </c>
-      <c r="K47" s="22"/>
-      <c r="L47" s="21" t="s">
+      <c r="K47" s="88"/>
+      <c r="L47" s="89" t="s">
         <v>218</v>
       </c>
-      <c r="M47" s="22"/>
-      <c r="N47" s="21" t="s">
+      <c r="M47" s="88"/>
+      <c r="N47" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="O47" s="22"/>
+      <c r="O47" s="88"/>
       <c r="P47" s="7">
         <v>43360</v>
       </c>
-      <c r="Q47" s="21" t="s">
+      <c r="Q47" s="89" t="s">
         <v>192</v>
       </c>
-      <c r="R47" s="22"/>
+      <c r="R47" s="88"/>
     </row>
     <row r="48" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="40" t="s">
+      <c r="A48" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="B48" s="34" t="s">
+      <c r="B48" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="C48" s="30"/>
-      <c r="D48" s="24"/>
+      <c r="C48" s="56"/>
+      <c r="D48" s="90"/>
       <c r="E48" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="F48" s="21" t="s">
+      <c r="F48" s="89" t="s">
         <v>222</v>
       </c>
-      <c r="G48" s="29"/>
-      <c r="H48" s="22"/>
+      <c r="G48" s="87"/>
+      <c r="H48" s="88"/>
       <c r="I48" s="8"/>
-      <c r="J48" s="21" t="s">
+      <c r="J48" s="89" t="s">
         <v>223</v>
       </c>
-      <c r="K48" s="22"/>
-      <c r="L48" s="21" t="s">
+      <c r="K48" s="88"/>
+      <c r="L48" s="89" t="s">
         <v>224</v>
       </c>
-      <c r="M48" s="22"/>
-      <c r="N48" s="21" t="s">
+      <c r="M48" s="88"/>
+      <c r="N48" s="89" t="s">
         <v>225</v>
       </c>
-      <c r="O48" s="22"/>
+      <c r="O48" s="88"/>
       <c r="P48" s="7">
         <v>43360</v>
       </c>
-      <c r="Q48" s="21" t="s">
+      <c r="Q48" s="89" t="s">
         <v>226</v>
       </c>
-      <c r="R48" s="22"/>
+      <c r="R48" s="88"/>
     </row>
     <row r="49" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="41"/>
-      <c r="B49" s="35"/>
-      <c r="C49" s="32"/>
-      <c r="D49" s="36"/>
+      <c r="A49" s="54"/>
+      <c r="B49" s="57"/>
+      <c r="C49" s="58"/>
+      <c r="D49" s="91"/>
       <c r="E49" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="F49" s="21" t="s">
+      <c r="F49" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="G49" s="29"/>
-      <c r="H49" s="22"/>
+      <c r="G49" s="87"/>
+      <c r="H49" s="88"/>
       <c r="I49" s="8"/>
-      <c r="J49" s="21" t="s">
+      <c r="J49" s="89" t="s">
         <v>228</v>
       </c>
-      <c r="K49" s="22"/>
-      <c r="L49" s="21" t="s">
+      <c r="K49" s="88"/>
+      <c r="L49" s="89" t="s">
         <v>229</v>
       </c>
-      <c r="M49" s="22"/>
-      <c r="N49" s="21" t="s">
+      <c r="M49" s="88"/>
+      <c r="N49" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="O49" s="22"/>
+      <c r="O49" s="88"/>
       <c r="P49" s="7">
         <v>43360</v>
       </c>
-      <c r="Q49" s="21" t="s">
+      <c r="Q49" s="89" t="s">
         <v>230</v>
       </c>
-      <c r="R49" s="22"/>
+      <c r="R49" s="88"/>
     </row>
     <row r="50" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="41"/>
-      <c r="B50" s="35"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="36"/>
+      <c r="A50" s="54"/>
+      <c r="B50" s="57"/>
+      <c r="C50" s="58"/>
+      <c r="D50" s="91"/>
       <c r="E50" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="F50" s="21" t="s">
+      <c r="F50" s="89" t="s">
         <v>232</v>
       </c>
-      <c r="G50" s="29"/>
-      <c r="H50" s="22"/>
+      <c r="G50" s="87"/>
+      <c r="H50" s="88"/>
       <c r="I50" s="8"/>
-      <c r="J50" s="21" t="s">
+      <c r="J50" s="89" t="s">
         <v>228</v>
       </c>
-      <c r="K50" s="22"/>
-      <c r="L50" s="21" t="s">
+      <c r="K50" s="88"/>
+      <c r="L50" s="89" t="s">
         <v>233</v>
       </c>
-      <c r="M50" s="22"/>
-      <c r="N50" s="21" t="s">
+      <c r="M50" s="88"/>
+      <c r="N50" s="89" t="s">
         <v>234</v>
       </c>
-      <c r="O50" s="22"/>
+      <c r="O50" s="88"/>
       <c r="P50" s="7">
         <v>43360</v>
       </c>
-      <c r="Q50" s="21" t="s">
+      <c r="Q50" s="89" t="s">
         <v>235</v>
       </c>
-      <c r="R50" s="22"/>
+      <c r="R50" s="88"/>
     </row>
     <row r="51" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="41"/>
-      <c r="B51" s="35"/>
-      <c r="C51" s="32"/>
-      <c r="D51" s="36"/>
+      <c r="A51" s="54"/>
+      <c r="B51" s="57"/>
+      <c r="C51" s="58"/>
+      <c r="D51" s="91"/>
       <c r="E51" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="F51" s="21" t="s">
+      <c r="F51" s="89" t="s">
         <v>237</v>
       </c>
-      <c r="G51" s="29"/>
-      <c r="H51" s="22"/>
+      <c r="G51" s="87"/>
+      <c r="H51" s="88"/>
       <c r="I51" s="8"/>
-      <c r="J51" s="21" t="s">
+      <c r="J51" s="89" t="s">
         <v>228</v>
       </c>
-      <c r="K51" s="22"/>
-      <c r="L51" s="21" t="s">
+      <c r="K51" s="88"/>
+      <c r="L51" s="89" t="s">
         <v>238</v>
       </c>
-      <c r="M51" s="22"/>
-      <c r="N51" s="21" t="s">
+      <c r="M51" s="88"/>
+      <c r="N51" s="89" t="s">
         <v>239</v>
       </c>
-      <c r="O51" s="22"/>
+      <c r="O51" s="88"/>
       <c r="P51" s="7">
         <v>43360</v>
       </c>
-      <c r="Q51" s="21" t="s">
+      <c r="Q51" s="89" t="s">
         <v>240</v>
       </c>
-      <c r="R51" s="22"/>
+      <c r="R51" s="88"/>
     </row>
     <row r="52" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="41"/>
-      <c r="B52" s="35"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="36"/>
+      <c r="A52" s="54"/>
+      <c r="B52" s="57"/>
+      <c r="C52" s="58"/>
+      <c r="D52" s="91"/>
       <c r="E52" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="F52" s="21" t="s">
+      <c r="F52" s="89" t="s">
         <v>242</v>
       </c>
-      <c r="G52" s="29"/>
-      <c r="H52" s="22"/>
+      <c r="G52" s="87"/>
+      <c r="H52" s="88"/>
       <c r="I52" s="8"/>
-      <c r="J52" s="21" t="s">
+      <c r="J52" s="89" t="s">
         <v>228</v>
       </c>
-      <c r="K52" s="22"/>
-      <c r="L52" s="21" t="s">
+      <c r="K52" s="88"/>
+      <c r="L52" s="89" t="s">
         <v>243</v>
       </c>
-      <c r="M52" s="22"/>
-      <c r="N52" s="21" t="s">
+      <c r="M52" s="88"/>
+      <c r="N52" s="89" t="s">
         <v>244</v>
       </c>
-      <c r="O52" s="22"/>
+      <c r="O52" s="88"/>
       <c r="P52" s="7">
         <v>43360</v>
       </c>
-      <c r="Q52" s="21" t="s">
+      <c r="Q52" s="89" t="s">
         <v>245</v>
       </c>
-      <c r="R52" s="22"/>
+      <c r="R52" s="88"/>
     </row>
     <row r="53" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="42"/>
-      <c r="B53" s="37"/>
-      <c r="C53" s="38"/>
-      <c r="D53" s="39"/>
+      <c r="A53" s="55"/>
+      <c r="B53" s="60"/>
+      <c r="C53" s="61"/>
+      <c r="D53" s="92"/>
       <c r="E53" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="F53" s="21" t="s">
+      <c r="F53" s="89" t="s">
         <v>247</v>
       </c>
-      <c r="G53" s="29"/>
-      <c r="H53" s="22"/>
+      <c r="G53" s="87"/>
+      <c r="H53" s="88"/>
       <c r="I53" s="8"/>
-      <c r="J53" s="21" t="s">
+      <c r="J53" s="89" t="s">
         <v>228</v>
       </c>
-      <c r="K53" s="22"/>
-      <c r="L53" s="21" t="s">
+      <c r="K53" s="88"/>
+      <c r="L53" s="89" t="s">
         <v>248</v>
       </c>
-      <c r="M53" s="22"/>
-      <c r="N53" s="21" t="s">
+      <c r="M53" s="88"/>
+      <c r="N53" s="89" t="s">
         <v>249</v>
       </c>
-      <c r="O53" s="22"/>
+      <c r="O53" s="88"/>
       <c r="P53" s="7">
         <v>43360</v>
       </c>
-      <c r="Q53" s="21" t="s">
+      <c r="Q53" s="89" t="s">
         <v>250</v>
       </c>
-      <c r="R53" s="22"/>
+      <c r="R53" s="88"/>
     </row>
     <row r="54" spans="1:18" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="40" t="s">
+      <c r="A54" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="B54" s="34" t="s">
+      <c r="B54" s="23" t="s">
         <v>252</v>
       </c>
-      <c r="C54" s="30"/>
-      <c r="D54" s="24"/>
+      <c r="C54" s="56"/>
+      <c r="D54" s="90"/>
       <c r="E54" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="F54" s="21" t="s">
+      <c r="F54" s="89" t="s">
         <v>254</v>
       </c>
-      <c r="G54" s="29"/>
-      <c r="H54" s="22"/>
+      <c r="G54" s="87"/>
+      <c r="H54" s="88"/>
       <c r="I54" s="8"/>
-      <c r="J54" s="21" t="s">
+      <c r="J54" s="89" t="s">
         <v>255</v>
       </c>
-      <c r="K54" s="22"/>
-      <c r="L54" s="21" t="s">
+      <c r="K54" s="88"/>
+      <c r="L54" s="89" t="s">
         <v>256</v>
       </c>
-      <c r="M54" s="22"/>
-      <c r="N54" s="21" t="s">
+      <c r="M54" s="88"/>
+      <c r="N54" s="89" t="s">
         <v>257</v>
       </c>
-      <c r="O54" s="22"/>
+      <c r="O54" s="88"/>
       <c r="P54" s="7">
         <v>43360</v>
       </c>
-      <c r="Q54" s="21" t="s">
+      <c r="Q54" s="89" t="s">
         <v>258</v>
       </c>
-      <c r="R54" s="22"/>
+      <c r="R54" s="88"/>
     </row>
     <row r="55" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="41"/>
-      <c r="B55" s="35"/>
-      <c r="C55" s="32"/>
-      <c r="D55" s="36"/>
+      <c r="A55" s="54"/>
+      <c r="B55" s="57"/>
+      <c r="C55" s="58"/>
+      <c r="D55" s="91"/>
       <c r="E55" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="F55" s="21" t="s">
+      <c r="F55" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="G55" s="29"/>
-      <c r="H55" s="22"/>
+      <c r="G55" s="87"/>
+      <c r="H55" s="88"/>
       <c r="I55" s="8"/>
-      <c r="J55" s="21" t="s">
+      <c r="J55" s="89" t="s">
         <v>255</v>
       </c>
-      <c r="K55" s="22"/>
-      <c r="L55" s="21" t="s">
+      <c r="K55" s="88"/>
+      <c r="L55" s="89" t="s">
         <v>260</v>
       </c>
-      <c r="M55" s="22"/>
-      <c r="N55" s="21" t="s">
+      <c r="M55" s="88"/>
+      <c r="N55" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="O55" s="22"/>
+      <c r="O55" s="88"/>
       <c r="P55" s="7">
         <v>43360</v>
       </c>
-      <c r="Q55" s="21" t="s">
+      <c r="Q55" s="89" t="s">
         <v>340</v>
       </c>
-      <c r="R55" s="22"/>
+      <c r="R55" s="88"/>
     </row>
     <row r="56" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="41"/>
-      <c r="B56" s="35"/>
-      <c r="C56" s="32"/>
-      <c r="D56" s="36"/>
+      <c r="A56" s="54"/>
+      <c r="B56" s="57"/>
+      <c r="C56" s="58"/>
+      <c r="D56" s="91"/>
       <c r="E56" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="F56" s="21" t="s">
+      <c r="F56" s="89" t="s">
         <v>232</v>
       </c>
-      <c r="G56" s="29"/>
-      <c r="H56" s="22"/>
+      <c r="G56" s="87"/>
+      <c r="H56" s="88"/>
       <c r="I56" s="8"/>
-      <c r="J56" s="21" t="s">
+      <c r="J56" s="89" t="s">
         <v>255</v>
       </c>
-      <c r="K56" s="22"/>
-      <c r="L56" s="21" t="s">
+      <c r="K56" s="88"/>
+      <c r="L56" s="89" t="s">
         <v>262</v>
       </c>
-      <c r="M56" s="22"/>
-      <c r="N56" s="21" t="s">
+      <c r="M56" s="88"/>
+      <c r="N56" s="89" t="s">
         <v>263</v>
       </c>
-      <c r="O56" s="22"/>
+      <c r="O56" s="88"/>
       <c r="P56" s="7">
         <v>43360</v>
       </c>
-      <c r="Q56" s="21" t="s">
+      <c r="Q56" s="89" t="s">
         <v>235</v>
       </c>
-      <c r="R56" s="22"/>
+      <c r="R56" s="88"/>
     </row>
     <row r="57" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="41"/>
-      <c r="B57" s="35"/>
-      <c r="C57" s="32"/>
-      <c r="D57" s="36"/>
+      <c r="A57" s="54"/>
+      <c r="B57" s="57"/>
+      <c r="C57" s="58"/>
+      <c r="D57" s="91"/>
       <c r="E57" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="F57" s="21" t="s">
+      <c r="F57" s="89" t="s">
         <v>237</v>
       </c>
-      <c r="G57" s="29"/>
-      <c r="H57" s="22"/>
+      <c r="G57" s="87"/>
+      <c r="H57" s="88"/>
       <c r="I57" s="8"/>
-      <c r="J57" s="21" t="s">
+      <c r="J57" s="89" t="s">
         <v>255</v>
       </c>
-      <c r="K57" s="22"/>
-      <c r="L57" s="21" t="s">
+      <c r="K57" s="88"/>
+      <c r="L57" s="89" t="s">
         <v>265</v>
       </c>
-      <c r="M57" s="22"/>
-      <c r="N57" s="21" t="s">
+      <c r="M57" s="88"/>
+      <c r="N57" s="89" t="s">
         <v>266</v>
       </c>
-      <c r="O57" s="22"/>
+      <c r="O57" s="88"/>
       <c r="P57" s="7">
         <v>43360</v>
       </c>
-      <c r="Q57" s="21" t="s">
+      <c r="Q57" s="89" t="s">
         <v>240</v>
       </c>
-      <c r="R57" s="22"/>
+      <c r="R57" s="88"/>
     </row>
     <row r="58" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="41"/>
-      <c r="B58" s="35"/>
-      <c r="C58" s="32"/>
-      <c r="D58" s="36"/>
+      <c r="A58" s="54"/>
+      <c r="B58" s="57"/>
+      <c r="C58" s="58"/>
+      <c r="D58" s="91"/>
       <c r="E58" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="F58" s="21" t="s">
+      <c r="F58" s="89" t="s">
         <v>242</v>
       </c>
-      <c r="G58" s="29"/>
-      <c r="H58" s="22"/>
+      <c r="G58" s="87"/>
+      <c r="H58" s="88"/>
       <c r="I58" s="8"/>
-      <c r="J58" s="21" t="s">
+      <c r="J58" s="89" t="s">
         <v>255</v>
       </c>
-      <c r="K58" s="22"/>
-      <c r="L58" s="21" t="s">
+      <c r="K58" s="88"/>
+      <c r="L58" s="89" t="s">
         <v>268</v>
       </c>
-      <c r="M58" s="22"/>
-      <c r="N58" s="21" t="s">
+      <c r="M58" s="88"/>
+      <c r="N58" s="89" t="s">
         <v>269</v>
       </c>
-      <c r="O58" s="22"/>
+      <c r="O58" s="88"/>
       <c r="P58" s="7">
         <v>43360</v>
       </c>
-      <c r="Q58" s="21" t="s">
+      <c r="Q58" s="89" t="s">
         <v>344</v>
       </c>
-      <c r="R58" s="22"/>
+      <c r="R58" s="88"/>
     </row>
     <row r="59" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A59" s="42"/>
-      <c r="B59" s="37"/>
-      <c r="C59" s="38"/>
-      <c r="D59" s="39"/>
+      <c r="A59" s="55"/>
+      <c r="B59" s="60"/>
+      <c r="C59" s="61"/>
+      <c r="D59" s="92"/>
       <c r="E59" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="F59" s="21" t="s">
+      <c r="F59" s="89" t="s">
         <v>271</v>
       </c>
-      <c r="G59" s="29"/>
-      <c r="H59" s="22"/>
+      <c r="G59" s="87"/>
+      <c r="H59" s="88"/>
       <c r="I59" s="8"/>
-      <c r="J59" s="21" t="s">
+      <c r="J59" s="89" t="s">
         <v>255</v>
       </c>
-      <c r="K59" s="22"/>
-      <c r="L59" s="21" t="s">
+      <c r="K59" s="88"/>
+      <c r="L59" s="89" t="s">
         <v>268</v>
       </c>
-      <c r="M59" s="22"/>
-      <c r="N59" s="21" t="s">
+      <c r="M59" s="88"/>
+      <c r="N59" s="89" t="s">
         <v>272</v>
       </c>
-      <c r="O59" s="22"/>
+      <c r="O59" s="88"/>
       <c r="P59" s="7">
         <v>43360</v>
       </c>
-      <c r="Q59" s="21" t="s">
+      <c r="Q59" s="89" t="s">
         <v>258</v>
       </c>
-      <c r="R59" s="22"/>
+      <c r="R59" s="88"/>
     </row>
     <row r="60" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="B60" s="33" t="s">
+      <c r="B60" s="100" t="s">
         <v>274</v>
       </c>
-      <c r="C60" s="29"/>
-      <c r="D60" s="22"/>
+      <c r="C60" s="87"/>
+      <c r="D60" s="88"/>
       <c r="E60" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="F60" s="31" t="s">
+      <c r="F60" s="101" t="s">
         <v>276</v>
       </c>
-      <c r="G60" s="32"/>
-      <c r="H60" s="32"/>
+      <c r="G60" s="58"/>
+      <c r="H60" s="58"/>
       <c r="I60" s="8"/>
-      <c r="J60" s="21" t="s">
+      <c r="J60" s="89" t="s">
         <v>255</v>
       </c>
-      <c r="K60" s="22"/>
-      <c r="L60" s="21" t="s">
+      <c r="K60" s="88"/>
+      <c r="L60" s="89" t="s">
         <v>277</v>
       </c>
-      <c r="M60" s="22"/>
-      <c r="N60" s="21" t="s">
+      <c r="M60" s="88"/>
+      <c r="N60" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="O60" s="22"/>
+      <c r="O60" s="88"/>
       <c r="P60" s="7">
         <v>43360</v>
       </c>
-      <c r="Q60" s="21" t="s">
+      <c r="Q60" s="89" t="s">
         <v>258</v>
       </c>
-      <c r="R60" s="22"/>
+      <c r="R60" s="88"/>
     </row>
     <row r="61" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A61" s="40" t="s">
+      <c r="A61" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="B61" s="34" t="s">
+      <c r="B61" s="23" t="s">
         <v>279</v>
       </c>
-      <c r="C61" s="30"/>
-      <c r="D61" s="24"/>
+      <c r="C61" s="56"/>
+      <c r="D61" s="90"/>
       <c r="E61" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="F61" s="21" t="s">
+      <c r="F61" s="89" t="s">
         <v>281</v>
       </c>
-      <c r="G61" s="29"/>
-      <c r="H61" s="22"/>
+      <c r="G61" s="87"/>
+      <c r="H61" s="88"/>
       <c r="I61" s="8"/>
-      <c r="J61" s="21" t="s">
+      <c r="J61" s="89" t="s">
         <v>282</v>
       </c>
-      <c r="K61" s="22"/>
-      <c r="L61" s="21" t="s">
+      <c r="K61" s="88"/>
+      <c r="L61" s="89" t="s">
         <v>283</v>
       </c>
-      <c r="M61" s="22"/>
-      <c r="N61" s="21" t="s">
+      <c r="M61" s="88"/>
+      <c r="N61" s="89" t="s">
         <v>284</v>
       </c>
-      <c r="O61" s="22"/>
+      <c r="O61" s="88"/>
       <c r="P61" s="7">
         <v>43360</v>
       </c>
-      <c r="Q61" s="21" t="s">
+      <c r="Q61" s="89" t="s">
         <v>285</v>
       </c>
-      <c r="R61" s="22"/>
+      <c r="R61" s="88"/>
     </row>
     <row r="62" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A62" s="41"/>
-      <c r="B62" s="35"/>
-      <c r="C62" s="32"/>
-      <c r="D62" s="36"/>
+      <c r="A62" s="54"/>
+      <c r="B62" s="57"/>
+      <c r="C62" s="58"/>
+      <c r="D62" s="91"/>
       <c r="E62" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="F62" s="21" t="s">
+      <c r="F62" s="89" t="s">
         <v>287</v>
       </c>
-      <c r="G62" s="29"/>
-      <c r="H62" s="22"/>
+      <c r="G62" s="87"/>
+      <c r="H62" s="88"/>
       <c r="I62" s="8"/>
-      <c r="J62" s="21" t="s">
+      <c r="J62" s="89" t="s">
         <v>282</v>
       </c>
-      <c r="K62" s="22"/>
-      <c r="L62" s="21" t="s">
+      <c r="K62" s="88"/>
+      <c r="L62" s="89" t="s">
         <v>288</v>
       </c>
-      <c r="M62" s="22"/>
-      <c r="N62" s="21" t="s">
+      <c r="M62" s="88"/>
+      <c r="N62" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="O62" s="22"/>
+      <c r="O62" s="88"/>
       <c r="P62" s="7">
         <v>43360</v>
       </c>
-      <c r="Q62" s="21" t="s">
+      <c r="Q62" s="89" t="s">
         <v>289</v>
       </c>
-      <c r="R62" s="22"/>
+      <c r="R62" s="88"/>
     </row>
     <row r="63" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A63" s="42"/>
-      <c r="B63" s="37"/>
-      <c r="C63" s="38"/>
-      <c r="D63" s="39"/>
+      <c r="A63" s="55"/>
+      <c r="B63" s="60"/>
+      <c r="C63" s="61"/>
+      <c r="D63" s="92"/>
       <c r="E63" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="F63" s="21" t="s">
+      <c r="F63" s="89" t="s">
         <v>291</v>
       </c>
-      <c r="G63" s="29"/>
-      <c r="H63" s="22"/>
+      <c r="G63" s="87"/>
+      <c r="H63" s="88"/>
       <c r="I63" s="8"/>
-      <c r="J63" s="21" t="s">
+      <c r="J63" s="89" t="s">
         <v>282</v>
       </c>
-      <c r="K63" s="22"/>
-      <c r="L63" s="21" t="s">
+      <c r="K63" s="88"/>
+      <c r="L63" s="89" t="s">
         <v>283</v>
       </c>
-      <c r="M63" s="22"/>
-      <c r="N63" s="21" t="s">
+      <c r="M63" s="88"/>
+      <c r="N63" s="89" t="s">
         <v>292</v>
       </c>
-      <c r="O63" s="22"/>
+      <c r="O63" s="88"/>
       <c r="P63" s="7">
         <v>43360</v>
       </c>
-      <c r="Q63" s="21" t="s">
+      <c r="Q63" s="89" t="s">
         <v>285</v>
       </c>
-      <c r="R63" s="22"/>
+      <c r="R63" s="88"/>
     </row>
     <row r="64" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="40" t="s">
+      <c r="A64" s="21" t="s">
         <v>293</v>
       </c>
-      <c r="B64" s="34" t="s">
+      <c r="B64" s="23" t="s">
         <v>294</v>
       </c>
-      <c r="C64" s="30"/>
-      <c r="D64" s="24"/>
+      <c r="C64" s="56"/>
+      <c r="D64" s="90"/>
       <c r="E64" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="F64" s="21" t="s">
+      <c r="F64" s="89" t="s">
         <v>296</v>
       </c>
-      <c r="G64" s="29"/>
-      <c r="H64" s="22"/>
+      <c r="G64" s="87"/>
+      <c r="H64" s="88"/>
       <c r="I64" s="8"/>
-      <c r="J64" s="21" t="s">
+      <c r="J64" s="89" t="s">
         <v>297</v>
       </c>
-      <c r="K64" s="22"/>
-      <c r="L64" s="21" t="s">
+      <c r="K64" s="88"/>
+      <c r="L64" s="89" t="s">
         <v>298</v>
       </c>
-      <c r="M64" s="22"/>
-      <c r="N64" s="21" t="s">
+      <c r="M64" s="88"/>
+      <c r="N64" s="89" t="s">
         <v>299</v>
       </c>
-      <c r="O64" s="22"/>
+      <c r="O64" s="88"/>
       <c r="P64" s="7">
         <v>43360</v>
       </c>
-      <c r="Q64" s="21" t="s">
+      <c r="Q64" s="89" t="s">
         <v>285</v>
       </c>
-      <c r="R64" s="22"/>
+      <c r="R64" s="88"/>
     </row>
     <row r="65" spans="1:18" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="42"/>
-      <c r="B65" s="37"/>
-      <c r="C65" s="38"/>
-      <c r="D65" s="39"/>
+      <c r="A65" s="55"/>
+      <c r="B65" s="60"/>
+      <c r="C65" s="61"/>
+      <c r="D65" s="92"/>
       <c r="E65" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="F65" s="21" t="s">
+      <c r="F65" s="89" t="s">
         <v>287</v>
       </c>
-      <c r="G65" s="29"/>
-      <c r="H65" s="22"/>
+      <c r="G65" s="87"/>
+      <c r="H65" s="88"/>
       <c r="I65" s="8"/>
-      <c r="J65" s="21" t="s">
+      <c r="J65" s="89" t="s">
         <v>297</v>
       </c>
-      <c r="K65" s="22"/>
-      <c r="L65" s="21" t="s">
+      <c r="K65" s="88"/>
+      <c r="L65" s="89" t="s">
         <v>301</v>
       </c>
-      <c r="M65" s="22"/>
-      <c r="N65" s="21" t="s">
+      <c r="M65" s="88"/>
+      <c r="N65" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="O65" s="22"/>
+      <c r="O65" s="88"/>
       <c r="P65" s="7">
         <v>43360</v>
       </c>
-      <c r="Q65" s="21" t="s">
+      <c r="Q65" s="89" t="s">
         <v>289</v>
       </c>
-      <c r="R65" s="22"/>
+      <c r="R65" s="88"/>
     </row>
     <row r="66" spans="1:18" s="11" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="40" t="s">
+      <c r="A66" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="B66" s="34" t="s">
+      <c r="B66" s="23" t="s">
         <v>315</v>
       </c>
-      <c r="C66" s="43"/>
-      <c r="D66" s="44"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="81"/>
       <c r="E66" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="F66" s="26" t="s">
+      <c r="F66" s="77" t="s">
         <v>320</v>
       </c>
-      <c r="G66" s="57"/>
-      <c r="H66" s="58"/>
+      <c r="G66" s="83"/>
+      <c r="H66" s="84"/>
       <c r="I66" s="8"/>
-      <c r="J66" s="26" t="s">
+      <c r="J66" s="77" t="s">
         <v>324</v>
       </c>
-      <c r="K66" s="25"/>
-      <c r="L66" s="26" t="s">
+      <c r="K66" s="78"/>
+      <c r="L66" s="77" t="s">
         <v>325</v>
       </c>
-      <c r="M66" s="25"/>
-      <c r="N66" s="26" t="s">
+      <c r="M66" s="78"/>
+      <c r="N66" s="77" t="s">
         <v>329</v>
       </c>
-      <c r="O66" s="25"/>
+      <c r="O66" s="78"/>
       <c r="P66" s="7">
         <v>43393</v>
       </c>
-      <c r="Q66" s="21" t="s">
+      <c r="Q66" s="89" t="s">
         <v>330</v>
       </c>
-      <c r="R66" s="25"/>
+      <c r="R66" s="78"/>
     </row>
     <row r="67" spans="1:18" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A67" s="48"/>
-      <c r="B67" s="45"/>
-      <c r="C67" s="46"/>
-      <c r="D67" s="47"/>
+      <c r="A67" s="99"/>
+      <c r="B67" s="96"/>
+      <c r="C67" s="97"/>
+      <c r="D67" s="98"/>
       <c r="E67" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="F67" s="26" t="s">
+      <c r="F67" s="77" t="s">
         <v>321</v>
       </c>
-      <c r="G67" s="59"/>
-      <c r="H67" s="25"/>
+      <c r="G67" s="85"/>
+      <c r="H67" s="78"/>
       <c r="I67" s="8"/>
-      <c r="J67" s="26" t="s">
+      <c r="J67" s="77" t="s">
         <v>324</v>
       </c>
-      <c r="K67" s="25"/>
-      <c r="L67" s="26" t="s">
+      <c r="K67" s="78"/>
+      <c r="L67" s="77" t="s">
         <v>326</v>
       </c>
-      <c r="M67" s="25"/>
-      <c r="N67" s="26" t="s">
+      <c r="M67" s="78"/>
+      <c r="N67" s="77" t="s">
         <v>328</v>
       </c>
-      <c r="O67" s="25"/>
+      <c r="O67" s="78"/>
       <c r="P67" s="7">
         <v>43394</v>
       </c>
-      <c r="Q67" s="26" t="s">
+      <c r="Q67" s="77" t="s">
         <v>331</v>
       </c>
-      <c r="R67" s="25"/>
+      <c r="R67" s="78"/>
     </row>
     <row r="68" spans="1:18" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="48"/>
-      <c r="B68" s="45"/>
-      <c r="C68" s="46"/>
-      <c r="D68" s="47"/>
+      <c r="A68" s="99"/>
+      <c r="B68" s="96"/>
+      <c r="C68" s="97"/>
+      <c r="D68" s="98"/>
       <c r="E68" s="12" t="s">
         <v>316</v>
       </c>
-      <c r="F68" s="26" t="s">
+      <c r="F68" s="77" t="s">
         <v>322</v>
       </c>
-      <c r="G68" s="59"/>
-      <c r="H68" s="25"/>
+      <c r="G68" s="85"/>
+      <c r="H68" s="78"/>
       <c r="I68" s="8"/>
-      <c r="J68" s="26" t="s">
+      <c r="J68" s="77" t="s">
         <v>120</v>
       </c>
-      <c r="K68" s="25"/>
-      <c r="L68" s="26"/>
-      <c r="M68" s="25"/>
-      <c r="N68" s="26"/>
-      <c r="O68" s="25"/>
+      <c r="K68" s="78"/>
+      <c r="L68" s="77"/>
+      <c r="M68" s="78"/>
+      <c r="N68" s="77"/>
+      <c r="O68" s="78"/>
       <c r="P68" s="7">
         <v>43395</v>
       </c>
-      <c r="Q68" s="21" t="s">
+      <c r="Q68" s="89" t="s">
         <v>341</v>
       </c>
-      <c r="R68" s="25"/>
+      <c r="R68" s="78"/>
     </row>
     <row r="69" spans="1:18" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="51" t="s">
+      <c r="A69" s="79" t="s">
         <v>314</v>
       </c>
-      <c r="B69" s="53" t="s">
+      <c r="B69" s="80" t="s">
         <v>319</v>
       </c>
-      <c r="C69" s="43"/>
-      <c r="D69" s="44"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="81"/>
       <c r="E69" s="12" t="s">
         <v>312</v>
       </c>
-      <c r="F69" s="26" t="s">
+      <c r="F69" s="77" t="s">
         <v>319</v>
       </c>
-      <c r="G69" s="59"/>
-      <c r="H69" s="25"/>
+      <c r="G69" s="85"/>
+      <c r="H69" s="78"/>
       <c r="I69" s="8"/>
-      <c r="J69" s="26" t="s">
+      <c r="J69" s="77" t="s">
         <v>324</v>
       </c>
-      <c r="K69" s="25"/>
-      <c r="L69" s="26" t="s">
+      <c r="K69" s="78"/>
+      <c r="L69" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="M69" s="25"/>
-      <c r="N69" s="26" t="s">
+      <c r="M69" s="78"/>
+      <c r="N69" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="O69" s="25"/>
+      <c r="O69" s="78"/>
       <c r="P69" s="7">
         <v>43395</v>
       </c>
-      <c r="Q69" s="21" t="s">
+      <c r="Q69" s="89" t="s">
         <v>332</v>
       </c>
-      <c r="R69" s="25"/>
+      <c r="R69" s="78"/>
     </row>
     <row r="70" spans="1:18" s="11" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="52"/>
-      <c r="B70" s="54"/>
-      <c r="C70" s="55"/>
-      <c r="D70" s="56"/>
+      <c r="A70" s="22"/>
+      <c r="B70" s="26"/>
+      <c r="C70" s="27"/>
+      <c r="D70" s="82"/>
       <c r="E70" s="12" t="s">
         <v>313</v>
       </c>
-      <c r="F70" s="26" t="s">
+      <c r="F70" s="77" t="s">
         <v>323</v>
       </c>
-      <c r="G70" s="59"/>
-      <c r="H70" s="25"/>
+      <c r="G70" s="85"/>
+      <c r="H70" s="78"/>
       <c r="I70" s="8"/>
-      <c r="J70" s="26" t="s">
+      <c r="J70" s="77" t="s">
         <v>120</v>
       </c>
-      <c r="K70" s="25"/>
-      <c r="L70" s="26"/>
-      <c r="M70" s="25"/>
-      <c r="N70" s="26" t="s">
+      <c r="K70" s="78"/>
+      <c r="L70" s="77"/>
+      <c r="M70" s="78"/>
+      <c r="N70" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="O70" s="25"/>
+      <c r="O70" s="78"/>
       <c r="P70" s="7">
         <v>43395</v>
       </c>
-      <c r="Q70" s="21" t="s">
+      <c r="Q70" s="89" t="s">
         <v>342</v>
       </c>
-      <c r="R70" s="25"/>
+      <c r="R70" s="78"/>
     </row>
     <row r="71" spans="1:18" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="40" t="s">
+      <c r="A71" s="21" t="s">
         <v>333</v>
       </c>
-      <c r="B71" s="34" t="s">
+      <c r="B71" s="23" t="s">
         <v>303</v>
       </c>
-      <c r="C71" s="30"/>
-      <c r="D71" s="24"/>
+      <c r="C71" s="56"/>
+      <c r="D71" s="90"/>
       <c r="E71" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="F71" s="21" t="s">
+      <c r="F71" s="89" t="s">
         <v>305</v>
       </c>
-      <c r="G71" s="29"/>
-      <c r="H71" s="22"/>
+      <c r="G71" s="87"/>
+      <c r="H71" s="88"/>
       <c r="I71" s="8"/>
-      <c r="J71" s="26" t="s">
+      <c r="J71" s="77" t="s">
         <v>306</v>
       </c>
-      <c r="K71" s="22"/>
-      <c r="L71" s="21"/>
-      <c r="M71" s="22"/>
-      <c r="N71" s="26" t="s">
+      <c r="K71" s="88"/>
+      <c r="L71" s="89"/>
+      <c r="M71" s="88"/>
+      <c r="N71" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="O71" s="22"/>
+      <c r="O71" s="88"/>
       <c r="P71" s="7">
         <v>43360</v>
       </c>
-      <c r="Q71" s="21" t="s">
+      <c r="Q71" s="89" t="s">
         <v>307</v>
       </c>
-      <c r="R71" s="22"/>
+      <c r="R71" s="88"/>
     </row>
     <row r="72" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="42"/>
-      <c r="B72" s="37"/>
-      <c r="C72" s="38"/>
-      <c r="D72" s="39"/>
+      <c r="A72" s="55"/>
+      <c r="B72" s="60"/>
+      <c r="C72" s="61"/>
+      <c r="D72" s="92"/>
       <c r="E72" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="F72" s="23" t="s">
+      <c r="F72" s="95" t="s">
         <v>309</v>
       </c>
-      <c r="G72" s="30"/>
-      <c r="H72" s="24"/>
-      <c r="J72" s="23" t="s">
+      <c r="G72" s="56"/>
+      <c r="H72" s="90"/>
+      <c r="J72" s="95" t="s">
         <v>310</v>
       </c>
-      <c r="K72" s="24"/>
-      <c r="L72" s="23"/>
-      <c r="M72" s="24"/>
-      <c r="N72" s="23" t="s">
+      <c r="K72" s="90"/>
+      <c r="L72" s="95"/>
+      <c r="M72" s="90"/>
+      <c r="N72" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="O72" s="24"/>
+      <c r="O72" s="90"/>
       <c r="P72" s="18">
         <v>43360</v>
       </c>
-      <c r="Q72" s="23" t="s">
+      <c r="Q72" s="95" t="s">
         <v>311</v>
       </c>
-      <c r="R72" s="24"/>
+      <c r="R72" s="90"/>
     </row>
     <row r="73" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="40" t="s">
+      <c r="A73" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="B73" s="34" t="s">
+      <c r="B73" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="C73" s="30"/>
-      <c r="D73" s="30"/>
-      <c r="E73" s="61" t="s">
+      <c r="C73" s="56"/>
+      <c r="D73" s="56"/>
+      <c r="E73" s="62" t="s">
         <v>318</v>
       </c>
-      <c r="F73" s="64" t="s">
+      <c r="F73" s="65" t="s">
         <v>345</v>
       </c>
-      <c r="G73" s="65"/>
-      <c r="H73" s="66"/>
-      <c r="I73" s="73"/>
-      <c r="J73" s="79" t="s">
+      <c r="G73" s="66"/>
+      <c r="H73" s="67"/>
+      <c r="I73" s="74"/>
+      <c r="J73" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="K73" s="80"/>
-      <c r="L73" s="79" t="s">
+      <c r="K73" s="38"/>
+      <c r="L73" s="37" t="s">
         <v>352</v>
       </c>
-      <c r="M73" s="80"/>
-      <c r="N73" s="85"/>
-      <c r="O73" s="86"/>
-      <c r="P73" s="91">
+      <c r="M73" s="38"/>
+      <c r="N73" s="43"/>
+      <c r="O73" s="44"/>
+      <c r="P73" s="49">
         <v>43427</v>
       </c>
-      <c r="Q73" s="79" t="s">
+      <c r="Q73" s="37" t="s">
         <v>354</v>
       </c>
-      <c r="R73" s="80"/>
+      <c r="R73" s="38"/>
     </row>
     <row r="74" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="41"/>
-      <c r="B74" s="35"/>
-      <c r="C74" s="32"/>
-      <c r="D74" s="60"/>
-      <c r="E74" s="62"/>
-      <c r="F74" s="67"/>
-      <c r="G74" s="68"/>
-      <c r="H74" s="69"/>
-      <c r="I74" s="74"/>
-      <c r="J74" s="81"/>
-      <c r="K74" s="82"/>
-      <c r="L74" s="81"/>
-      <c r="M74" s="82"/>
-      <c r="N74" s="87"/>
-      <c r="O74" s="88"/>
-      <c r="P74" s="92"/>
-      <c r="Q74" s="81"/>
-      <c r="R74" s="82"/>
+      <c r="A74" s="54"/>
+      <c r="B74" s="57"/>
+      <c r="C74" s="58"/>
+      <c r="D74" s="59"/>
+      <c r="E74" s="63"/>
+      <c r="F74" s="68"/>
+      <c r="G74" s="69"/>
+      <c r="H74" s="70"/>
+      <c r="I74" s="75"/>
+      <c r="J74" s="39"/>
+      <c r="K74" s="40"/>
+      <c r="L74" s="39"/>
+      <c r="M74" s="40"/>
+      <c r="N74" s="45"/>
+      <c r="O74" s="46"/>
+      <c r="P74" s="50"/>
+      <c r="Q74" s="39"/>
+      <c r="R74" s="40"/>
     </row>
     <row r="75" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="41"/>
-      <c r="B75" s="35"/>
-      <c r="C75" s="32"/>
-      <c r="D75" s="60"/>
-      <c r="E75" s="62"/>
-      <c r="F75" s="67"/>
-      <c r="G75" s="68"/>
-      <c r="H75" s="69"/>
-      <c r="I75" s="74"/>
-      <c r="J75" s="81"/>
-      <c r="K75" s="82"/>
-      <c r="L75" s="81"/>
-      <c r="M75" s="82"/>
-      <c r="N75" s="87"/>
-      <c r="O75" s="88"/>
-      <c r="P75" s="92"/>
-      <c r="Q75" s="81"/>
-      <c r="R75" s="82"/>
+      <c r="A75" s="54"/>
+      <c r="B75" s="57"/>
+      <c r="C75" s="58"/>
+      <c r="D75" s="59"/>
+      <c r="E75" s="63"/>
+      <c r="F75" s="68"/>
+      <c r="G75" s="69"/>
+      <c r="H75" s="70"/>
+      <c r="I75" s="75"/>
+      <c r="J75" s="39"/>
+      <c r="K75" s="40"/>
+      <c r="L75" s="39"/>
+      <c r="M75" s="40"/>
+      <c r="N75" s="45"/>
+      <c r="O75" s="46"/>
+      <c r="P75" s="50"/>
+      <c r="Q75" s="39"/>
+      <c r="R75" s="40"/>
     </row>
     <row r="76" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="42"/>
-      <c r="B76" s="37"/>
-      <c r="C76" s="38"/>
-      <c r="D76" s="38"/>
-      <c r="E76" s="63"/>
-      <c r="F76" s="70"/>
-      <c r="G76" s="71"/>
-      <c r="H76" s="72"/>
-      <c r="I76" s="75"/>
-      <c r="J76" s="83"/>
-      <c r="K76" s="84"/>
-      <c r="L76" s="83"/>
-      <c r="M76" s="84"/>
-      <c r="N76" s="89"/>
-      <c r="O76" s="90"/>
-      <c r="P76" s="93"/>
-      <c r="Q76" s="83"/>
-      <c r="R76" s="84"/>
+      <c r="A76" s="55"/>
+      <c r="B76" s="60"/>
+      <c r="C76" s="61"/>
+      <c r="D76" s="61"/>
+      <c r="E76" s="64"/>
+      <c r="F76" s="71"/>
+      <c r="G76" s="72"/>
+      <c r="H76" s="73"/>
+      <c r="I76" s="76"/>
+      <c r="J76" s="41"/>
+      <c r="K76" s="42"/>
+      <c r="L76" s="41"/>
+      <c r="M76" s="42"/>
+      <c r="N76" s="47"/>
+      <c r="O76" s="48"/>
+      <c r="P76" s="51"/>
+      <c r="Q76" s="41"/>
+      <c r="R76" s="42"/>
     </row>
     <row r="77" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="40" t="s">
+      <c r="A77" s="21" t="s">
         <v>333</v>
       </c>
-      <c r="B77" s="34" t="s">
+      <c r="B77" s="23" t="s">
         <v>303</v>
       </c>
-      <c r="C77" s="30"/>
-      <c r="D77" s="30"/>
+      <c r="C77" s="24"/>
+      <c r="D77" s="25"/>
       <c r="E77" s="15" t="s">
         <v>348</v>
       </c>
-      <c r="F77" s="76" t="s">
+      <c r="F77" s="29" t="s">
         <v>346</v>
       </c>
-      <c r="G77" s="77"/>
-      <c r="H77" s="78"/>
+      <c r="G77" s="30"/>
+      <c r="H77" s="31"/>
       <c r="I77" s="16"/>
-      <c r="J77" s="76" t="s">
+      <c r="J77" s="29" t="s">
         <v>359</v>
       </c>
-      <c r="K77" s="94"/>
-      <c r="L77" s="95" t="s">
+      <c r="K77" s="32"/>
+      <c r="L77" s="33" t="s">
         <v>353</v>
       </c>
-      <c r="M77" s="96"/>
-      <c r="N77" s="76" t="s">
+      <c r="M77" s="52"/>
+      <c r="N77" s="29" t="s">
         <v>350</v>
       </c>
-      <c r="O77" s="94"/>
+      <c r="O77" s="32"/>
       <c r="P77" s="19">
         <v>43429</v>
       </c>
-      <c r="Q77" s="97" t="s">
+      <c r="Q77" s="35" t="s">
         <v>355</v>
       </c>
-      <c r="R77" s="98"/>
+      <c r="R77" s="53"/>
     </row>
     <row r="78" spans="1:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="42"/>
-      <c r="B78" s="37"/>
-      <c r="C78" s="38"/>
-      <c r="D78" s="38"/>
+      <c r="A78" s="99"/>
+      <c r="B78" s="96"/>
+      <c r="C78" s="97"/>
+      <c r="D78" s="107"/>
       <c r="E78" s="17" t="s">
         <v>349</v>
       </c>
-      <c r="F78" s="76" t="s">
+      <c r="F78" s="29" t="s">
         <v>347</v>
       </c>
-      <c r="G78" s="77"/>
-      <c r="H78" s="78"/>
+      <c r="G78" s="30"/>
+      <c r="H78" s="31"/>
       <c r="I78" s="16"/>
-      <c r="J78" s="76" t="s">
+      <c r="J78" s="29" t="s">
         <v>360</v>
       </c>
-      <c r="K78" s="94"/>
-      <c r="L78" s="95" t="s">
+      <c r="K78" s="32"/>
+      <c r="L78" s="33" t="s">
         <v>353</v>
       </c>
-      <c r="M78" s="96"/>
-      <c r="N78" s="76" t="s">
+      <c r="M78" s="52"/>
+      <c r="N78" s="29" t="s">
         <v>351</v>
       </c>
-      <c r="O78" s="94"/>
+      <c r="O78" s="32"/>
       <c r="P78" s="19">
         <v>43429</v>
       </c>
-      <c r="Q78" s="97" t="s">
+      <c r="Q78" s="35" t="s">
         <v>356</v>
       </c>
-      <c r="R78" s="98"/>
+      <c r="R78" s="53"/>
     </row>
     <row r="79" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="40" t="s">
-        <v>333</v>
-      </c>
-      <c r="B79" s="34" t="s">
-        <v>303</v>
-      </c>
-      <c r="C79" s="43"/>
-      <c r="D79" s="105"/>
+      <c r="A79" s="99"/>
+      <c r="B79" s="96"/>
+      <c r="C79" s="97"/>
+      <c r="D79" s="107"/>
       <c r="E79" s="20" t="s">
-        <v>348</v>
-      </c>
-      <c r="F79" s="76" t="s">
+        <v>366</v>
+      </c>
+      <c r="F79" s="29" t="s">
         <v>357</v>
       </c>
-      <c r="G79" s="77"/>
-      <c r="H79" s="78"/>
+      <c r="G79" s="30"/>
+      <c r="H79" s="31"/>
       <c r="I79" s="16"/>
-      <c r="J79" s="76" t="s">
+      <c r="J79" s="29" t="s">
         <v>360</v>
       </c>
-      <c r="K79" s="94"/>
-      <c r="L79" s="95" t="s">
+      <c r="K79" s="32"/>
+      <c r="L79" s="33" t="s">
         <v>362</v>
       </c>
-      <c r="M79" s="104"/>
-      <c r="N79" s="76" t="s">
+      <c r="M79" s="34"/>
+      <c r="N79" s="29" t="s">
         <v>363</v>
       </c>
-      <c r="O79" s="78"/>
+      <c r="O79" s="31"/>
       <c r="P79" s="19">
         <v>43429</v>
       </c>
-      <c r="Q79" s="97" t="s">
+      <c r="Q79" s="35" t="s">
         <v>364</v>
       </c>
-      <c r="R79" s="103"/>
+      <c r="R79" s="36"/>
     </row>
     <row r="80" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="52"/>
-      <c r="B80" s="54"/>
-      <c r="C80" s="55"/>
-      <c r="D80" s="106"/>
+      <c r="A80" s="22"/>
+      <c r="B80" s="26"/>
+      <c r="C80" s="27"/>
+      <c r="D80" s="28"/>
       <c r="E80" s="17" t="s">
-        <v>349</v>
-      </c>
-      <c r="F80" s="76" t="s">
+        <v>367</v>
+      </c>
+      <c r="F80" s="29" t="s">
         <v>358</v>
       </c>
-      <c r="G80" s="77"/>
-      <c r="H80" s="78"/>
+      <c r="G80" s="30"/>
+      <c r="H80" s="31"/>
       <c r="I80" s="16"/>
-      <c r="J80" s="76" t="s">
+      <c r="J80" s="29" t="s">
         <v>361</v>
       </c>
-      <c r="K80" s="78"/>
-      <c r="L80" s="95" t="s">
+      <c r="K80" s="31"/>
+      <c r="L80" s="33" t="s">
         <v>353</v>
       </c>
-      <c r="M80" s="104"/>
-      <c r="N80" s="76" t="s">
+      <c r="M80" s="34"/>
+      <c r="N80" s="29" t="s">
         <v>351</v>
       </c>
-      <c r="O80" s="78"/>
+      <c r="O80" s="31"/>
       <c r="P80" s="19">
         <v>43429</v>
       </c>
-      <c r="Q80" s="97" t="s">
+      <c r="Q80" s="35" t="s">
         <v>365</v>
       </c>
-      <c r="R80" s="103"/>
+      <c r="R80" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="416">
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:D80"/>
-    <mergeCell ref="F79:H79"/>
-    <mergeCell ref="J79:K79"/>
-    <mergeCell ref="L79:M79"/>
-    <mergeCell ref="N79:O79"/>
-    <mergeCell ref="Q79:R79"/>
-    <mergeCell ref="F80:H80"/>
-    <mergeCell ref="J80:K80"/>
-    <mergeCell ref="L80:M80"/>
-    <mergeCell ref="N80:O80"/>
-    <mergeCell ref="Q80:R80"/>
-    <mergeCell ref="J73:K76"/>
-    <mergeCell ref="L73:M76"/>
-    <mergeCell ref="N73:O76"/>
-    <mergeCell ref="P73:P76"/>
-    <mergeCell ref="Q73:R76"/>
-    <mergeCell ref="J77:K77"/>
-    <mergeCell ref="J78:K78"/>
-    <mergeCell ref="L78:M78"/>
-    <mergeCell ref="L77:M77"/>
-    <mergeCell ref="N77:O77"/>
-    <mergeCell ref="N78:O78"/>
-    <mergeCell ref="Q77:R77"/>
-    <mergeCell ref="Q78:R78"/>
-    <mergeCell ref="A73:A76"/>
-    <mergeCell ref="B73:D76"/>
-    <mergeCell ref="E73:E76"/>
-    <mergeCell ref="F73:H76"/>
-    <mergeCell ref="I73:I76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:D78"/>
-    <mergeCell ref="F78:H78"/>
-    <mergeCell ref="F77:H77"/>
-    <mergeCell ref="L70:M70"/>
-    <mergeCell ref="N66:O66"/>
-    <mergeCell ref="N67:O67"/>
-    <mergeCell ref="N68:O68"/>
-    <mergeCell ref="N69:O69"/>
-    <mergeCell ref="N70:O70"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:D70"/>
-    <mergeCell ref="F66:H66"/>
-    <mergeCell ref="F67:H67"/>
-    <mergeCell ref="F68:H68"/>
-    <mergeCell ref="F69:H69"/>
-    <mergeCell ref="F70:H70"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="J70:K70"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="A21:A27"/>
-    <mergeCell ref="A6:A13"/>
-    <mergeCell ref="B16:D20"/>
-    <mergeCell ref="B21:D27"/>
-    <mergeCell ref="F13:H13"/>
+  <mergeCells count="414">
+    <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="Q51:R51"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="Q56:R56"/>
+    <mergeCell ref="Q57:R57"/>
+    <mergeCell ref="Q72:R72"/>
+    <mergeCell ref="Q71:R71"/>
+    <mergeCell ref="Q53:R53"/>
+    <mergeCell ref="Q61:R61"/>
+    <mergeCell ref="Q60:R60"/>
+    <mergeCell ref="Q62:R62"/>
+    <mergeCell ref="Q63:R63"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="Q58:R58"/>
+    <mergeCell ref="Q59:R59"/>
+    <mergeCell ref="Q66:R66"/>
+    <mergeCell ref="Q67:R67"/>
+    <mergeCell ref="Q68:R68"/>
+    <mergeCell ref="Q69:R69"/>
+    <mergeCell ref="Q70:R70"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="Q64:R64"/>
+    <mergeCell ref="Q65:R65"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="Q55:R55"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="Q47:R47"/>
+    <mergeCell ref="Q49:R49"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="F63:H63"/>
+    <mergeCell ref="F64:H64"/>
+    <mergeCell ref="F53:H53"/>
+    <mergeCell ref="F54:H54"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="F71:H71"/>
+    <mergeCell ref="F72:H72"/>
+    <mergeCell ref="F65:H65"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="F61:H61"/>
+    <mergeCell ref="F57:H57"/>
+    <mergeCell ref="F58:H58"/>
+    <mergeCell ref="F62:H62"/>
+    <mergeCell ref="F55:H55"/>
+    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="F60:H60"/>
+    <mergeCell ref="F59:H59"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B43:D45"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D42"/>
+    <mergeCell ref="B54:D59"/>
+    <mergeCell ref="B48:D53"/>
+    <mergeCell ref="B46:D47"/>
+    <mergeCell ref="A54:A59"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B14:D15"/>
+    <mergeCell ref="B6:D13"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:D32"/>
+    <mergeCell ref="B33:D37"/>
+    <mergeCell ref="B28:D30"/>
+    <mergeCell ref="B61:D63"/>
+    <mergeCell ref="B64:D65"/>
+    <mergeCell ref="B71:D72"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A48:A53"/>
+    <mergeCell ref="B66:D68"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="J71:K71"/>
+    <mergeCell ref="J72:K72"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="N22:O22"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="F27:H27"/>
@@ -5158,334 +5427,68 @@
     <mergeCell ref="F14:H14"/>
     <mergeCell ref="F12:H12"/>
     <mergeCell ref="A2:J2"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="N65:O65"/>
-    <mergeCell ref="N71:O71"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="N61:O61"/>
-    <mergeCell ref="N60:O60"/>
-    <mergeCell ref="N59:O59"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="N72:O72"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="L58:M58"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="L63:M63"/>
-    <mergeCell ref="L62:M62"/>
-    <mergeCell ref="N56:O56"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="N55:O55"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="N58:O58"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="N64:O64"/>
-    <mergeCell ref="L71:M71"/>
-    <mergeCell ref="N63:O63"/>
-    <mergeCell ref="N62:O62"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="L72:M72"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="L67:M67"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="J71:K71"/>
-    <mergeCell ref="J72:K72"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="A54:A59"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B14:D15"/>
-    <mergeCell ref="B6:D13"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:D32"/>
-    <mergeCell ref="B33:D37"/>
-    <mergeCell ref="B28:D30"/>
-    <mergeCell ref="B61:D63"/>
-    <mergeCell ref="B64:D65"/>
-    <mergeCell ref="B71:D72"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="A48:A53"/>
-    <mergeCell ref="B66:D68"/>
-    <mergeCell ref="A66:A68"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B43:D45"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D42"/>
-    <mergeCell ref="B54:D59"/>
-    <mergeCell ref="B48:D53"/>
-    <mergeCell ref="B46:D47"/>
-    <mergeCell ref="F71:H71"/>
-    <mergeCell ref="F72:H72"/>
-    <mergeCell ref="F65:H65"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="F61:H61"/>
-    <mergeCell ref="F57:H57"/>
-    <mergeCell ref="F58:H58"/>
-    <mergeCell ref="F62:H62"/>
-    <mergeCell ref="F55:H55"/>
-    <mergeCell ref="F56:H56"/>
-    <mergeCell ref="F60:H60"/>
-    <mergeCell ref="F59:H59"/>
-    <mergeCell ref="F51:H51"/>
-    <mergeCell ref="F52:H52"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="F48:H48"/>
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="F49:H49"/>
-    <mergeCell ref="F63:H63"/>
-    <mergeCell ref="F64:H64"/>
-    <mergeCell ref="F53:H53"/>
-    <mergeCell ref="F54:H54"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="Q64:R64"/>
-    <mergeCell ref="Q65:R65"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="Q54:R54"/>
-    <mergeCell ref="Q55:R55"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="Q47:R47"/>
-    <mergeCell ref="Q49:R49"/>
-    <mergeCell ref="Q50:R50"/>
-    <mergeCell ref="Q51:R51"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="Q56:R56"/>
-    <mergeCell ref="Q57:R57"/>
-    <mergeCell ref="Q72:R72"/>
-    <mergeCell ref="Q71:R71"/>
-    <mergeCell ref="Q53:R53"/>
-    <mergeCell ref="Q61:R61"/>
-    <mergeCell ref="Q60:R60"/>
-    <mergeCell ref="Q62:R62"/>
-    <mergeCell ref="Q63:R63"/>
-    <mergeCell ref="Q52:R52"/>
-    <mergeCell ref="Q58:R58"/>
-    <mergeCell ref="Q59:R59"/>
-    <mergeCell ref="Q66:R66"/>
-    <mergeCell ref="Q67:R67"/>
-    <mergeCell ref="Q68:R68"/>
-    <mergeCell ref="Q69:R69"/>
-    <mergeCell ref="Q70:R70"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="A21:A27"/>
+    <mergeCell ref="A6:A13"/>
+    <mergeCell ref="B16:D20"/>
+    <mergeCell ref="B21:D27"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:D70"/>
+    <mergeCell ref="F66:H66"/>
+    <mergeCell ref="F67:H67"/>
+    <mergeCell ref="F68:H68"/>
+    <mergeCell ref="F69:H69"/>
+    <mergeCell ref="F70:H70"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="J70:K70"/>
+    <mergeCell ref="A73:A76"/>
+    <mergeCell ref="B73:D76"/>
+    <mergeCell ref="E73:E76"/>
+    <mergeCell ref="F73:H76"/>
+    <mergeCell ref="I73:I76"/>
+    <mergeCell ref="F78:H78"/>
+    <mergeCell ref="F77:H77"/>
+    <mergeCell ref="A77:A80"/>
+    <mergeCell ref="B77:D80"/>
+    <mergeCell ref="J73:K76"/>
+    <mergeCell ref="L73:M76"/>
+    <mergeCell ref="N73:O76"/>
+    <mergeCell ref="P73:P76"/>
+    <mergeCell ref="Q73:R76"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="J78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="Q77:R77"/>
+    <mergeCell ref="Q78:R78"/>
+    <mergeCell ref="F79:H79"/>
+    <mergeCell ref="J79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="Q79:R79"/>
+    <mergeCell ref="F80:H80"/>
+    <mergeCell ref="J80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="Q80:R80"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5507,30 +5510,30 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
@@ -5544,244 +5547,288 @@
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="102" t="s">
+      <c r="B4" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="22"/>
+      <c r="C4" s="88"/>
       <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="102" t="s">
+      <c r="E4" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="22"/>
+      <c r="F4" s="88"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
-      <c r="B5" s="99"/>
-      <c r="C5" s="22"/>
+      <c r="B5" s="103"/>
+      <c r="C5" s="88"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="22"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="88"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
-      <c r="B6" s="99"/>
-      <c r="C6" s="22"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="88"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="22"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="88"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
-      <c r="B7" s="99"/>
-      <c r="C7" s="22"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="88"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="22"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="88"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
-      <c r="B8" s="99"/>
-      <c r="C8" s="22"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="88"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="22"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="88"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
-      <c r="B9" s="99"/>
-      <c r="C9" s="22"/>
+      <c r="B9" s="103"/>
+      <c r="C9" s="88"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="99"/>
-      <c r="F9" s="22"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="88"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
-      <c r="B10" s="99"/>
-      <c r="C10" s="22"/>
+      <c r="B10" s="103"/>
+      <c r="C10" s="88"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="99"/>
-      <c r="F10" s="22"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="88"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
-      <c r="B11" s="99"/>
-      <c r="C11" s="22"/>
+      <c r="B11" s="103"/>
+      <c r="C11" s="88"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="22"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="88"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
-      <c r="B12" s="99"/>
-      <c r="C12" s="22"/>
+      <c r="B12" s="103"/>
+      <c r="C12" s="88"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="99"/>
-      <c r="F12" s="22"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="88"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
-      <c r="B13" s="99"/>
-      <c r="C13" s="22"/>
+      <c r="B13" s="103"/>
+      <c r="C13" s="88"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="22"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="88"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
-      <c r="B14" s="99"/>
-      <c r="C14" s="22"/>
+      <c r="B14" s="103"/>
+      <c r="C14" s="88"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="22"/>
+      <c r="E14" s="103"/>
+      <c r="F14" s="88"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
-      <c r="B15" s="99"/>
-      <c r="C15" s="22"/>
+      <c r="B15" s="103"/>
+      <c r="C15" s="88"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="22"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="88"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
-      <c r="B16" s="99"/>
-      <c r="C16" s="22"/>
+      <c r="B16" s="103"/>
+      <c r="C16" s="88"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="99"/>
-      <c r="F16" s="22"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="88"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
-      <c r="B17" s="99"/>
-      <c r="C17" s="22"/>
+      <c r="B17" s="103"/>
+      <c r="C17" s="88"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="99"/>
-      <c r="F17" s="22"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="88"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
-      <c r="B18" s="99"/>
-      <c r="C18" s="22"/>
+      <c r="B18" s="103"/>
+      <c r="C18" s="88"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="22"/>
+      <c r="E18" s="103"/>
+      <c r="F18" s="88"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
-      <c r="B19" s="99"/>
-      <c r="C19" s="22"/>
+      <c r="B19" s="103"/>
+      <c r="C19" s="88"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="99"/>
-      <c r="F19" s="22"/>
+      <c r="E19" s="103"/>
+      <c r="F19" s="88"/>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
-      <c r="B20" s="99"/>
-      <c r="C20" s="22"/>
+      <c r="B20" s="103"/>
+      <c r="C20" s="88"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="99"/>
-      <c r="F20" s="22"/>
+      <c r="E20" s="103"/>
+      <c r="F20" s="88"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
-      <c r="B21" s="99"/>
-      <c r="C21" s="22"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="88"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="99"/>
-      <c r="F21" s="22"/>
+      <c r="E21" s="103"/>
+      <c r="F21" s="88"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
-      <c r="B22" s="99"/>
-      <c r="C22" s="22"/>
+      <c r="B22" s="103"/>
+      <c r="C22" s="88"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="99"/>
-      <c r="F22" s="22"/>
+      <c r="E22" s="103"/>
+      <c r="F22" s="88"/>
     </row>
     <row r="23" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
-      <c r="B23" s="99"/>
-      <c r="C23" s="22"/>
+      <c r="B23" s="103"/>
+      <c r="C23" s="88"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="99"/>
-      <c r="F23" s="22"/>
+      <c r="E23" s="103"/>
+      <c r="F23" s="88"/>
     </row>
     <row r="24" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
-      <c r="B24" s="99"/>
-      <c r="C24" s="22"/>
+      <c r="B24" s="103"/>
+      <c r="C24" s="88"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="99"/>
-      <c r="F24" s="22"/>
+      <c r="E24" s="103"/>
+      <c r="F24" s="88"/>
     </row>
     <row r="25" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
-      <c r="B25" s="99"/>
-      <c r="C25" s="22"/>
+      <c r="B25" s="103"/>
+      <c r="C25" s="88"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="99"/>
-      <c r="F25" s="22"/>
+      <c r="E25" s="103"/>
+      <c r="F25" s="88"/>
     </row>
     <row r="26" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
-      <c r="B26" s="99"/>
-      <c r="C26" s="22"/>
+      <c r="B26" s="103"/>
+      <c r="C26" s="88"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="99"/>
-      <c r="F26" s="22"/>
+      <c r="E26" s="103"/>
+      <c r="F26" s="88"/>
     </row>
     <row r="27" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
-      <c r="B27" s="99"/>
-      <c r="C27" s="22"/>
+      <c r="B27" s="103"/>
+      <c r="C27" s="88"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="99"/>
-      <c r="F27" s="22"/>
+      <c r="E27" s="103"/>
+      <c r="F27" s="88"/>
     </row>
     <row r="28" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
-      <c r="B28" s="99"/>
-      <c r="C28" s="22"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="88"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="99"/>
-      <c r="F28" s="22"/>
+      <c r="E28" s="103"/>
+      <c r="F28" s="88"/>
     </row>
     <row r="29" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
-      <c r="B29" s="99"/>
-      <c r="C29" s="22"/>
+      <c r="B29" s="103"/>
+      <c r="C29" s="88"/>
       <c r="D29" s="3"/>
-      <c r="E29" s="99"/>
-      <c r="F29" s="22"/>
+      <c r="E29" s="103"/>
+      <c r="F29" s="88"/>
     </row>
     <row r="30" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
-      <c r="B30" s="99"/>
-      <c r="C30" s="22"/>
+      <c r="B30" s="103"/>
+      <c r="C30" s="88"/>
       <c r="D30" s="3"/>
-      <c r="E30" s="99"/>
-      <c r="F30" s="22"/>
+      <c r="E30" s="103"/>
+      <c r="F30" s="88"/>
     </row>
     <row r="31" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
-      <c r="B31" s="99"/>
-      <c r="C31" s="22"/>
+      <c r="B31" s="103"/>
+      <c r="C31" s="88"/>
       <c r="D31" s="3"/>
-      <c r="E31" s="99"/>
-      <c r="F31" s="22"/>
+      <c r="E31" s="103"/>
+      <c r="F31" s="88"/>
     </row>
     <row r="32" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
-      <c r="B32" s="99"/>
-      <c r="C32" s="22"/>
+      <c r="B32" s="103"/>
+      <c r="C32" s="88"/>
       <c r="D32" s="3"/>
-      <c r="E32" s="99"/>
-      <c r="F32" s="22"/>
+      <c r="E32" s="103"/>
+      <c r="F32" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E6:F6"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="B15:C15"/>
@@ -5798,50 +5845,6 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E22:F22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
